--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37</v>
+        <v>763</v>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>819</v>
       </c>
       <c r="C2" t="n">
-        <v>136</v>
+        <v>906</v>
       </c>
       <c r="D2" t="n">
-        <v>2.361785238575353</v>
+        <v>3.377588757956842</v>
       </c>
       <c r="E2" t="n">
-        <v>1.694725761503344</v>
+        <v>2.712605453058606</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6670594770720087</v>
+        <v>-0.6649833048982364</v>
       </c>
       <c r="G2" t="n">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="H2" t="n">
-        <v>32.35660274631512</v>
+        <v>110.8829182569351</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="K2" t="n">
-        <v>144.359216148774</v>
+        <v>288.9215690152403</v>
       </c>
       <c r="L2" t="n">
-        <v>8.891741976170902</v>
+        <v>12.76109574236175</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8343568600813209</v>
+        <v>0.7627909356838701</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5967741935483871</v>
+        <v>0.6436781609195402</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4682482910058552</v>
+        <v>0.2040827725280237</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9656914567229216</v>
+        <v>0.9293355697967666</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>700</v>
+        <v>1490</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>761</v>
+        <v>1397</v>
       </c>
       <c r="B3" t="n">
-        <v>820</v>
+        <v>1420</v>
       </c>
       <c r="C3" t="n">
-        <v>905</v>
+        <v>1598</v>
       </c>
       <c r="D3" t="n">
-        <v>3.382091489108324</v>
+        <v>1.966205572017229</v>
       </c>
       <c r="E3" t="n">
-        <v>2.715032012036316</v>
+        <v>1.301222267118993</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6670594770720087</v>
+        <v>-0.6649833048982364</v>
       </c>
       <c r="G3" t="n">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="H3" t="n">
-        <v>108.8674948997786</v>
+        <v>56.93882402518193</v>
       </c>
       <c r="I3" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7168668811859</v>
+        <v>165.982834761761</v>
       </c>
       <c r="L3" t="n">
-        <v>12.733031085881</v>
+        <v>7.428653797644364</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.7655149146085803</v>
+        <v>0.8508592840257516</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6941176470588235</v>
+        <v>0.1292134831460674</v>
       </c>
       <c r="R3" t="n">
-        <v>0.236423126125482</v>
+        <v>0.3400704980761681</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9298388321490254</v>
+        <v>0.8731951013746037</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>701</v>
+        <v>1491</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1395</v>
+        <v>299</v>
       </c>
       <c r="B4" t="n">
-        <v>1422</v>
+        <v>331</v>
       </c>
       <c r="C4" t="n">
-        <v>1598</v>
+        <v>427</v>
       </c>
       <c r="D4" t="n">
-        <v>1.841875920556496</v>
+        <v>2.658213854826442</v>
       </c>
       <c r="E4" t="n">
-        <v>1.174816443484487</v>
+        <v>2.004814764966322</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6670594770720087</v>
+        <v>-0.6533990898601194</v>
       </c>
       <c r="G4" t="n">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>59.83071869799232</v>
+        <v>58.18764178935851</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="K4" t="n">
-        <v>166.4859335427956</v>
+        <v>202.1180636363501</v>
       </c>
       <c r="L4" t="n">
-        <v>6.934366923044045</v>
+        <v>6.968910175838426</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8689804406725067</v>
+        <v>0.9087160415081701</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1534090909090909</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3296746283373977</v>
+        <v>0.2868679775991262</v>
       </c>
       <c r="S4" t="n">
-        <v>0.882535045926076</v>
+        <v>0.8210077079364844</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>702</v>
+        <v>1492</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>298</v>
+        <v>1440</v>
       </c>
       <c r="B5" t="n">
-        <v>332</v>
+        <v>1484</v>
       </c>
       <c r="C5" t="n">
-        <v>446</v>
+        <v>1598</v>
       </c>
       <c r="D5" t="n">
-        <v>2.591116403484471</v>
+        <v>2.830017965816958</v>
       </c>
       <c r="E5" t="n">
-        <v>1.944740775422474</v>
+        <v>2.062418325702909</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6463756280619971</v>
+        <v>-0.7675996401140484</v>
       </c>
       <c r="G5" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H5" t="n">
-        <v>63.23838628945578</v>
+        <v>42.26390635870439</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J5" t="n">
         <v>114</v>
       </c>
       <c r="K5" t="n">
-        <v>212.3561639965003</v>
+        <v>207.8457845962787</v>
       </c>
       <c r="L5" t="n">
-        <v>6.814265864513536</v>
+        <v>7.021061685343746</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.947709784023967</v>
+        <v>0.8195438680875666</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2153180412591778</v>
+        <v>0.2546798150614829</v>
       </c>
       <c r="S5" t="n">
-        <v>0.899213876389803</v>
+        <v>0.6792783848933768</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>703</v>
+        <v>1493</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>572</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>2.753784472745144</v>
+        <v>2.940076452903813</v>
       </c>
       <c r="E6" t="n">
-        <v>2.107408844683147</v>
+        <v>2.27165586498254</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6463756280619971</v>
+        <v>-0.6684205879212726</v>
       </c>
       <c r="G6" t="n">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="H6" t="n">
-        <v>163.3894999211593</v>
+        <v>19.60316104118206</v>
       </c>
       <c r="I6" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K6" t="n">
-        <v>220.438186148622</v>
+        <v>167.5118521003903</v>
       </c>
       <c r="L6" t="n">
-        <v>7.242059641018017</v>
+        <v>13.10222801942779</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.5956865900758522</v>
+        <v>0.8249141879982069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5857596665522805</v>
+        <v>0.1882888590294013</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7091809971845654</v>
+        <v>0.8669509384367389</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>704</v>
+        <v>1494</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="B7" t="n">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c r="C7" t="n">
-        <v>400</v>
+        <v>167</v>
       </c>
       <c r="D7" t="n">
-        <v>2.590958796518432</v>
+        <v>3.728936495184965</v>
       </c>
       <c r="E7" t="n">
-        <v>1.718836075722749</v>
+        <v>3.060515907263693</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8721227207956824</v>
+        <v>-0.6684205879212726</v>
       </c>
       <c r="G7" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H7" t="n">
-        <v>30.92846415576952</v>
+        <v>28.72123942792238</v>
       </c>
       <c r="I7" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K7" t="n">
-        <v>160.6854723585769</v>
+        <v>212.7871731347458</v>
       </c>
       <c r="L7" t="n">
-        <v>7.560737087736276</v>
+        <v>16.6177230464958</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7964031566091402</v>
+        <v>0.784745952261697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4647887323943662</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2304527000805449</v>
+        <v>0.1479705929024794</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6551329249124158</v>
+        <v>0.9048895629197122</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>705</v>
+        <v>1495</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1439</v>
+        <v>1203</v>
       </c>
       <c r="B8" t="n">
-        <v>1485</v>
+        <v>1219</v>
       </c>
       <c r="C8" t="n">
-        <v>1598</v>
+        <v>1461</v>
       </c>
       <c r="D8" t="n">
-        <v>2.704975041851484</v>
+        <v>1.611830346591608</v>
       </c>
       <c r="E8" t="n">
-        <v>1.948221244289275</v>
+        <v>0.9434097586703354</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7567537975622097</v>
+        <v>-0.6684205879212726</v>
       </c>
       <c r="G8" t="n">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="H8" t="n">
-        <v>58.33654815156638</v>
+        <v>14.08527351173166</v>
       </c>
       <c r="I8" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="K8" t="n">
-        <v>205.8721506903692</v>
+        <v>165.7248254743986</v>
       </c>
       <c r="L8" t="n">
-        <v>6.668635690227929</v>
+        <v>7.18299985322439</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8575703789740337</v>
+        <v>0.7238425944425781</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4070796460176991</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2864232272666242</v>
+        <v>0.5789350052089964</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6741909518914724</v>
+        <v>0.7783769159871025</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>706</v>
+        <v>1496</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>1514</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>1598</v>
       </c>
       <c r="D9" t="n">
-        <v>2.849047539667967</v>
+        <v>1.136688395456152</v>
       </c>
       <c r="E9" t="n">
-        <v>2.18257792777498</v>
+        <v>0.4682678075348792</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6664696118929871</v>
+        <v>-0.6684205879212726</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="H9" t="n">
-        <v>19.82463469830776</v>
+        <v>45.39246722803705</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="J9" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K9" t="n">
-        <v>165.5010488522594</v>
+        <v>84.20581993245887</v>
       </c>
       <c r="L9" t="n">
-        <v>12.74919996288974</v>
+        <v>5.065565737106787</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8448986327012584</v>
+        <v>0.7590536501735013</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.6309523809523809</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1923006470617491</v>
+        <v>0.2961654342823075</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8819682134648673</v>
+        <v>0.6581791247700369</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>707</v>
+        <v>1497</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="B10" t="n">
-        <v>107</v>
+        <v>381</v>
       </c>
       <c r="C10" t="n">
-        <v>165</v>
+        <v>411</v>
       </c>
       <c r="D10" t="n">
-        <v>3.605325401666319</v>
+        <v>1.105274835964024</v>
       </c>
       <c r="E10" t="n">
-        <v>2.938855789773331</v>
+        <v>0.4384438561975503</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6664696118929871</v>
+        <v>-0.666830979766474</v>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H10" t="n">
-        <v>30.13462961972982</v>
+        <v>30.85312099483446</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>210.9339065617494</v>
+        <v>33.12690911762616</v>
       </c>
       <c r="L10" t="n">
-        <v>16.13346700507725</v>
+        <v>3.32200767951036</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7662887743723386</v>
+        <v>0.7982778899353881</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.6</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1375471304363144</v>
+        <v>0.208583787181998</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9158520222590103</v>
+        <v>0.9722293452382328</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>708</v>
+        <v>1498</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1126</v>
+        <v>195</v>
       </c>
       <c r="B11" t="n">
-        <v>1174</v>
+        <v>216</v>
       </c>
       <c r="C11" t="n">
-        <v>1463</v>
+        <v>297</v>
       </c>
       <c r="D11" t="n">
-        <v>2.291514104602107</v>
+        <v>1.890088777471292</v>
       </c>
       <c r="E11" t="n">
-        <v>1.62504449270912</v>
+        <v>1.100342597683805</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6664696118929871</v>
+        <v>-0.7897461797874872</v>
       </c>
       <c r="G11" t="n">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="H11" t="n">
-        <v>86.28727720272695</v>
+        <v>22.84418737184467</v>
       </c>
       <c r="I11" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="K11" t="n">
-        <v>261.4410960354656</v>
+        <v>117.536565230596</v>
       </c>
       <c r="L11" t="n">
-        <v>10.25429415641104</v>
+        <v>5.365944852731434</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7983054195638067</v>
+        <v>0.9047794355121866</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1660899653979239</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4230422425175549</v>
+        <v>0.3791446619267445</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8833617306144776</v>
+        <v>0.977243283164436</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>709</v>
+        <v>1499</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>90</v>
+        <v>796</v>
       </c>
       <c r="B12" t="n">
-        <v>156</v>
+        <v>876</v>
       </c>
       <c r="C12" t="n">
-        <v>296</v>
+        <v>985</v>
       </c>
       <c r="D12" t="n">
-        <v>2.014107519740345</v>
+        <v>2.394681649431124</v>
       </c>
       <c r="E12" t="n">
-        <v>1.232137898352661</v>
+        <v>1.604935469643637</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.781969621387684</v>
+        <v>-0.7897461797874872</v>
       </c>
       <c r="G12" t="n">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H12" t="n">
-        <v>120.6162871582331</v>
+        <v>266.6217901149409</v>
       </c>
       <c r="I12" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J12" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="K12" t="n">
-        <v>266.7233995595979</v>
+        <v>284.0223038911236</v>
       </c>
       <c r="L12" t="n">
-        <v>5.742362025177802</v>
+        <v>6.798479427980483</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.7210032561917472</v>
+        <v>0.6667875378066791</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4714285714285714</v>
+        <v>0.7339449541284404</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1828080925676024</v>
+        <v>0.4472617233892457</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7839901795581166</v>
+        <v>0.953831347310326</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>710</v>
+        <v>1500</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>686</v>
+        <v>1340</v>
       </c>
       <c r="B13" t="n">
-        <v>740</v>
+        <v>1366</v>
       </c>
       <c r="C13" t="n">
-        <v>839</v>
+        <v>1409</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799673196193319</v>
+        <v>2.22281721292408</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9888727033099934</v>
+        <v>1.610365555235055</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8108004928833255</v>
+        <v>-0.6124516576890255</v>
       </c>
       <c r="G13" t="n">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="H13" t="n">
-        <v>86.57567967713089</v>
+        <v>28.01150233211411</v>
       </c>
       <c r="I13" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J13" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K13" t="n">
-        <v>197.3740024302159</v>
+        <v>82.3545131011896</v>
       </c>
       <c r="L13" t="n">
-        <v>5.548080835189627</v>
+        <v>4.189285122802048</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7897425409463709</v>
+        <v>0.7997369971735357</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3753749380682254</v>
+        <v>0.1594902732163433</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7698048044586636</v>
+        <v>0.9866419794154169</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>711</v>
+        <v>1501</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,73 +1589,73 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1159</v>
+        <v>1409</v>
       </c>
       <c r="B14" t="n">
-        <v>1194</v>
+        <v>1439</v>
       </c>
       <c r="C14" t="n">
-        <v>1288</v>
+        <v>1598</v>
       </c>
       <c r="D14" t="n">
-        <v>2.396853912702407</v>
+        <v>2.390754914424671</v>
       </c>
       <c r="E14" t="n">
-        <v>1.761534850965332</v>
+        <v>1.778303256735646</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6353190617370754</v>
+        <v>-0.6124516576890255</v>
       </c>
       <c r="G14" t="n">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="H14" t="n">
-        <v>66.19717431866843</v>
+        <v>52.96823645818495</v>
       </c>
       <c r="I14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="K14" t="n">
-        <v>171.3462830598748</v>
+        <v>238.8240834729868</v>
       </c>
       <c r="L14" t="n">
-        <v>18.68009447751283</v>
+        <v>4.505792890675819</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1549), 'value': np.float64(0.9224684945762321), 'amplitude': np.float64(1.5349201522652578), 'start_idx': np.int64(1525), 'end_idx': np.int64(1597), 'duration': np.float64(72.0), 'fwhm': np.float64(23.357125502045164), 'rise_time': np.float64(24.0), 'decay_time': np.float64(48.0), 'auc': np.float64(67.60058703420412)}]</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.907855902603989</v>
+        <v>0.841063635250314</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3723404255319149</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2453418661900361</v>
+        <v>0.3198190584222659</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9600172251911013</v>
+        <v>0.7167785779448719</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>712</v>
+        <v>1502</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1288</v>
+        <v>687</v>
       </c>
       <c r="B15" t="n">
-        <v>1318</v>
+        <v>738</v>
       </c>
       <c r="C15" t="n">
-        <v>1598</v>
+        <v>840</v>
       </c>
       <c r="D15" t="n">
-        <v>1.665882757111738</v>
+        <v>1.827401828073411</v>
       </c>
       <c r="E15" t="n">
-        <v>1.030563695374663</v>
+        <v>1.015189200820591</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6353190617370754</v>
+        <v>-0.8122126272528198</v>
       </c>
       <c r="G15" t="n">
-        <v>310</v>
+        <v>153</v>
       </c>
       <c r="H15" t="n">
-        <v>29.14184141867872</v>
+        <v>86.00147357818128</v>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J15" t="n">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="K15" t="n">
-        <v>139.0222090618191</v>
+        <v>198.7962970155521</v>
       </c>
       <c r="L15" t="n">
-        <v>12.98320566238471</v>
+        <v>5.594261907586817</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.7297343728355821</v>
+        <v>0.8021838350707</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6333850941894609</v>
+        <v>0.3785664593463937</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7238073161442614</v>
+        <v>0.7528206243101474</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>713</v>
+        <v>1503</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>357</v>
+        <v>1395</v>
       </c>
       <c r="B16" t="n">
-        <v>406</v>
+        <v>1436</v>
       </c>
       <c r="C16" t="n">
-        <v>478</v>
+        <v>1532</v>
       </c>
       <c r="D16" t="n">
-        <v>2.321129727810873</v>
+        <v>1.496184211661206</v>
       </c>
       <c r="E16" t="n">
-        <v>1.592437554398539</v>
+        <v>0.6839715844083865</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7286921734123343</v>
+        <v>-0.8122126272528198</v>
       </c>
       <c r="G16" t="n">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H16" t="n">
-        <v>69.54908402223771</v>
+        <v>45.99658725535824</v>
       </c>
       <c r="I16" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J16" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="K16" t="n">
-        <v>212.2574620648883</v>
+        <v>120.4649538407032</v>
       </c>
       <c r="L16" t="n">
-        <v>9.009288209229792</v>
+        <v>4.580298768144196</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7431448466339775</v>
+        <v>0.8327716759368637</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.4270833333333333</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5806912753057272</v>
+        <v>0.2073555253801465</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7405256082177107</v>
+        <v>0.9445172119372963</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>714</v>
+        <v>1504</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>364</v>
+        <v>1141</v>
       </c>
       <c r="B17" t="n">
-        <v>404</v>
+        <v>1192</v>
       </c>
       <c r="C17" t="n">
-        <v>625</v>
+        <v>1289</v>
       </c>
       <c r="D17" t="n">
-        <v>2.750960101658919</v>
+        <v>2.446691193283446</v>
       </c>
       <c r="E17" t="n">
-        <v>1.882996973524937</v>
+        <v>1.813255334648993</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8679631281339817</v>
+        <v>-0.6334358586344533</v>
       </c>
       <c r="G17" t="n">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="H17" t="n">
-        <v>239.5488005105632</v>
+        <v>64.18316037876821</v>
       </c>
       <c r="I17" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J17" t="n">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="K17" t="n">
-        <v>515.5449113806401</v>
+        <v>172.7338348767678</v>
       </c>
       <c r="L17" t="n">
-        <v>6.913908385186578</v>
+        <v>19.0236181961757</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7589302675770238</v>
+        <v>0.7695296483249736</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1809954751131222</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5956270961897002</v>
+        <v>0.7454456336905498</v>
       </c>
       <c r="S17" t="n">
-        <v>0.446096382927218</v>
+        <v>0.9516818058151347</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>715</v>
+        <v>1505</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>613</v>
+        <v>1289</v>
       </c>
       <c r="B18" t="n">
-        <v>667</v>
+        <v>1317</v>
       </c>
       <c r="C18" t="n">
-        <v>751</v>
+        <v>1598</v>
       </c>
       <c r="D18" t="n">
-        <v>3.680578710136418</v>
+        <v>1.754958346844216</v>
       </c>
       <c r="E18" t="n">
-        <v>3.051462259364333</v>
+        <v>1.121522488209762</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6291164507720844</v>
+        <v>-0.6334358586344533</v>
       </c>
       <c r="G18" t="n">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="H18" t="n">
-        <v>112.1391393730592</v>
+        <v>27.48927698244074</v>
       </c>
       <c r="I18" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J18" t="n">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="K18" t="n">
-        <v>353.4784493041984</v>
+        <v>137.4749303219432</v>
       </c>
       <c r="L18" t="n">
-        <v>31.64004920125643</v>
+        <v>13.6452273307743</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7194417573151162</v>
+        <v>0.7255285114320914</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.099644128113879</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2307348494152975</v>
+        <v>0.6267940734494796</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9606309937343167</v>
+        <v>0.7208626814218713</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>716</v>
+        <v>1506</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,73 +2019,73 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1239</v>
+        <v>421</v>
       </c>
       <c r="B19" t="n">
-        <v>1315</v>
+        <v>469</v>
       </c>
       <c r="C19" t="n">
-        <v>1505</v>
+        <v>556</v>
       </c>
       <c r="D19" t="n">
-        <v>2.356800072869134</v>
+        <v>1.299485315214428</v>
       </c>
       <c r="E19" t="n">
-        <v>1.698303497210709</v>
+        <v>0.6324117850684572</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6584965756584255</v>
+        <v>-0.6670735301459707</v>
       </c>
       <c r="G19" t="n">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="H19" t="n">
-        <v>38.74563761077889</v>
+        <v>41.17851124297869</v>
       </c>
       <c r="I19" t="n">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J19" t="n">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="K19" t="n">
-        <v>347.0267281507381</v>
+        <v>85.37222456090083</v>
       </c>
       <c r="L19" t="n">
-        <v>5.96645912259138</v>
+        <v>4.035768835732505</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1411), 'value': np.float64(1.175962851632578), 'amplitude': np.float64(1.8344594272910033), 'start_idx': np.int64(1380), 'end_idx': np.int64(1446), 'duration': np.float64(66.0), 'fwhm': np.float64(31.68361016434301), 'rise_time': np.float64(31.0), 'decay_time': np.float64(35.0), 'auc': np.float64(83.09613049996824)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6071654844968584</v>
+        <v>0.6649643782357496</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="R19" t="n">
-        <v>0.277748662885815</v>
+        <v>0.4587812285254988</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4135241817133554</v>
+        <v>0.6314519894300898</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>717</v>
+        <v>1507</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1505</v>
+        <v>358</v>
       </c>
       <c r="B20" t="n">
-        <v>1540</v>
+        <v>404</v>
       </c>
       <c r="C20" t="n">
-        <v>1598</v>
+        <v>477</v>
       </c>
       <c r="D20" t="n">
-        <v>2.323843672124514</v>
+        <v>2.296979474514027</v>
       </c>
       <c r="E20" t="n">
-        <v>1.665347096466089</v>
+        <v>1.57376807257064</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6584965756584255</v>
+        <v>-0.7232114019433866</v>
       </c>
       <c r="G20" t="n">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="H20" t="n">
-        <v>31.16943692096652</v>
+        <v>70.25860954980914</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J20" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="K20" t="n">
-        <v>123.5360517321198</v>
+        <v>210.1202363951836</v>
       </c>
       <c r="L20" t="n">
-        <v>5.883026921390226</v>
+        <v>8.875921757276501</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8072734477739842</v>
+        <v>0.7460501410975851</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.603448275862069</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2672836311341941</v>
+        <v>0.6039796244153308</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8333630442887183</v>
+        <v>0.7018710144729494</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>718</v>
+        <v>1508</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>173</v>
+        <v>535</v>
       </c>
       <c r="B21" t="n">
-        <v>222</v>
+        <v>560</v>
       </c>
       <c r="C21" t="n">
-        <v>335</v>
+        <v>626</v>
       </c>
       <c r="D21" t="n">
-        <v>2.539452888565291</v>
+        <v>2.305707892022741</v>
       </c>
       <c r="E21" t="n">
-        <v>1.922905153092498</v>
+        <v>1.446113183666075</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6165477354727922</v>
+        <v>-0.8595947083566664</v>
       </c>
       <c r="G21" t="n">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="H21" t="n">
-        <v>95.7550927236361</v>
+        <v>25.63085663025879</v>
       </c>
       <c r="I21" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="K21" t="n">
-        <v>242.9316187775011</v>
+        <v>166.1718383395739</v>
       </c>
       <c r="L21" t="n">
-        <v>6.823607536087368</v>
+        <v>5.804604799172142</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.6749653480415232</v>
+        <v>0.8476615538370984</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4336283185840708</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3707996392688358</v>
+        <v>0.1656212844067184</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6426401541084319</v>
+        <v>0.9839416187869168</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>719</v>
+        <v>1509</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,73 +2277,73 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1067</v>
+        <v>1250</v>
       </c>
       <c r="B22" t="n">
-        <v>1131</v>
+        <v>1314</v>
       </c>
       <c r="C22" t="n">
-        <v>1359</v>
+        <v>1483</v>
       </c>
       <c r="D22" t="n">
-        <v>2.002512261681852</v>
+        <v>2.145086488717558</v>
       </c>
       <c r="E22" t="n">
-        <v>1.414763988787187</v>
+        <v>1.285491780360891</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5877482728946646</v>
+        <v>-0.8595947083566664</v>
       </c>
       <c r="G22" t="n">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="H22" t="n">
-        <v>42.98912309771572</v>
+        <v>66.99311136247366</v>
       </c>
       <c r="I22" t="n">
         <v>64</v>
       </c>
       <c r="J22" t="n">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="K22" t="n">
-        <v>160.790271446182</v>
+        <v>239.2723155779788</v>
       </c>
       <c r="L22" t="n">
-        <v>10.41047122369773</v>
+        <v>5.400241448679766</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1435), 'value': np.float64(0.23098499062298555), 'amplitude': np.float64(1.090579698979652), 'start_idx': np.int64(1407), 'end_idx': np.int64(1448), 'duration': np.float64(41.0), 'fwhm': np.float64(48.010642691614294), 'rise_time': np.float64(28.0), 'decay_time': np.float64(13.0), 'auc': np.float64(34.72122794973083)}]</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7416578452014826</v>
+        <v>0.7810899005034327</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.378698224852071</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4304287623769573</v>
+        <v>0.4029764918453385</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7804351555116291</v>
+        <v>0.4428994723629659</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>720</v>
+        <v>1510</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1359</v>
+        <v>615</v>
       </c>
       <c r="B23" t="n">
-        <v>1396</v>
+        <v>669</v>
       </c>
       <c r="C23" t="n">
-        <v>1469</v>
+        <v>754</v>
       </c>
       <c r="D23" t="n">
-        <v>2.305883157864201</v>
+        <v>3.705458369645148</v>
       </c>
       <c r="E23" t="n">
-        <v>1.718134884969537</v>
+        <v>3.074672272115599</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5877482728946646</v>
+        <v>-0.6307860975295494</v>
       </c>
       <c r="G23" t="n">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="H23" t="n">
-        <v>36.48096446990758</v>
+        <v>113.459906065176</v>
       </c>
       <c r="I23" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J23" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K23" t="n">
-        <v>140.2387617265006</v>
+        <v>358.5207345870903</v>
       </c>
       <c r="L23" t="n">
-        <v>11.98760712705606</v>
+        <v>31.23293595598858</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8674567857393426</v>
+        <v>0.7339675375949397</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.5068493150684932</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2847919680294299</v>
+        <v>0.2200601267835997</v>
       </c>
       <c r="S23" t="n">
-        <v>0.972521008925877</v>
+        <v>0.9608501564342495</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>721</v>
+        <v>1511</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1469</v>
+        <v>792</v>
       </c>
       <c r="B24" t="n">
-        <v>1520</v>
+        <v>820</v>
       </c>
       <c r="C24" t="n">
-        <v>1598</v>
+        <v>881</v>
       </c>
       <c r="D24" t="n">
-        <v>2.283066450476865</v>
+        <v>3.303537933338002</v>
       </c>
       <c r="E24" t="n">
-        <v>1.695318177582201</v>
+        <v>2.672751835808453</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5877482728946646</v>
+        <v>-0.6307860975295494</v>
       </c>
       <c r="G24" t="n">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="H24" t="n">
-        <v>55.62503862574499</v>
+        <v>47.61461612870619</v>
       </c>
       <c r="I24" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="J24" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K24" t="n">
-        <v>206.8865460349299</v>
+        <v>201.0264781767626</v>
       </c>
       <c r="L24" t="n">
-        <v>11.86898978811608</v>
+        <v>27.84518901773699</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.7755827547833571</v>
+        <v>0.8572055011104599</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1830620119164911</v>
+        <v>0.2383288115178752</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8801310826200901</v>
+        <v>0.9148325417664099</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>722</v>
+        <v>1512</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>164</v>
+        <v>1382</v>
       </c>
       <c r="B25" t="n">
-        <v>195</v>
+        <v>1410</v>
       </c>
       <c r="C25" t="n">
-        <v>270</v>
+        <v>1507</v>
       </c>
       <c r="D25" t="n">
-        <v>1.723840005981492</v>
+        <v>1.874870664858794</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9739492782596035</v>
+        <v>1.220081497617456</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.749890727721888</v>
+        <v>-0.6547891672413382</v>
       </c>
       <c r="G25" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H25" t="n">
-        <v>39.37399130724199</v>
+        <v>32.59595761867058</v>
       </c>
       <c r="I25" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J25" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K25" t="n">
-        <v>106.2761692652375</v>
+        <v>130.5574426848751</v>
       </c>
       <c r="L25" t="n">
-        <v>10.05021226084224</v>
+        <v>4.748774512548181</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.903112394381082</v>
+        <v>0.8617437135194774</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4133333333333333</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2686964215021818</v>
+        <v>0.2480126097288956</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8841146680670108</v>
+        <v>0.6656259277581325</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>723</v>
+        <v>1513</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>323</v>
+        <v>1507</v>
       </c>
       <c r="B26" t="n">
-        <v>351</v>
+        <v>1538</v>
       </c>
       <c r="C26" t="n">
-        <v>414</v>
+        <v>1598</v>
       </c>
       <c r="D26" t="n">
-        <v>3.390205054564878</v>
+        <v>2.389719109235158</v>
       </c>
       <c r="E26" t="n">
-        <v>2.64031432684299</v>
+        <v>1.73492994199382</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.749890727721888</v>
+        <v>-0.6547891672413382</v>
       </c>
       <c r="G26" t="n">
         <v>91</v>
       </c>
       <c r="H26" t="n">
-        <v>123.9865821039272</v>
+        <v>29.40045894552372</v>
       </c>
       <c r="I26" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J26" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>233.9563466754464</v>
+        <v>122.6436317879596</v>
       </c>
       <c r="L26" t="n">
-        <v>19.76533801740944</v>
+        <v>6.05281068757879</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8232693087319238</v>
+        <v>0.8347195068665461</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2009047676392058</v>
+        <v>0.2641466913669153</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9907686708961703</v>
+        <v>0.8582424449715985</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>724</v>
+        <v>1514</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="n">
-        <v>1211</v>
+        <v>223</v>
       </c>
       <c r="C27" t="n">
-        <v>1358</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
-        <v>2.189160349191917</v>
+        <v>2.609420282529697</v>
       </c>
       <c r="E27" t="n">
-        <v>1.439269621470029</v>
+        <v>1.999217988451027</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.749890727721888</v>
+        <v>-0.6102022940786695</v>
       </c>
       <c r="G27" t="n">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="H27" t="n">
-        <v>72.83566411354968</v>
+        <v>96.27057588022663</v>
       </c>
       <c r="I27" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J27" t="n">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="K27" t="n">
-        <v>195.3228865752189</v>
+        <v>195.4819424134045</v>
       </c>
       <c r="L27" t="n">
-        <v>12.76309060356876</v>
+        <v>7.00665033048251</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.9552427985048464</v>
+        <v>0.6256872349659954</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2653061224489796</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2342407881825546</v>
+        <v>0.2888388841743105</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8469406731317954</v>
+        <v>0.8857178284569799</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>725</v>
+        <v>1515</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>998</v>
+        <v>964</v>
       </c>
       <c r="B28" t="n">
-        <v>1074</v>
+        <v>990</v>
       </c>
       <c r="C28" t="n">
-        <v>1179</v>
+        <v>1027</v>
       </c>
       <c r="D28" t="n">
-        <v>2.464504411014401</v>
+        <v>1.895559750695362</v>
       </c>
       <c r="E28" t="n">
-        <v>1.680019683590658</v>
+        <v>1.285357456616692</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.7844847274237426</v>
+        <v>-0.6102022940786695</v>
       </c>
       <c r="G28" t="n">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="H28" t="n">
-        <v>76.54768032390234</v>
+        <v>20.35506933314718</v>
       </c>
       <c r="I28" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J28" t="n">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="K28" t="n">
-        <v>239.3952611705496</v>
+        <v>72.92854072706263</v>
       </c>
       <c r="L28" t="n">
-        <v>14.18644582566694</v>
+        <v>5.089837172869391</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.64441376288982</v>
+        <v>0.7589720809991094</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7238095238095238</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1583120877458517</v>
+        <v>0.3428001869024907</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9411034169021566</v>
+        <v>0.7602267565494103</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>726</v>
+        <v>1516</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1430</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1455</v>
+        <v>36</v>
       </c>
       <c r="C29" t="n">
-        <v>1598</v>
+        <v>86</v>
       </c>
       <c r="D29" t="n">
-        <v>2.598107900630449</v>
+        <v>3.924596733277398</v>
       </c>
       <c r="E29" t="n">
-        <v>1.813623173206707</v>
+        <v>3.382162908924386</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7844847274237426</v>
+        <v>-0.5424338243530117</v>
       </c>
       <c r="G29" t="n">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="H29" t="n">
-        <v>23.92349288202286</v>
+        <v>40.52808772068654</v>
       </c>
       <c r="I29" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>273.6101299830904</v>
+        <v>248.382382726578</v>
       </c>
       <c r="L29" t="n">
-        <v>14.95550862753792</v>
+        <v>10.06748433269428</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7944680462579341</v>
+        <v>0.6096506809712373</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1748251748251748</v>
+        <v>0.72</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3568092934978047</v>
+        <v>0.1130724689935669</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8333623636003527</v>
+        <v>0.9672708283437997</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>727</v>
+        <v>1517</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>999</v>
+        <v>86</v>
       </c>
       <c r="B30" t="n">
-        <v>1034</v>
+        <v>116</v>
       </c>
       <c r="C30" t="n">
-        <v>1206</v>
+        <v>233</v>
       </c>
       <c r="D30" t="n">
-        <v>3.781784931068044</v>
+        <v>2.847708763311673</v>
       </c>
       <c r="E30" t="n">
-        <v>3.270264785346717</v>
+        <v>2.305274938958661</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5115201457213275</v>
+        <v>-0.5424338243530117</v>
       </c>
       <c r="G30" t="n">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="H30" t="n">
-        <v>138.9561853637684</v>
+        <v>42.90638070671808</v>
       </c>
       <c r="I30" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J30" t="n">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="K30" t="n">
-        <v>404.1951205327537</v>
+        <v>278.9994278109431</v>
       </c>
       <c r="L30" t="n">
-        <v>15.69983621271446</v>
+        <v>7.305021460071139</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8927889349436384</v>
+        <v>0.9326080420160336</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2034883720930233</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4817382924117746</v>
+        <v>0.3131882704239637</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9450036980248743</v>
+        <v>0.9522643853393247</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>728</v>
+        <v>1518</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,73 +3051,73 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1206</v>
+        <v>1025</v>
       </c>
       <c r="B31" t="n">
-        <v>1240</v>
+        <v>1053</v>
       </c>
       <c r="C31" t="n">
-        <v>1316</v>
+        <v>1213</v>
       </c>
       <c r="D31" t="n">
-        <v>1.401987710323601</v>
+        <v>1.651622758205306</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8904675646022737</v>
+        <v>1.077759232792336</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5115201457213275</v>
+        <v>-0.57386352541297</v>
       </c>
       <c r="G31" t="n">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="H31" t="n">
-        <v>76.51336388578875</v>
+        <v>21.73547046201406</v>
       </c>
       <c r="I31" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J31" t="n">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="K31" t="n">
-        <v>117.9550997058354</v>
+        <v>189.9732330665001</v>
       </c>
       <c r="L31" t="n">
-        <v>5.820261549908605</v>
+        <v>3.013460124611821</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1116), 'value': np.float64(0.9701485172690429), 'amplitude': np.float64(1.544012042682013), 'start_idx': np.int64(1083), 'end_idx': np.int64(1122), 'duration': np.float64(39.0), 'fwhm': np.float64(38.25373003522827), 'rise_time': np.float64(33.0), 'decay_time': np.float64(6.0), 'auc': np.float64(46.79554955320468)}]</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8135590960895911</v>
+        <v>0.7026248271280006</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.175</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3096762784790107</v>
+        <v>0.404396652928752</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7750460693347294</v>
+        <v>0.4515772950965458</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>729</v>
+        <v>1519</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>808</v>
+        <v>1436</v>
       </c>
       <c r="B32" t="n">
-        <v>855</v>
+        <v>1482</v>
       </c>
       <c r="C32" t="n">
-        <v>975</v>
+        <v>1598</v>
       </c>
       <c r="D32" t="n">
-        <v>3.212098434918852</v>
+        <v>2.759842197184555</v>
       </c>
       <c r="E32" t="n">
-        <v>2.4288702804054</v>
+        <v>2.185978671771585</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.783228154513452</v>
+        <v>-0.57386352541297</v>
       </c>
       <c r="G32" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H32" t="n">
-        <v>112.3166647975839</v>
+        <v>45.8435048823294</v>
       </c>
       <c r="I32" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K32" t="n">
-        <v>310.5911372681115</v>
+        <v>236.6700550320789</v>
       </c>
       <c r="L32" t="n">
-        <v>11.21978160828178</v>
+        <v>5.035456414074746</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.8856021159466696</v>
+        <v>0.800126859440526</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3916666666666667</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2388204201369405</v>
+        <v>0.1565539231027422</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9869637520996093</v>
+        <v>0.8387314218488554</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>730</v>
+        <v>1520</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1520</v>
+        <v>1068</v>
       </c>
       <c r="B33" t="n">
-        <v>1543</v>
+        <v>1129</v>
       </c>
       <c r="C33" t="n">
-        <v>1598</v>
+        <v>1326</v>
       </c>
       <c r="D33" t="n">
-        <v>2.619145381234328</v>
+        <v>2.016134112299876</v>
       </c>
       <c r="E33" t="n">
-        <v>1.835917226720876</v>
+        <v>1.433926165252132</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.783228154513452</v>
+        <v>-0.5822079470477438</v>
       </c>
       <c r="G33" t="n">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="H33" t="n">
-        <v>22.9408274368509</v>
+        <v>42.30442999753723</v>
       </c>
       <c r="I33" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J33" t="n">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c r="K33" t="n">
-        <v>151.353166063324</v>
+        <v>152.7036529744315</v>
       </c>
       <c r="L33" t="n">
-        <v>9.14861103206866</v>
+        <v>10.36160127853704</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.8589179487281257</v>
+        <v>0.6965481075671955</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4181818181818182</v>
+        <v>0.3096446700507614</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1907924244278461</v>
+        <v>0.436086778657939</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9815480196732764</v>
+        <v>0.7394712846829157</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>731</v>
+        <v>1521</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3312,37 +3312,37 @@
         <v>1470</v>
       </c>
       <c r="B34" t="n">
-        <v>1508</v>
+        <v>1521</v>
       </c>
       <c r="C34" t="n">
         <v>1598</v>
       </c>
       <c r="D34" t="n">
-        <v>6.106598178429395</v>
+        <v>2.303188191609495</v>
       </c>
       <c r="E34" t="n">
-        <v>5.799052460981021</v>
+        <v>1.720980244561751</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.3075457174483737</v>
+        <v>-0.5822079470477438</v>
       </c>
       <c r="G34" t="n">
         <v>128</v>
       </c>
       <c r="H34" t="n">
-        <v>48.04355927524534</v>
+        <v>56.32258222983</v>
       </c>
       <c r="I34" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J34" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K34" t="n">
-        <v>363.341606211911</v>
+        <v>205.4168832536145</v>
       </c>
       <c r="L34" t="n">
-        <v>24.56509292883252</v>
+        <v>11.83687015923213</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.9119213593231372</v>
+        <v>0.7762093739030007</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2325980911768485</v>
+        <v>0.1965936204911219</v>
       </c>
       <c r="S34" t="n">
-        <v>0.933409854639113</v>
+        <v>0.8490056726237845</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>732</v>
+        <v>1522</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1281</v>
+        <v>103</v>
       </c>
       <c r="B35" t="n">
-        <v>1365</v>
+        <v>134</v>
       </c>
       <c r="C35" t="n">
-        <v>1480</v>
+        <v>227</v>
       </c>
       <c r="D35" t="n">
-        <v>2.960179860998061</v>
+        <v>4.683424902643191</v>
       </c>
       <c r="E35" t="n">
-        <v>2.253107031501113</v>
+        <v>4.15761403121274</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7070728294969478</v>
+        <v>-0.525810871430451</v>
       </c>
       <c r="G35" t="n">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="H35" t="n">
-        <v>114.1092252173585</v>
+        <v>56.5948490339929</v>
       </c>
       <c r="I35" t="n">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="J35" t="n">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K35" t="n">
-        <v>324.3199289582775</v>
+        <v>271.5998462976407</v>
       </c>
       <c r="L35" t="n">
-        <v>8.289914676226569</v>
+        <v>19.638711256056</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6935987857811186</v>
+        <v>0.9051324910006717</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7304347826086957</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2535847787854388</v>
+        <v>0.1991146822541086</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9367160687305939</v>
+        <v>0.8931378194825904</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>733</v>
+        <v>1523</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>927</v>
       </c>
       <c r="C36" t="n">
-        <v>117</v>
+        <v>974</v>
       </c>
       <c r="D36" t="n">
-        <v>4.47707565074973</v>
+        <v>1.256748801870638</v>
       </c>
       <c r="E36" t="n">
-        <v>3.931809425063499</v>
+        <v>0.6885115759703336</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5452662256862301</v>
+        <v>-0.5682372259003042</v>
       </c>
       <c r="G36" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="H36" t="n">
-        <v>77.41683381007479</v>
+        <v>49.97700558866211</v>
       </c>
       <c r="I36" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J36" t="n">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="K36" t="n">
-        <v>362.1308441705931</v>
+        <v>58.19856883137409</v>
       </c>
       <c r="L36" t="n">
-        <v>25.13600599423949</v>
+        <v>5.228016301026548</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8047308636253595</v>
+        <v>0.7234891864471545</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.21875</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1395893259711946</v>
+        <v>0.2551826672075195</v>
       </c>
       <c r="S36" t="n">
-        <v>0.8394791285837793</v>
+        <v>0.7203041040072675</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>734</v>
+        <v>1524</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>231</v>
+        <v>974</v>
       </c>
       <c r="B37" t="n">
-        <v>265</v>
+        <v>1006</v>
       </c>
       <c r="C37" t="n">
-        <v>317</v>
+        <v>1127</v>
       </c>
       <c r="D37" t="n">
-        <v>2.579844210462955</v>
+        <v>3.219625103713069</v>
       </c>
       <c r="E37" t="n">
-        <v>2.034577984776725</v>
+        <v>2.651387877812765</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5452662256862301</v>
+        <v>-0.5682372259003042</v>
       </c>
       <c r="G37" t="n">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="H37" t="n">
-        <v>111.0056656210945</v>
+        <v>84.56035660102862</v>
       </c>
       <c r="I37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J37" t="n">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="K37" t="n">
-        <v>157.7014336860628</v>
+        <v>277.4851969005734</v>
       </c>
       <c r="L37" t="n">
-        <v>14.4842268920655</v>
+        <v>13.39349001196727</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.756804372333609</v>
+        <v>0.9227754644588081</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.2644628099173554</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3161137214711111</v>
+        <v>0.2784248199954153</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9183890054165333</v>
+        <v>0.8808735233330777</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>735</v>
+        <v>1525</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="B38" t="n">
-        <v>347</v>
+        <v>195</v>
       </c>
       <c r="C38" t="n">
-        <v>432</v>
+        <v>272</v>
       </c>
       <c r="D38" t="n">
-        <v>2.008018492670839</v>
+        <v>1.764042639877106</v>
       </c>
       <c r="E38" t="n">
-        <v>1.462752266984608</v>
+        <v>1.014039653341292</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5452662256862301</v>
+        <v>-0.7500029865358144</v>
       </c>
       <c r="G38" t="n">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H38" t="n">
-        <v>17.4624437599503</v>
+        <v>38.27337491757825</v>
       </c>
       <c r="I38" t="n">
         <v>30</v>
       </c>
       <c r="J38" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K38" t="n">
-        <v>131.9922063200847</v>
+        <v>107.5696165228102</v>
       </c>
       <c r="L38" t="n">
-        <v>11.27377976288287</v>
+        <v>10.31059727805979</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7547616046680066</v>
+        <v>0.9075116320365648</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4679567588924111</v>
+        <v>0.2765546974612355</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9805208584588808</v>
+        <v>0.8852173660377004</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>736</v>
+        <v>1526</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>681</v>
+        <v>325</v>
       </c>
       <c r="B39" t="n">
-        <v>763</v>
+        <v>351</v>
       </c>
       <c r="C39" t="n">
-        <v>874</v>
+        <v>416</v>
       </c>
       <c r="D39" t="n">
-        <v>4.089107364827498</v>
+        <v>3.461983559518565</v>
       </c>
       <c r="E39" t="n">
-        <v>3.56864772543065</v>
+        <v>2.71198057298275</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5204596393968478</v>
+        <v>-0.7500029865358144</v>
       </c>
       <c r="G39" t="n">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="H39" t="n">
-        <v>129.237376218086</v>
+        <v>123.1598838664178</v>
       </c>
       <c r="I39" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="J39" t="n">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="K39" t="n">
-        <v>462.1269211417189</v>
+        <v>231.6262062546373</v>
       </c>
       <c r="L39" t="n">
-        <v>14.50053208918947</v>
+        <v>20.23483869298454</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7438196649378358</v>
+        <v>0.8530416919244302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7387387387387387</v>
+        <v>0.4</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2202598384738681</v>
+        <v>0.2129277324297011</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8508955712780799</v>
+        <v>0.9906910733783083</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>737</v>
+        <v>1527</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>93</v>
+        <v>1174</v>
       </c>
       <c r="B40" t="n">
-        <v>126</v>
+        <v>1210</v>
       </c>
       <c r="C40" t="n">
-        <v>256</v>
+        <v>1361</v>
       </c>
       <c r="D40" t="n">
-        <v>4.429326170309384</v>
+        <v>2.166063017299931</v>
       </c>
       <c r="E40" t="n">
-        <v>3.911450521797929</v>
+        <v>1.416060030764116</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5178756485114553</v>
+        <v>-0.7500029865358144</v>
       </c>
       <c r="G40" t="n">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="H40" t="n">
-        <v>106.4018830711005</v>
+        <v>76.35652053899344</v>
       </c>
       <c r="I40" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J40" t="n">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="K40" t="n">
-        <v>361.2353346021038</v>
+        <v>194.6406781935269</v>
       </c>
       <c r="L40" t="n">
-        <v>21.19173418299375</v>
+        <v>12.66035352287999</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.9254561656246422</v>
+        <v>0.9372337409043522</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2538461538461538</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4635373678369617</v>
+        <v>0.2463014532974895</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9705246729427713</v>
+        <v>0.8592402489143035</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>738</v>
+        <v>1528</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1380</v>
+        <v>1132</v>
       </c>
       <c r="B41" t="n">
-        <v>1449</v>
+        <v>1163</v>
       </c>
       <c r="C41" t="n">
-        <v>1598</v>
+        <v>1268</v>
       </c>
       <c r="D41" t="n">
-        <v>3.484646889230331</v>
+        <v>4.521193565206311</v>
       </c>
       <c r="E41" t="n">
-        <v>2.886439987365521</v>
+        <v>4.046460199087125</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.5982069018648101</v>
+        <v>-0.4747333661191859</v>
       </c>
       <c r="G41" t="n">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="H41" t="n">
-        <v>32.53086576970691</v>
+        <v>29.5297441602545</v>
       </c>
       <c r="I41" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="J41" t="n">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="K41" t="n">
-        <v>409.5634323920299</v>
+        <v>329.298858677582</v>
       </c>
       <c r="L41" t="n">
-        <v>14.13621309898487</v>
+        <v>25.11054660667396</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.5717278784773667</v>
+        <v>0.8895785327786565</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4630872483221476</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4782930415948358</v>
+        <v>0.304926962486292</v>
       </c>
       <c r="S41" t="n">
-        <v>0.5855798199506952</v>
+        <v>0.9104125934819997</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>739</v>
+        <v>1529</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1216</v>
+        <v>1268</v>
       </c>
       <c r="B42" t="n">
-        <v>1252</v>
+        <v>1286</v>
       </c>
       <c r="C42" t="n">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D42" t="n">
-        <v>1.993379644374461</v>
+        <v>1.307469905225486</v>
       </c>
       <c r="E42" t="n">
-        <v>1.289082482119048</v>
+        <v>0.8327365391063</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.7042971622554135</v>
+        <v>-0.4747333661191859</v>
       </c>
       <c r="G42" t="n">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="H42" t="n">
-        <v>34.32097848209651</v>
+        <v>16.40565174603694</v>
       </c>
       <c r="I42" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J42" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="K42" t="n">
-        <v>87.49945754810913</v>
+        <v>44.76061536045052</v>
       </c>
       <c r="L42" t="n">
-        <v>5.899189986292076</v>
+        <v>7.261640873915998</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.840590714846722</v>
+        <v>0.7807878494445396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.631578947368421</v>
+        <v>0.72</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2748085669675505</v>
+        <v>0.1671866681449534</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9496567872060818</v>
+        <v>0.9728258974875525</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>740</v>
+        <v>1530</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B43" t="n">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="C43" t="n">
-        <v>1465</v>
+        <v>1365</v>
       </c>
       <c r="D43" t="n">
-        <v>2.788101076754788</v>
+        <v>0.9318627547396372</v>
       </c>
       <c r="E43" t="n">
-        <v>2.083803914499374</v>
+        <v>0.4571293886204513</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7042971622554135</v>
+        <v>-0.4747333661191859</v>
       </c>
       <c r="G43" t="n">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="H43" t="n">
-        <v>32.37914174220737</v>
+        <v>18.33248570069645</v>
       </c>
       <c r="I43" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J43" t="n">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="K43" t="n">
-        <v>265.5876590399596</v>
+        <v>33.16383363785727</v>
       </c>
       <c r="L43" t="n">
-        <v>8.251081523371013</v>
+        <v>5.175532256346886</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8228082758192241</v>
+        <v>0.8134926969301604</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R43" t="n">
-        <v>0.450242697981931</v>
+        <v>0.2833852273446132</v>
       </c>
       <c r="S43" t="n">
-        <v>0.6404541476527922</v>
+        <v>0.8947135413355121</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>741</v>
+        <v>1531</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,85 +4169,4299 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1465</v>
+        <v>980</v>
       </c>
       <c r="B44" t="n">
-        <v>1508</v>
+        <v>1007</v>
       </c>
       <c r="C44" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.511392174143454</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.920067261034049</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5913249131094047</v>
+      </c>
+      <c r="G44" t="n">
+        <v>70</v>
+      </c>
+      <c r="H44" t="n">
+        <v>23.8415184596231</v>
+      </c>
+      <c r="I44" t="n">
+        <v>27</v>
+      </c>
+      <c r="J44" t="n">
+        <v>43</v>
+      </c>
+      <c r="K44" t="n">
+        <v>89.42110988616939</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.347951235095433</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8325210064709901</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2508743744307455</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.9681857229308054</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1532</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1531</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.407252131315849</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.815927218206444</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.5913249131094047</v>
+      </c>
+      <c r="G45" t="n">
+        <v>481</v>
+      </c>
+      <c r="H45" t="n">
+        <v>91.39961000923699</v>
+      </c>
+      <c r="I45" t="n">
+        <v>140</v>
+      </c>
+      <c r="J45" t="n">
+        <v>341</v>
+      </c>
+      <c r="K45" t="n">
+        <v>608.014690705241</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7.255664181627448</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.5700688577139702</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.4105571847507332</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.3361197694669784</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5458071226325507</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1533</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.468096932781229</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.683829658145469</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.7842672746357603</v>
+      </c>
+      <c r="G46" t="n">
+        <v>139</v>
+      </c>
+      <c r="H46" t="n">
+        <v>75.83790936944615</v>
+      </c>
+      <c r="I46" t="n">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
+        <v>108</v>
+      </c>
+      <c r="K46" t="n">
+        <v>199.63514249529</v>
+      </c>
+      <c r="L46" t="n">
+        <v>14.40569435010455</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.9425240067262337</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.287037037037037</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.2666315990300803</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9447824319258682</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1534</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1385</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1432</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.249693352656386</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.465426078020626</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.7842672746357603</v>
+      </c>
+      <c r="G47" t="n">
+        <v>73</v>
+      </c>
+      <c r="H47" t="n">
+        <v>162.797906956509</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>47</v>
+      </c>
+      <c r="K47" t="n">
+        <v>204.7662268342683</v>
+      </c>
+      <c r="L47" t="n">
+        <v>18.96768662046872</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.6606883678732476</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.07519296241784898</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9812108577233688</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1535</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1432</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C48" t="n">
         <v>1598</v>
       </c>
-      <c r="D44" t="n">
-        <v>3.416996406243761</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2.712699243988347</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-0.7042971622554135</v>
-      </c>
-      <c r="G44" t="n">
-        <v>133</v>
-      </c>
-      <c r="H44" t="n">
-        <v>61.25314920473988</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="D48" t="n">
+        <v>2.668063469775284</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.883796195139523</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.7842672746357603</v>
+      </c>
+      <c r="G48" t="n">
+        <v>166</v>
+      </c>
+      <c r="H48" t="n">
+        <v>22.08007971785378</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23</v>
+      </c>
+      <c r="J48" t="n">
+        <v>143</v>
+      </c>
+      <c r="K48" t="n">
+        <v>269.2943468615638</v>
+      </c>
+      <c r="L48" t="n">
+        <v>15.5728514313052</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7842219215363426</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.1608391608391608</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.3599085807002335</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.8294499447954236</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1536</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1118</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.778158190338549</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.269938005383939</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5082201849546101</v>
+      </c>
+      <c r="G49" t="n">
+        <v>105</v>
+      </c>
+      <c r="H49" t="n">
+        <v>20.99622324651614</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15</v>
+      </c>
+      <c r="J49" t="n">
+        <v>90</v>
+      </c>
+      <c r="K49" t="n">
+        <v>105.6205102564832</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.367806318337269</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8375586016355562</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.4076776539208398</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9327670332331151</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1537</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>856</v>
+      </c>
+      <c r="B50" t="n">
+        <v>877</v>
+      </c>
+      <c r="C50" t="n">
+        <v>984</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.46819858318839</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9264882213734444</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5417103618149459</v>
+      </c>
+      <c r="G50" t="n">
+        <v>128</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36.17566351104847</v>
+      </c>
+      <c r="I50" t="n">
+        <v>21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>107</v>
+      </c>
+      <c r="K50" t="n">
+        <v>76.10933294082756</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.719698186237946</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8840769218523145</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.1962616822429906</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.425366800184479</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8906097965058365</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1538</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1275</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1324</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.170434910623024</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6287245488080779</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5417103618149459</v>
+      </c>
+      <c r="G51" t="n">
+        <v>78</v>
+      </c>
+      <c r="H51" t="n">
+        <v>38.43052789658441</v>
+      </c>
+      <c r="I51" t="n">
+        <v>29</v>
+      </c>
+      <c r="J51" t="n">
+        <v>49</v>
+      </c>
+      <c r="K51" t="n">
+        <v>61.72778421248996</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.762501604367942</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.756855014624336</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.5918367346938775</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1431851651722916</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9494111618495068</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1539</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>435</v>
+      </c>
+      <c r="B52" t="n">
+        <v>503</v>
+      </c>
+      <c r="C52" t="n">
+        <v>588</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.317223494692275</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.533059062556251</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.7841644321360243</v>
+      </c>
+      <c r="G52" t="n">
+        <v>153</v>
+      </c>
+      <c r="H52" t="n">
+        <v>164.3296951719537</v>
+      </c>
+      <c r="I52" t="n">
+        <v>68</v>
+      </c>
+      <c r="J52" t="n">
+        <v>85</v>
+      </c>
+      <c r="K52" t="n">
+        <v>229.4930059592833</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8.027951181462795</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6213111753574388</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2429597441032071</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9814109924644254</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1540</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>810</v>
+      </c>
+      <c r="B53" t="n">
+        <v>853</v>
+      </c>
+      <c r="C53" t="n">
+        <v>977</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.208078810208137</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.423914378072113</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.7841644321360243</v>
+      </c>
+      <c r="G53" t="n">
+        <v>167</v>
+      </c>
+      <c r="H53" t="n">
+        <v>112.8499990636593</v>
+      </c>
+      <c r="I53" t="n">
         <v>43</v>
       </c>
-      <c r="J44" t="n">
-        <v>90</v>
-      </c>
-      <c r="K44" t="n">
-        <v>248.5689162809767</v>
-      </c>
-      <c r="L44" t="n">
-        <v>10.11222876675597</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>0.8784999339440818</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.4777777777777778</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.2750334456991972</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.977521991613914</v>
-      </c>
-      <c r="T44" t="inlineStr">
+      <c r="J53" t="n">
+        <v>124</v>
+      </c>
+      <c r="K53" t="n">
+        <v>312.773637347041</v>
+      </c>
+      <c r="L53" t="n">
+        <v>11.11429265827305</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8962985611878089</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.3467741935483871</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.2101942757488974</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.9816625578605399</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1541</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.671312017489842</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.887147585353818</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.7841644321360243</v>
+      </c>
+      <c r="G54" t="n">
+        <v>78</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21.55754011907902</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>56</v>
+      </c>
+      <c r="K54" t="n">
+        <v>151.2735019874487</v>
+      </c>
+      <c r="L54" t="n">
+        <v>9.25468023088176</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8535078491878432</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.1820309978005916</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9839383420790075</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1542</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1509</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.127703849374183</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.825055022615161</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.3026488267590215</v>
+      </c>
+      <c r="G55" t="n">
+        <v>127</v>
+      </c>
+      <c r="H55" t="n">
+        <v>46.34150268207827</v>
+      </c>
+      <c r="I55" t="n">
+        <v>38</v>
+      </c>
+      <c r="J55" t="n">
+        <v>89</v>
+      </c>
+      <c r="K55" t="n">
+        <v>361.8569793798505</v>
+      </c>
+      <c r="L55" t="n">
+        <v>24.11499199215859</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.9091257408274765</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2657036637402443</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9511582309414097</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1543</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.966467608805833</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2.260559405377416</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.7059082034284166</v>
+      </c>
+      <c r="G56" t="n">
+        <v>202</v>
+      </c>
+      <c r="H56" t="n">
+        <v>117.6761702520168</v>
+      </c>
+      <c r="I56" t="n">
+        <v>83</v>
+      </c>
+      <c r="J56" t="n">
+        <v>119</v>
+      </c>
+      <c r="K56" t="n">
+        <v>325.3612883093788</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.308634834569471</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.6244022749899654</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.6974789915966386</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2574254867422666</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9317885340291925</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1544</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20</v>
+      </c>
+      <c r="C57" t="n">
+        <v>121</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.480390509362597</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.922199535918797</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5581909734438002</v>
+      </c>
+      <c r="G57" t="n">
+        <v>121</v>
+      </c>
+      <c r="H57" t="n">
+        <v>78.57886510716156</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>101</v>
+      </c>
+      <c r="K57" t="n">
+        <v>368.6585463128778</v>
+      </c>
+      <c r="L57" t="n">
+        <v>24.90269793406686</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8071613621573044</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.198019801980198</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.1487498474837558</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.8534726350738303</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1545</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>121</v>
+      </c>
+      <c r="B58" t="n">
+        <v>145</v>
+      </c>
+      <c r="C58" t="n">
+        <v>179</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.936445807356825</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.378254833913025</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5581909734438002</v>
+      </c>
+      <c r="G58" t="n">
+        <v>58</v>
+      </c>
+      <c r="H58" t="n">
+        <v>22.30726070235553</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24</v>
+      </c>
+      <c r="J58" t="n">
+        <v>34</v>
+      </c>
+      <c r="K58" t="n">
+        <v>83.02069284345404</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10.76306293068138</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7557166577659405</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.1319264755529845</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9832799729744627</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1546</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>233</v>
+      </c>
+      <c r="B59" t="n">
+        <v>264</v>
+      </c>
+      <c r="C59" t="n">
+        <v>326</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.646572259888439</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.088381286444638</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5581909734438002</v>
+      </c>
+      <c r="G59" t="n">
+        <v>93</v>
+      </c>
+      <c r="H59" t="n">
+        <v>109.7704783507216</v>
+      </c>
+      <c r="I59" t="n">
+        <v>31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>62</v>
+      </c>
+      <c r="K59" t="n">
+        <v>172.2146772545137</v>
+      </c>
+      <c r="L59" t="n">
+        <v>14.71005471754263</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8099180715821354</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.3113867702522031</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9339591946380812</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1547</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>326</v>
+      </c>
+      <c r="B60" t="n">
+        <v>347</v>
+      </c>
+      <c r="C60" t="n">
+        <v>433</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.084907572586283</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.526716599142482</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5581909734438002</v>
+      </c>
+      <c r="G60" t="n">
+        <v>107</v>
+      </c>
+      <c r="H60" t="n">
+        <v>16.08514980213516</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>86</v>
+      </c>
+      <c r="K60" t="n">
+        <v>118.9464502927366</v>
+      </c>
+      <c r="L60" t="n">
+        <v>11.58823620219461</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8625964239196177</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4834539578996256</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9764072794891249</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1548</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>36</v>
+      </c>
+      <c r="C61" t="n">
+        <v>231</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.078184542191226</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.607262780305855</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.4709217618853715</v>
+      </c>
+      <c r="G61" t="n">
+        <v>231</v>
+      </c>
+      <c r="H61" t="n">
+        <v>83.44711571587069</v>
+      </c>
+      <c r="I61" t="n">
+        <v>36</v>
+      </c>
+      <c r="J61" t="n">
+        <v>195</v>
+      </c>
+      <c r="K61" t="n">
+        <v>528.3585472409504</v>
+      </c>
+      <c r="L61" t="n">
+        <v>44.1460251165999</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8932105326130142</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.1846153846153846</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3411933933080964</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8691636898967664</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1549</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4611814812680337</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0.009740280617337834</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.4709217618853715</v>
+      </c>
+      <c r="G62" t="n">
+        <v>68</v>
+      </c>
+      <c r="H62" t="n">
+        <v>37.57071211599828</v>
+      </c>
+      <c r="I62" t="n">
+        <v>22</v>
+      </c>
+      <c r="J62" t="n">
+        <v>46</v>
+      </c>
+      <c r="K62" t="n">
+        <v>22.68614695543679</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4.992253058864817</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8222918634932672</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.4782608695652174</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.511595766907804</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.801697086164266</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1550</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1271</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1347</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.4521277726890403</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.01879398919633125</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4709217618853715</v>
+      </c>
+      <c r="G63" t="n">
+        <v>108</v>
+      </c>
+      <c r="H63" t="n">
+        <v>68.03861230531811</v>
+      </c>
+      <c r="I63" t="n">
+        <v>32</v>
+      </c>
+      <c r="J63" t="n">
+        <v>76</v>
+      </c>
+      <c r="K63" t="n">
+        <v>31.8850656774759</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.894247379575016</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8451568214344484</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.4872794753943705</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.8437782197002951</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1551</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>47</v>
+      </c>
+      <c r="C64" t="n">
+        <v>141</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.6852536949740367</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.2948974158906419</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.3903562790833948</v>
+      </c>
+      <c r="G64" t="n">
+        <v>141</v>
+      </c>
+      <c r="H64" t="n">
+        <v>56.9316016280974</v>
+      </c>
+      <c r="I64" t="n">
+        <v>47</v>
+      </c>
+      <c r="J64" t="n">
+        <v>94</v>
+      </c>
+      <c r="K64" t="n">
+        <v>52.48043251969953</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.548849035169057</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.7279016824633665</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.2663422436643071</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.8434517467518758</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1552</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>610</v>
+      </c>
+      <c r="B65" t="n">
+        <v>646</v>
+      </c>
+      <c r="C65" t="n">
+        <v>728</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.725574752773602</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.335218473690206</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.3903562790833948</v>
+      </c>
+      <c r="G65" t="n">
+        <v>118</v>
+      </c>
+      <c r="H65" t="n">
+        <v>70.86171657517411</v>
+      </c>
+      <c r="I65" t="n">
+        <v>36</v>
+      </c>
+      <c r="J65" t="n">
+        <v>82</v>
+      </c>
+      <c r="K65" t="n">
+        <v>383.2957602517966</v>
+      </c>
+      <c r="L65" t="n">
+        <v>46.36290205471982</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8494402993694959</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.4390243902439024</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.2072373557341723</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.9357337497819183</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1553</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>660</v>
+      </c>
+      <c r="B66" t="n">
+        <v>709</v>
+      </c>
+      <c r="C66" t="n">
+        <v>777</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.690993615680579</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.038125318414746</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.6528682972658337</v>
+      </c>
+      <c r="G66" t="n">
+        <v>117</v>
+      </c>
+      <c r="H66" t="n">
+        <v>80.7634297913346</v>
+      </c>
+      <c r="I66" t="n">
+        <v>49</v>
+      </c>
+      <c r="J66" t="n">
+        <v>68</v>
+      </c>
+      <c r="K66" t="n">
+        <v>253.1556815425322</v>
+      </c>
+      <c r="L66" t="n">
+        <v>13.62788589660293</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.6780345534300132</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.7205882352941176</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1816254720751846</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.6991573785122344</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1554</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>832</v>
+      </c>
+      <c r="B67" t="n">
+        <v>842</v>
+      </c>
+      <c r="C67" t="n">
+        <v>871</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.621803293562913</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9689349962970798</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6528682972658337</v>
+      </c>
+      <c r="G67" t="n">
+        <v>39</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11.42717501767413</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>29</v>
+      </c>
+      <c r="K67" t="n">
+        <v>43.69065755989659</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.98802179920186</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8896760039903651</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.3310777082723793</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.8506539640449889</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1555</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1526</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1557</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.716196187448335</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.063327890182501</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.6528682972658337</v>
+      </c>
+      <c r="G68" t="n">
+        <v>72</v>
+      </c>
+      <c r="H68" t="n">
+        <v>41.72297132001017</v>
+      </c>
+      <c r="I68" t="n">
+        <v>31</v>
+      </c>
+      <c r="J68" t="n">
+        <v>41</v>
+      </c>
+      <c r="K68" t="n">
+        <v>80.99860361004977</v>
+      </c>
+      <c r="L68" t="n">
+        <v>6.33653922330569</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.6804481371151403</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.7560975609756098</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.1286709707166415</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9157369709697968</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1556</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1114</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.187702653849241</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6106660910181654</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5770365628310755</v>
+      </c>
+      <c r="G69" t="n">
+        <v>140</v>
+      </c>
+      <c r="H69" t="n">
+        <v>26.48264554080788</v>
+      </c>
+      <c r="I69" t="n">
+        <v>15</v>
+      </c>
+      <c r="J69" t="n">
+        <v>125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>82.97015121473912</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.631509308752158</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1207), 'value': np.float64(0.03837239070264471), 'amplitude': np.float64(0.6154089535337203), 'start_idx': np.int64(1186), 'end_idx': np.int64(1221), 'duration': np.float64(35.0), 'fwhm': np.float64(22.797693056484604), 'rise_time': np.float64(21.0), 'decay_time': np.float64(14.0), 'auc': np.float64(16.143174120149016)}]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7310464563140795</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.4019402881478808</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.5627041605137518</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1557</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>682</v>
+      </c>
+      <c r="B70" t="n">
+        <v>762</v>
+      </c>
+      <c r="C70" t="n">
+        <v>874</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4.104183827472189</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.586919757692399</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5172640697797904</v>
+      </c>
+      <c r="G70" t="n">
+        <v>192</v>
+      </c>
+      <c r="H70" t="n">
+        <v>130.1669461189024</v>
+      </c>
+      <c r="I70" t="n">
+        <v>80</v>
+      </c>
+      <c r="J70" t="n">
+        <v>112</v>
+      </c>
+      <c r="K70" t="n">
+        <v>461.7338077007423</v>
+      </c>
+      <c r="L70" t="n">
+        <v>14.37751499657211</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.7026801846470089</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.2133607948913801</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8234948000903912</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1558</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>807</v>
+      </c>
+      <c r="B71" t="n">
+        <v>837</v>
+      </c>
+      <c r="C71" t="n">
+        <v>944</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.299463260337626</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.744042544923877</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.555420715413749</v>
+      </c>
+      <c r="G71" t="n">
+        <v>137</v>
+      </c>
+      <c r="H71" t="n">
+        <v>56.22681928829138</v>
+      </c>
+      <c r="I71" t="n">
+        <v>30</v>
+      </c>
+      <c r="J71" t="n">
+        <v>107</v>
+      </c>
+      <c r="K71" t="n">
+        <v>309.6410470584085</v>
+      </c>
+      <c r="L71" t="n">
+        <v>11.03421071306349</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.9296144751630695</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.2803738317757009</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2731577778129547</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.7273857687508157</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1559</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1339</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1452</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.650698404962671</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.095277689548922</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.555420715413749</v>
+      </c>
+      <c r="G72" t="n">
+        <v>142</v>
+      </c>
+      <c r="H72" t="n">
+        <v>75.01398919211397</v>
+      </c>
+      <c r="I72" t="n">
+        <v>29</v>
+      </c>
+      <c r="J72" t="n">
+        <v>113</v>
+      </c>
+      <c r="K72" t="n">
+        <v>198.3069658831515</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.802794434122602</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.9403857022776835</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.2566371681415929</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.2321912547091935</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.9630884360358865</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1560</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1416</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.526209860270327</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8892217256954565</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.6369881345748707</v>
+      </c>
+      <c r="G73" t="n">
+        <v>114</v>
+      </c>
+      <c r="H73" t="n">
+        <v>28.38753363305932</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>85</v>
+      </c>
+      <c r="K73" t="n">
+        <v>129.1741704600981</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.690604964027704</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.7615486895612504</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.1557502998398457</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.6279855981040143</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1561</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1511</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.619047746536402</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.982059611961531</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.6369881345748707</v>
+      </c>
+      <c r="G74" t="n">
+        <v>143</v>
+      </c>
+      <c r="H74" t="n">
+        <v>74.35613113132126</v>
+      </c>
+      <c r="I74" t="n">
+        <v>56</v>
+      </c>
+      <c r="J74" t="n">
+        <v>87</v>
+      </c>
+      <c r="K74" t="n">
+        <v>254.903806066782</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8.049298252308025</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.6406198990374157</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.6436781609195402</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2683671448776141</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.6354263701207615</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1562</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1277</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.046031366490308</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.423377524374121</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.622653842116187</v>
+      </c>
+      <c r="G75" t="n">
+        <v>188</v>
+      </c>
+      <c r="H75" t="n">
+        <v>60.31048506404818</v>
+      </c>
+      <c r="I75" t="n">
+        <v>32</v>
+      </c>
+      <c r="J75" t="n">
+        <v>156</v>
+      </c>
+      <c r="K75" t="n">
+        <v>440.1623938127001</v>
+      </c>
+      <c r="L75" t="n">
+        <v>20.62825405310895</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.9119516419413332</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2646586102125313</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9114300007422824</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1563</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1528</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1557</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.259181324580887</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.6365274824647</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.622653842116187</v>
+      </c>
+      <c r="G76" t="n">
+        <v>70</v>
+      </c>
+      <c r="H76" t="n">
+        <v>33.47427330442383</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29</v>
+      </c>
+      <c r="J76" t="n">
+        <v>41</v>
+      </c>
+      <c r="K76" t="n">
+        <v>110.0840687548639</v>
+      </c>
+      <c r="L76" t="n">
+        <v>9.235568099115431</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.7974887436847169</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.7073170731707317</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.4908959453402401</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.9434926300822791</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1564</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>102</v>
+      </c>
+      <c r="B77" t="n">
+        <v>127</v>
+      </c>
+      <c r="C77" t="n">
+        <v>257</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.508518901318153</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.985726293577978</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.5227926077401758</v>
+      </c>
+      <c r="G77" t="n">
+        <v>155</v>
+      </c>
+      <c r="H77" t="n">
+        <v>106.1161863550746</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+      <c r="J77" t="n">
+        <v>130</v>
+      </c>
+      <c r="K77" t="n">
+        <v>334.9877800979865</v>
+      </c>
+      <c r="L77" t="n">
+        <v>21.41504212469103</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8909903389700319</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.4975164780684314</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9658639635413127</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1565</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>257</v>
+      </c>
+      <c r="B78" t="n">
+        <v>288</v>
+      </c>
+      <c r="C78" t="n">
+        <v>334</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.468714346705339</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.945921738965163</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.5227926077401758</v>
+      </c>
+      <c r="G78" t="n">
+        <v>77</v>
+      </c>
+      <c r="H78" t="n">
+        <v>34.99045945589688</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>46</v>
+      </c>
+      <c r="K78" t="n">
+        <v>102.7144307498465</v>
+      </c>
+      <c r="L78" t="n">
+        <v>11.72616171423104</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.6710026948311957</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.6739130434782609</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.05872046274777613</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.9718201544578229</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1566</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1068</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1122</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.763774660745817</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.240982053005641</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.5227926077401758</v>
+      </c>
+      <c r="G79" t="n">
+        <v>91</v>
+      </c>
+      <c r="H79" t="n">
+        <v>35.58047646054933</v>
+      </c>
+      <c r="I79" t="n">
+        <v>37</v>
+      </c>
+      <c r="J79" t="n">
+        <v>54</v>
+      </c>
+      <c r="K79" t="n">
+        <v>77.31753151271326</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.37776429134879</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8144557045232879</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.3272224796702627</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.8757712877119344</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1567</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>35</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.899808473081926</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2.298832334826835</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.6009761382550909</v>
+      </c>
+      <c r="G80" t="n">
+        <v>35</v>
+      </c>
+      <c r="H80" t="n">
+        <v>14.13955369731665</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>26</v>
+      </c>
+      <c r="K80" t="n">
+        <v>70.69325149238973</v>
+      </c>
+      <c r="L80" t="n">
+        <v>11.49814525074569</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.9479670128879442</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.2986752154645417</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.9569247181450783</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1568</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1205</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9621097936192702</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.3611336553641794</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.6009761382550909</v>
+      </c>
+      <c r="G81" t="n">
+        <v>39</v>
+      </c>
+      <c r="H81" t="n">
+        <v>18.66780493404531</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
+      <c r="J81" t="n">
+        <v>23</v>
+      </c>
+      <c r="K81" t="n">
+        <v>30.35182822858033</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.814899589710519</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.632517142040798</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.02577844937492135</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9838671738741916</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1569</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1423</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.54373018457758</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.942754046322489</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.6009761382550909</v>
+      </c>
+      <c r="G82" t="n">
+        <v>175</v>
+      </c>
+      <c r="H82" t="n">
+        <v>29.35367929643121</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24</v>
+      </c>
+      <c r="J82" t="n">
+        <v>151</v>
+      </c>
+      <c r="K82" t="n">
+        <v>297.3316247127148</v>
+      </c>
+      <c r="L82" t="n">
+        <v>14.0513846931482</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.7448074568753399</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.1589403973509934</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.508457981976744</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.5945945105899002</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1570</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1083</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.182126975621385</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.605081051251866</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.5770459243695195</v>
+      </c>
+      <c r="G83" t="n">
+        <v>56</v>
+      </c>
+      <c r="H83" t="n">
+        <v>17.39801034154038</v>
+      </c>
+      <c r="I83" t="n">
+        <v>21</v>
+      </c>
+      <c r="J83" t="n">
+        <v>35</v>
+      </c>
+      <c r="K83" t="n">
+        <v>45.96994633061952</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.300253758595125</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.7154597980918704</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.1350031227344432</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.8167296141842362</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n47</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1571</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>331</v>
+      </c>
+      <c r="B84" t="n">
+        <v>346</v>
+      </c>
+      <c r="C84" t="n">
+        <v>378</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.064018833581998</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.454134613750589</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.6098842198314084</v>
+      </c>
+      <c r="G84" t="n">
+        <v>47</v>
+      </c>
+      <c r="H84" t="n">
+        <v>16.69930520703429</v>
+      </c>
+      <c r="I84" t="n">
+        <v>15</v>
+      </c>
+      <c r="J84" t="n">
+        <v>32</v>
+      </c>
+      <c r="K84" t="n">
+        <v>89.4817040237038</v>
+      </c>
+      <c r="L84" t="n">
+        <v>8.27974070300438</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.8682220395149717</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.3781130522716674</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.8612805632836918</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1572</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>378</v>
+      </c>
+      <c r="B85" t="n">
+        <v>408</v>
+      </c>
+      <c r="C85" t="n">
+        <v>470</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.916908580613667</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.307024360782258</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.6098842198314084</v>
+      </c>
+      <c r="G85" t="n">
+        <v>92</v>
+      </c>
+      <c r="H85" t="n">
+        <v>54.10102427333982</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>62</v>
+      </c>
+      <c r="K85" t="n">
+        <v>113.1340987423259</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5.179963590592788</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8265829132959265</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.3067070985507353</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.8519429994873202</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1573</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>962</v>
+      </c>
+      <c r="B86" t="n">
+        <v>978</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.994278031276611</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.301520945923877</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.6927570853527345</v>
+      </c>
+      <c r="G86" t="n">
+        <v>100</v>
+      </c>
+      <c r="H86" t="n">
+        <v>30.48200809085654</v>
+      </c>
+      <c r="I86" t="n">
+        <v>16</v>
+      </c>
+      <c r="J86" t="n">
+        <v>84</v>
+      </c>
+      <c r="K86" t="n">
+        <v>162.0960560623817</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5.859904192144706</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.7445916902011663</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.1476056282514872</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.5172952875363843</v>
+      </c>
+      <c r="T86" t="inlineStr">
         <is>
           <t>n50</t>
         </is>
       </c>
-      <c r="U44" t="n">
-        <v>742</v>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
+      <c r="U86" t="n">
+        <v>1574</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1312</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.091806392408428</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.399049307055694</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.6927570853527345</v>
+      </c>
+      <c r="G87" t="n">
+        <v>96</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30.86974406909735</v>
+      </c>
+      <c r="I87" t="n">
+        <v>35</v>
+      </c>
+      <c r="J87" t="n">
+        <v>61</v>
+      </c>
+      <c r="K87" t="n">
+        <v>87.2188800860165</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6.146477500021691</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.8395178083836077</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.5737704918032787</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.3140761175660523</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.9689858369867864</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1575</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2.817329452741518</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.124572367388783</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.6927570853527345</v>
+      </c>
+      <c r="G88" t="n">
+        <v>83</v>
+      </c>
+      <c r="H88" t="n">
+        <v>34.61213506724175</v>
+      </c>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="n">
+        <v>51</v>
+      </c>
+      <c r="K88" t="n">
+        <v>150.2208554095139</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.278324492299886</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8399492788345135</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.3730455542249378</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.9667421292264653</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1576</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1458</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.868239800846195</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.17548271549346</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.6927570853527345</v>
+      </c>
+      <c r="G89" t="n">
+        <v>63</v>
+      </c>
+      <c r="H89" t="n">
+        <v>17.43936029653833</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>48</v>
+      </c>
+      <c r="K89" t="n">
+        <v>102.8615857983383</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.489558661939516</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.7230008897836012</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.04916245859542046</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.7616901725677427</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>1577</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1458</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.375935536668222</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.683178451315488</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.6927570853527345</v>
+      </c>
+      <c r="G90" t="n">
+        <v>140</v>
+      </c>
+      <c r="H90" t="n">
+        <v>57.75706149394546</v>
+      </c>
+      <c r="I90" t="n">
+        <v>52</v>
+      </c>
+      <c r="J90" t="n">
+        <v>88</v>
+      </c>
+      <c r="K90" t="n">
+        <v>256.4317488345363</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.919709535720449</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.8546817353428192</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.2679801082029721</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.9785691138704454</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>1578</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>984</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1027</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.514304333203641</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.894102245436217</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.6202020877674238</v>
+      </c>
+      <c r="G91" t="n">
+        <v>43</v>
+      </c>
+      <c r="H91" t="n">
+        <v>17.01142607477937</v>
+      </c>
+      <c r="I91" t="n">
+        <v>19</v>
+      </c>
+      <c r="J91" t="n">
+        <v>24</v>
+      </c>
+      <c r="K91" t="n">
+        <v>89.70407963792476</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5.803313945319003</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.661775504876505</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.05346030848441027</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.987088193369356</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>1579</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1080</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.188019891997503</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.567817804230079</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.6202020877674238</v>
+      </c>
+      <c r="G92" t="n">
+        <v>53</v>
+      </c>
+      <c r="H92" t="n">
+        <v>20.61736946665383</v>
+      </c>
+      <c r="I92" t="n">
+        <v>22</v>
+      </c>
+      <c r="J92" t="n">
+        <v>31</v>
+      </c>
+      <c r="K92" t="n">
+        <v>89.07294914248037</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5.050210582775962</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.763378437413763</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.1506759779189989</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9533289668068365</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>1580</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1374</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1461</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.815819442235092</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.195617354467668</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.6202020877674238</v>
+      </c>
+      <c r="G93" t="n">
+        <v>87</v>
+      </c>
+      <c r="H93" t="n">
+        <v>110.7585141441466</v>
+      </c>
+      <c r="I93" t="n">
+        <v>31</v>
+      </c>
+      <c r="J93" t="n">
+        <v>56</v>
+      </c>
+      <c r="K93" t="n">
+        <v>170.5518323741935</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.499246738282487</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.7933024538609322</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.2666264924599299</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.9491919548730532</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>1581</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X93"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>763</v>
+        <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>819</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>906</v>
+        <v>137</v>
       </c>
       <c r="D2" t="n">
-        <v>3.377588757956842</v>
+        <v>2.398118077156067</v>
       </c>
       <c r="E2" t="n">
-        <v>2.712605453058606</v>
+        <v>1.732040211934786</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6649833048982364</v>
+        <v>-0.6660778652212813</v>
       </c>
       <c r="G2" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>110.8829182569351</v>
+        <v>30.91734291840189</v>
       </c>
       <c r="I2" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="K2" t="n">
-        <v>288.9215690152403</v>
+        <v>145.4450027594204</v>
       </c>
       <c r="L2" t="n">
-        <v>12.76109574236175</v>
+        <v>9.051712532458607</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7627909356838701</v>
+        <v>0.8347090764126035</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6436781609195402</v>
+        <v>0.5625</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2040827725280237</v>
+        <v>0.5210690107284665</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9293355697967666</v>
+        <v>0.9586619100009013</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1490</v>
+        <v>1190</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1397</v>
+        <v>763</v>
       </c>
       <c r="B3" t="n">
-        <v>1420</v>
+        <v>819</v>
       </c>
       <c r="C3" t="n">
-        <v>1598</v>
+        <v>906</v>
       </c>
       <c r="D3" t="n">
-        <v>1.966205572017229</v>
+        <v>3.384256941555313</v>
       </c>
       <c r="E3" t="n">
-        <v>1.301222267118993</v>
+        <v>2.718179076334031</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6649833048982364</v>
+        <v>-0.6660778652212813</v>
       </c>
       <c r="G3" t="n">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="H3" t="n">
-        <v>56.93882402518193</v>
+        <v>109.7678820341008</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J3" t="n">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="K3" t="n">
-        <v>165.982834761761</v>
+        <v>289.0390992146608</v>
       </c>
       <c r="L3" t="n">
-        <v>7.428653797644364</v>
+        <v>12.77390019396558</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8508592840257516</v>
+        <v>0.7619023882428173</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1292134831460674</v>
+        <v>0.6436781609195402</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3400704980761681</v>
+        <v>0.2022930135580982</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8731951013746037</v>
+        <v>0.9306756305551002</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1491</v>
+        <v>1191</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>299</v>
+        <v>1396</v>
       </c>
       <c r="B4" t="n">
-        <v>331</v>
+        <v>1420</v>
       </c>
       <c r="C4" t="n">
-        <v>427</v>
+        <v>1598</v>
       </c>
       <c r="D4" t="n">
-        <v>2.658213854826442</v>
+        <v>1.919543013220398</v>
       </c>
       <c r="E4" t="n">
-        <v>2.004814764966322</v>
+        <v>1.253465147999116</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6533990898601194</v>
+        <v>-0.6660778652212813</v>
       </c>
       <c r="G4" t="n">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="H4" t="n">
-        <v>58.18764178935851</v>
+        <v>58.33484480448988</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="K4" t="n">
-        <v>202.1180636363501</v>
+        <v>166.2694024302217</v>
       </c>
       <c r="L4" t="n">
-        <v>6.968910175838426</v>
+        <v>7.245327790517162</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.9087160415081701</v>
+        <v>0.8563744815037979</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2868679775991262</v>
+        <v>0.3216106606890638</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8210077079364844</v>
+        <v>0.8749183869022381</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1492</v>
+        <v>1192</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1440</v>
+        <v>298</v>
       </c>
       <c r="B5" t="n">
-        <v>1484</v>
+        <v>331</v>
       </c>
       <c r="C5" t="n">
-        <v>1598</v>
+        <v>427</v>
       </c>
       <c r="D5" t="n">
-        <v>2.830017965816958</v>
+        <v>2.642049624114334</v>
       </c>
       <c r="E5" t="n">
-        <v>2.062418325702909</v>
+        <v>1.990709084182239</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7675996401140484</v>
+        <v>-0.6513405399320954</v>
       </c>
       <c r="G5" t="n">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H5" t="n">
-        <v>42.26390635870439</v>
+        <v>59.80594003568456</v>
       </c>
       <c r="I5" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="K5" t="n">
-        <v>207.8457845962787</v>
+        <v>201.9245010765607</v>
       </c>
       <c r="L5" t="n">
-        <v>7.021061685343746</v>
+        <v>6.93830296814326</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8195438680875666</v>
+        <v>0.9028730226206526</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.34375</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2546798150614829</v>
+        <v>0.3065257287475557</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6792783848933768</v>
+        <v>0.8282773936196702</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1493</v>
+        <v>1193</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>402</v>
       </c>
       <c r="D6" t="n">
-        <v>2.940076452903813</v>
+        <v>2.65259594159518</v>
       </c>
       <c r="E6" t="n">
-        <v>2.27165586498254</v>
+        <v>1.789774107250684</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6684205879212726</v>
+        <v>-0.8628218343444962</v>
       </c>
       <c r="G6" t="n">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="H6" t="n">
-        <v>19.60316104118206</v>
+        <v>33.17937271239714</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K6" t="n">
-        <v>167.5118521003903</v>
+        <v>161.0905584458481</v>
       </c>
       <c r="L6" t="n">
-        <v>13.10222801942779</v>
+        <v>7.727790856735711</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8249141879982069</v>
+        <v>0.8072902027007586</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1882888590294013</v>
+        <v>0.2412672920606675</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8669509384367389</v>
+        <v>0.6466029077028188</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1494</v>
+        <v>1194</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76</v>
+        <v>1439</v>
       </c>
       <c r="B7" t="n">
-        <v>106</v>
+        <v>1484</v>
       </c>
       <c r="C7" t="n">
-        <v>167</v>
+        <v>1598</v>
       </c>
       <c r="D7" t="n">
-        <v>3.728936495184965</v>
+        <v>2.793719524251004</v>
       </c>
       <c r="E7" t="n">
-        <v>3.060515907263693</v>
+        <v>2.025909957798306</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6684205879212726</v>
+        <v>-0.7678095664526983</v>
       </c>
       <c r="G7" t="n">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="H7" t="n">
-        <v>28.72123942792238</v>
+        <v>43.408993593079</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="K7" t="n">
-        <v>212.7871731347458</v>
+        <v>207.7892835364242</v>
       </c>
       <c r="L7" t="n">
-        <v>16.6177230464958</v>
+        <v>6.917842194679459</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.784745952261697</v>
+        <v>0.8187231561075772</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4918032786885246</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1479705929024794</v>
+        <v>0.2582113079279598</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9048895629197122</v>
+        <v>0.6805744835932284</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1495</v>
+        <v>1195</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1219</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>1461</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>1.611830346591608</v>
+        <v>2.90777438936399</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9434097586703354</v>
+        <v>2.238474268487677</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6684205879212726</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G8" t="n">
-        <v>258</v>
+        <v>76</v>
       </c>
       <c r="H8" t="n">
-        <v>14.08527351173166</v>
+        <v>19.68712572458495</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="K8" t="n">
-        <v>165.7248254743986</v>
+        <v>167.3810359261264</v>
       </c>
       <c r="L8" t="n">
-        <v>7.18299985322439</v>
+        <v>12.97212739094499</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7238425944425781</v>
+        <v>0.8430730124948028</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06611570247933884</v>
+        <v>0.1875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5789350052089964</v>
+        <v>0.1982785914270075</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7783769159871025</v>
+        <v>0.8676688329088011</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1496</v>
+        <v>1196</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1461</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>1514</v>
+        <v>106</v>
       </c>
       <c r="C9" t="n">
-        <v>1598</v>
+        <v>167</v>
       </c>
       <c r="D9" t="n">
-        <v>1.136688395456152</v>
+        <v>3.688956040173929</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4682678075348792</v>
+        <v>3.019655919297616</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6684205879212726</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G9" t="n">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="H9" t="n">
-        <v>45.39246722803705</v>
+        <v>29.13901504997104</v>
       </c>
       <c r="I9" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K9" t="n">
-        <v>84.20581993245887</v>
+        <v>212.9161383285679</v>
       </c>
       <c r="L9" t="n">
-        <v>5.065565737106787</v>
+        <v>16.45712537663526</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7590536501735013</v>
+        <v>0.7804497545782679</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6309523809523809</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2961654342823075</v>
+        <v>0.1395859886926069</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6581791247700369</v>
+        <v>0.9097917166615486</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1497</v>
+        <v>1197</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>363</v>
+        <v>1126</v>
       </c>
       <c r="B10" t="n">
-        <v>381</v>
+        <v>1173</v>
       </c>
       <c r="C10" t="n">
-        <v>411</v>
+        <v>1461</v>
       </c>
       <c r="D10" t="n">
-        <v>1.105274835964024</v>
+        <v>2.30994039586624</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4384438561975503</v>
+        <v>1.640640274989926</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.666830979766474</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G10" t="n">
-        <v>48</v>
+        <v>335</v>
       </c>
       <c r="H10" t="n">
-        <v>30.85312099483446</v>
+        <v>85.94252162036332</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="K10" t="n">
-        <v>33.12690911762616</v>
+        <v>262.0512898309435</v>
       </c>
       <c r="L10" t="n">
-        <v>3.32200767951036</v>
+        <v>10.30507772207902</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7982778899353881</v>
+        <v>0.8509752392325673</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6</v>
+        <v>0.1631944444444444</v>
       </c>
       <c r="R10" t="n">
-        <v>0.208583787181998</v>
+        <v>0.4165748724466901</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9722293452382328</v>
+        <v>0.8698742352598683</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1498</v>
+        <v>1198</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>195</v>
+        <v>1461</v>
       </c>
       <c r="B11" t="n">
-        <v>216</v>
+        <v>1516</v>
       </c>
       <c r="C11" t="n">
-        <v>297</v>
+        <v>1598</v>
       </c>
       <c r="D11" t="n">
-        <v>1.890088777471292</v>
+        <v>1.136893877151842</v>
       </c>
       <c r="E11" t="n">
-        <v>1.100342597683805</v>
+        <v>0.4675937562755278</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7897461797874872</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G11" t="n">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="H11" t="n">
-        <v>22.84418737184467</v>
+        <v>44.46372023902495</v>
       </c>
       <c r="I11" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="J11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="n">
-        <v>117.536565230596</v>
+        <v>84.34862154921773</v>
       </c>
       <c r="L11" t="n">
-        <v>5.365944852731434</v>
+        <v>5.071897000793391</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.9047794355121866</v>
+        <v>0.7419176095281543</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3791446619267445</v>
+        <v>0.236848272140519</v>
       </c>
       <c r="S11" t="n">
-        <v>0.977243283164436</v>
+        <v>0.6434067474778755</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1499</v>
+        <v>1199</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>796</v>
+        <v>90</v>
       </c>
       <c r="B12" t="n">
-        <v>876</v>
+        <v>163</v>
       </c>
       <c r="C12" t="n">
-        <v>985</v>
+        <v>297</v>
       </c>
       <c r="D12" t="n">
-        <v>2.394681649431124</v>
+        <v>2.010595640324825</v>
       </c>
       <c r="E12" t="n">
-        <v>1.604935469643637</v>
+        <v>1.225829859682456</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7897461797874872</v>
+        <v>-0.7847657806423688</v>
       </c>
       <c r="G12" t="n">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="H12" t="n">
-        <v>266.6217901149409</v>
+        <v>120.9280962169725</v>
       </c>
       <c r="I12" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J12" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="K12" t="n">
-        <v>284.0223038911236</v>
+        <v>268.0645463876294</v>
       </c>
       <c r="L12" t="n">
-        <v>6.798479427980483</v>
+        <v>5.715768466168476</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6667875378066791</v>
+        <v>0.6590509057384801</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7339449541284404</v>
+        <v>0.5447761194029851</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4472617233892457</v>
+        <v>0.1970519565591094</v>
       </c>
       <c r="S12" t="n">
-        <v>0.953831347310326</v>
+        <v>0.7883174615100935</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1340</v>
+        <v>795</v>
       </c>
       <c r="B13" t="n">
-        <v>1366</v>
+        <v>876</v>
       </c>
       <c r="C13" t="n">
-        <v>1409</v>
+        <v>985</v>
       </c>
       <c r="D13" t="n">
-        <v>2.22281721292408</v>
+        <v>2.380720701571057</v>
       </c>
       <c r="E13" t="n">
-        <v>1.610365555235055</v>
+        <v>1.595954920928689</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6124516576890255</v>
+        <v>-0.7847657806423688</v>
       </c>
       <c r="G13" t="n">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="H13" t="n">
-        <v>28.01150233211411</v>
+        <v>266.5344154754284</v>
       </c>
       <c r="I13" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="J13" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="K13" t="n">
-        <v>82.3545131011896</v>
+        <v>283.072786462523</v>
       </c>
       <c r="L13" t="n">
-        <v>4.189285122802048</v>
+        <v>6.767968675489587</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.7997369971735357</v>
+        <v>0.691507251814752</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.7431192660550459</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1594902732163433</v>
+        <v>0.4661903900411769</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9866419794154169</v>
+        <v>0.9562989300372955</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1501</v>
+        <v>1201</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,65 +1589,65 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1409</v>
+        <v>1340</v>
       </c>
       <c r="B14" t="n">
-        <v>1439</v>
+        <v>1366</v>
       </c>
       <c r="C14" t="n">
-        <v>1598</v>
+        <v>1408</v>
       </c>
       <c r="D14" t="n">
-        <v>2.390754914424671</v>
+        <v>2.179431465874091</v>
       </c>
       <c r="E14" t="n">
-        <v>1.778303256735646</v>
+        <v>1.574938522081042</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6124516576890255</v>
+        <v>-0.6044929437930493</v>
       </c>
       <c r="G14" t="n">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="H14" t="n">
-        <v>52.96823645818495</v>
+        <v>28.19105162574442</v>
       </c>
       <c r="I14" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
-        <v>238.8240834729868</v>
+        <v>81.50931046578151</v>
       </c>
       <c r="L14" t="n">
-        <v>4.505792890675819</v>
+        <v>4.100129216038567</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1549), 'value': np.float64(0.9224684945762321), 'amplitude': np.float64(1.5349201522652578), 'start_idx': np.int64(1525), 'end_idx': np.int64(1597), 'duration': np.float64(72.0), 'fwhm': np.float64(23.357125502045164), 'rise_time': np.float64(24.0), 'decay_time': np.float64(48.0), 'auc': np.float64(67.60058703420412)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.841063635250314</v>
+        <v>0.7832994744896234</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1886792452830189</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3198190584222659</v>
+        <v>0.1497349335124035</v>
       </c>
       <c r="S14" t="n">
-        <v>0.7167785779448719</v>
+        <v>0.9850461622627436</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1502</v>
+        <v>1202</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>687</v>
+        <v>1408</v>
       </c>
       <c r="B15" t="n">
-        <v>738</v>
+        <v>1440</v>
       </c>
       <c r="C15" t="n">
-        <v>840</v>
+        <v>1598</v>
       </c>
       <c r="D15" t="n">
-        <v>1.827401828073411</v>
+        <v>2.365659044986664</v>
       </c>
       <c r="E15" t="n">
-        <v>1.015189200820591</v>
+        <v>1.761166101193615</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8122126272528198</v>
+        <v>-0.6044929437930493</v>
       </c>
       <c r="G15" t="n">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="H15" t="n">
-        <v>86.00147357818128</v>
+        <v>53.72028741643135</v>
       </c>
       <c r="I15" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J15" t="n">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="K15" t="n">
-        <v>198.7962970155521</v>
+        <v>237.7779401859991</v>
       </c>
       <c r="L15" t="n">
-        <v>5.594261907586817</v>
+        <v>4.450476152800516</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8021838350707</v>
+        <v>0.8487559080632352</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3785664593463937</v>
+        <v>0.3222493571955649</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7528206243101474</v>
+        <v>0.7162075574168072</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1503</v>
+        <v>1203</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1395</v>
+        <v>686</v>
       </c>
       <c r="B16" t="n">
-        <v>1436</v>
+        <v>739</v>
       </c>
       <c r="C16" t="n">
-        <v>1532</v>
+        <v>840</v>
       </c>
       <c r="D16" t="n">
-        <v>1.496184211661206</v>
+        <v>1.81984368889417</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6839715844083865</v>
+        <v>1.005995382306202</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8122126272528198</v>
+        <v>-0.8138483065879675</v>
       </c>
       <c r="G16" t="n">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="H16" t="n">
-        <v>45.99658725535824</v>
+        <v>86.08030563915725</v>
       </c>
       <c r="I16" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J16" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K16" t="n">
-        <v>120.4649538407032</v>
+        <v>198.8438139224367</v>
       </c>
       <c r="L16" t="n">
-        <v>4.580298768144196</v>
+        <v>5.58189545724214</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8327716759368637</v>
+        <v>0.7954081575467948</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2073555253801465</v>
+        <v>0.3881515251250147</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9445172119372963</v>
+        <v>0.7596500471240127</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1504</v>
+        <v>1204</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1141</v>
+        <v>1395</v>
       </c>
       <c r="B17" t="n">
-        <v>1192</v>
+        <v>1437</v>
       </c>
       <c r="C17" t="n">
-        <v>1289</v>
+        <v>1532</v>
       </c>
       <c r="D17" t="n">
-        <v>2.446691193283446</v>
+        <v>1.491895336838262</v>
       </c>
       <c r="E17" t="n">
-        <v>1.813255334648993</v>
+        <v>0.6780470302502942</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6334358586344533</v>
+        <v>-0.8138483065879675</v>
       </c>
       <c r="G17" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H17" t="n">
-        <v>64.18316037876821</v>
+        <v>47.96510326545013</v>
       </c>
       <c r="I17" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J17" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17" t="n">
-        <v>172.7338348767678</v>
+        <v>120.5143038694308</v>
       </c>
       <c r="L17" t="n">
-        <v>19.0236181961757</v>
+        <v>4.575999496109748</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7695296483249736</v>
+        <v>0.8460452984595164</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5257731958762887</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="R17" t="n">
-        <v>0.7454456336905498</v>
+        <v>0.2204338657786635</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9516818058151347</v>
+        <v>0.9444648041666407</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1505</v>
+        <v>1205</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1193</v>
+      </c>
+      <c r="C18" t="n">
         <v>1289</v>
       </c>
-      <c r="B18" t="n">
-        <v>1317</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1598</v>
-      </c>
       <c r="D18" t="n">
-        <v>1.754958346844216</v>
+        <v>2.428758138109878</v>
       </c>
       <c r="E18" t="n">
-        <v>1.121522488209762</v>
+        <v>1.795305345561335</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6334358586344533</v>
+        <v>-0.633452792548542</v>
       </c>
       <c r="G18" t="n">
-        <v>309</v>
+        <v>149</v>
       </c>
       <c r="H18" t="n">
-        <v>27.48927698244074</v>
+        <v>64.77794753086346</v>
       </c>
       <c r="I18" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J18" t="n">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="K18" t="n">
-        <v>137.4749303219432</v>
+        <v>172.6338534716703</v>
       </c>
       <c r="L18" t="n">
-        <v>13.6452273307743</v>
+        <v>18.91424786669881</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,16 +1982,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7255285114320914</v>
+        <v>0.7643021925866885</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.099644128113879</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6267940734494796</v>
+        <v>0.7186855102613289</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7208626814218713</v>
+        <v>0.9532780221733372</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1506</v>
+        <v>1206</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>421</v>
+        <v>1289</v>
       </c>
       <c r="B19" t="n">
-        <v>469</v>
+        <v>1318</v>
       </c>
       <c r="C19" t="n">
-        <v>556</v>
+        <v>1598</v>
       </c>
       <c r="D19" t="n">
-        <v>1.299485315214428</v>
+        <v>1.725359941870841</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6324117850684572</v>
+        <v>1.091907149322298</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6670735301459707</v>
+        <v>-0.633452792548542</v>
       </c>
       <c r="G19" t="n">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="H19" t="n">
-        <v>41.17851124297869</v>
+        <v>28.0192727595886</v>
       </c>
       <c r="I19" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
-        <v>87</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>85.37222456090083</v>
+        <v>137.6608387480464</v>
       </c>
       <c r="L19" t="n">
-        <v>4.035768835732505</v>
+        <v>13.43644930623461</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6649643782357496</v>
+        <v>0.7275113614764785</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.1035714285714286</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4587812285254988</v>
+        <v>0.6400464075471162</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6314519894300898</v>
+        <v>0.7219974442299313</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1507</v>
+        <v>1207</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="B20" t="n">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="C20" t="n">
-        <v>477</v>
+        <v>556</v>
       </c>
       <c r="D20" t="n">
-        <v>2.296979474514027</v>
+        <v>1.27576660557515</v>
       </c>
       <c r="E20" t="n">
-        <v>1.57376807257064</v>
+        <v>0.6151698206766932</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7232114019433866</v>
+        <v>-0.6605967848984566</v>
       </c>
       <c r="G20" t="n">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="H20" t="n">
-        <v>70.25860954980914</v>
+        <v>41.59085244157131</v>
       </c>
       <c r="I20" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J20" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K20" t="n">
-        <v>210.1202363951836</v>
+        <v>84.3842695276347</v>
       </c>
       <c r="L20" t="n">
-        <v>8.875921757276501</v>
+        <v>3.959273890701968</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.7460501410975851</v>
+        <v>0.6781973314571903</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6301369863013698</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6039796244153308</v>
+        <v>0.4474811084757517</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7018710144729494</v>
+        <v>0.6386233599007245</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1508</v>
+        <v>1208</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>535</v>
+        <v>358</v>
       </c>
       <c r="B21" t="n">
-        <v>560</v>
+        <v>405</v>
       </c>
       <c r="C21" t="n">
-        <v>626</v>
+        <v>477</v>
       </c>
       <c r="D21" t="n">
-        <v>2.305707892022741</v>
+        <v>2.31301530745393</v>
       </c>
       <c r="E21" t="n">
-        <v>1.446113183666075</v>
+        <v>1.584972847331976</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.8595947083566664</v>
+        <v>-0.7280424601219537</v>
       </c>
       <c r="G21" t="n">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="H21" t="n">
-        <v>25.63085663025879</v>
+        <v>69.86497739591482</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J21" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K21" t="n">
-        <v>166.1718383395739</v>
+        <v>210.6882676775222</v>
       </c>
       <c r="L21" t="n">
-        <v>5.804604799172142</v>
+        <v>8.953169181958794</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8476615538370984</v>
+        <v>0.7424277949247078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3787878787878788</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1656212844067184</v>
+        <v>0.5758291518507883</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9839416187869168</v>
+        <v>0.7115821720617008</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1509</v>
+        <v>1209</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,65 +2277,65 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1250</v>
+        <v>437</v>
       </c>
       <c r="B22" t="n">
-        <v>1314</v>
+        <v>505</v>
       </c>
       <c r="C22" t="n">
-        <v>1483</v>
+        <v>626</v>
       </c>
       <c r="D22" t="n">
-        <v>2.145086488717558</v>
+        <v>2.704365046701127</v>
       </c>
       <c r="E22" t="n">
-        <v>1.285491780360891</v>
+        <v>1.837933592682728</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.8595947083566664</v>
+        <v>-0.8664314540183988</v>
       </c>
       <c r="G22" t="n">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="H22" t="n">
-        <v>66.99311136247366</v>
+        <v>26.93120044886672</v>
       </c>
       <c r="I22" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J22" t="n">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="K22" t="n">
-        <v>239.2723155779788</v>
+        <v>382.5118643696392</v>
       </c>
       <c r="L22" t="n">
-        <v>5.400241448679766</v>
+        <v>6.805651072696071</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1435), 'value': np.float64(0.23098499062298555), 'amplitude': np.float64(1.090579698979652), 'start_idx': np.int64(1407), 'end_idx': np.int64(1448), 'duration': np.float64(41.0), 'fwhm': np.float64(48.010642691614294), 'rise_time': np.float64(28.0), 'decay_time': np.float64(13.0), 'auc': np.float64(34.72122794973083)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7810899005034327</v>
+        <v>0.4946388972446076</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.378698224852071</v>
+        <v>0.5619834710743802</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4029764918453385</v>
+        <v>0.1583960812588235</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4428994723629659</v>
+        <v>0.7139133667602706</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1510</v>
+        <v>1210</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,73 +2363,73 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>615</v>
+        <v>1250</v>
       </c>
       <c r="B23" t="n">
-        <v>669</v>
+        <v>1314</v>
       </c>
       <c r="C23" t="n">
-        <v>754</v>
+        <v>1483</v>
       </c>
       <c r="D23" t="n">
-        <v>3.705458369645148</v>
+        <v>2.130019852329744</v>
       </c>
       <c r="E23" t="n">
-        <v>3.074672272115599</v>
+        <v>1.263588398311345</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6307860975295494</v>
+        <v>-0.8664314540183988</v>
       </c>
       <c r="G23" t="n">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="H23" t="n">
-        <v>113.459906065176</v>
+        <v>67.12713072252109</v>
       </c>
       <c r="I23" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J23" t="n">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="K23" t="n">
-        <v>358.5207345870903</v>
+        <v>240.8077163035311</v>
       </c>
       <c r="L23" t="n">
-        <v>31.23293595598858</v>
+        <v>5.360286663427614</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1436), 'value': np.float64(0.22380873108500743), 'amplitude': np.float64(1.0902401851034063), 'start_idx': np.int64(1407), 'end_idx': np.int64(1450), 'duration': np.float64(43.0), 'fwhm': np.float64(48.30548779623655), 'rise_time': np.float64(29.0), 'decay_time': np.float64(14.0), 'auc': np.float64(36.93725182862887)}]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7339675375949397</v>
+        <v>0.7823467774965416</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6352941176470588</v>
+        <v>0.378698224852071</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2200601267835997</v>
+        <v>0.4029623216371491</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9608501564342495</v>
+        <v>0.4472876243703643</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1511</v>
+        <v>1211</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>792</v>
+        <v>614</v>
       </c>
       <c r="B24" t="n">
-        <v>820</v>
+        <v>668</v>
       </c>
       <c r="C24" t="n">
-        <v>881</v>
+        <v>753</v>
       </c>
       <c r="D24" t="n">
-        <v>3.303537933338002</v>
+        <v>3.693344361550043</v>
       </c>
       <c r="E24" t="n">
-        <v>2.672751835808453</v>
+        <v>3.064386725384928</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6307860975295494</v>
+        <v>-0.6289576361651155</v>
       </c>
       <c r="G24" t="n">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="H24" t="n">
-        <v>47.61461612870619</v>
+        <v>112.7817221522068</v>
       </c>
       <c r="I24" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J24" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="K24" t="n">
-        <v>201.0264781767626</v>
+        <v>356.6631984867957</v>
       </c>
       <c r="L24" t="n">
-        <v>27.84518901773699</v>
+        <v>31.30662946742573</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8572055011104599</v>
+        <v>0.7343493276597295</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.459016393442623</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2383288115178752</v>
+        <v>0.2247543765234882</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9148325417664099</v>
+        <v>0.9614890455063009</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1512</v>
+        <v>1212</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1382</v>
+        <v>792</v>
       </c>
       <c r="B25" t="n">
-        <v>1410</v>
+        <v>820</v>
       </c>
       <c r="C25" t="n">
-        <v>1507</v>
+        <v>880</v>
       </c>
       <c r="D25" t="n">
-        <v>1.874870664858794</v>
+        <v>3.283141666024374</v>
       </c>
       <c r="E25" t="n">
-        <v>1.220081497617456</v>
+        <v>2.654184029859259</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.6547891672413382</v>
+        <v>-0.6289576361651155</v>
       </c>
       <c r="G25" t="n">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="H25" t="n">
-        <v>32.59595761867058</v>
+        <v>47.83035074365193</v>
       </c>
       <c r="I25" t="n">
         <v>28</v>
       </c>
       <c r="J25" t="n">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>130.5574426848751</v>
+        <v>200.293159438877</v>
       </c>
       <c r="L25" t="n">
-        <v>4.748774512548181</v>
+        <v>27.82954676453589</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8617437135194774</v>
+        <v>0.8524611083186047</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.288659793814433</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2480126097288956</v>
+        <v>0.230568944565174</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6656259277581325</v>
+        <v>0.9127473427516271</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1513</v>
+        <v>1213</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1507</v>
+        <v>1381</v>
       </c>
       <c r="B26" t="n">
-        <v>1538</v>
+        <v>1411</v>
       </c>
       <c r="C26" t="n">
-        <v>1598</v>
+        <v>1506</v>
       </c>
       <c r="D26" t="n">
-        <v>2.389719109235158</v>
+        <v>1.8629101791119</v>
       </c>
       <c r="E26" t="n">
-        <v>1.73492994199382</v>
+        <v>1.208482639672251</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.6547891672413382</v>
+        <v>-0.6544275394396492</v>
       </c>
       <c r="G26" t="n">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="H26" t="n">
-        <v>29.40045894552372</v>
+        <v>31.89889987334641</v>
       </c>
       <c r="I26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K26" t="n">
-        <v>122.6436317879596</v>
+        <v>130.9369250475232</v>
       </c>
       <c r="L26" t="n">
-        <v>6.05281068757879</v>
+        <v>4.717521726996422</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8347195068665461</v>
+        <v>0.8431722632776</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2641466913669153</v>
+        <v>0.2464906307863154</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8582424449715985</v>
+        <v>0.6603508388052648</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1514</v>
+        <v>1214</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>173</v>
+        <v>1506</v>
       </c>
       <c r="B27" t="n">
-        <v>223</v>
+        <v>1539</v>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>1598</v>
       </c>
       <c r="D27" t="n">
-        <v>2.609420282529697</v>
+        <v>2.366485684706665</v>
       </c>
       <c r="E27" t="n">
-        <v>1.999217988451027</v>
+        <v>1.712058145267016</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6102022940786695</v>
+        <v>-0.6544275394396492</v>
       </c>
       <c r="G27" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="H27" t="n">
-        <v>96.27057588022663</v>
+        <v>30.09114524941128</v>
       </c>
       <c r="I27" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J27" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K27" t="n">
-        <v>195.4819424134045</v>
+        <v>122.8263465308163</v>
       </c>
       <c r="L27" t="n">
-        <v>7.00665033048251</v>
+        <v>5.992746059046095</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6256872349659954</v>
+        <v>0.8198902577152025</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2888388841743105</v>
+        <v>0.2757003453599794</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8857178284569799</v>
+        <v>0.8468628546466704</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1515</v>
+        <v>1215</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>964</v>
+        <v>173</v>
       </c>
       <c r="B28" t="n">
-        <v>990</v>
+        <v>223</v>
       </c>
       <c r="C28" t="n">
-        <v>1027</v>
+        <v>287</v>
       </c>
       <c r="D28" t="n">
-        <v>1.895559750695362</v>
+        <v>2.58502633505951</v>
       </c>
       <c r="E28" t="n">
-        <v>1.285357456616692</v>
+        <v>1.975491777570102</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6102022940786695</v>
+        <v>-0.6095345574894073</v>
       </c>
       <c r="G28" t="n">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="H28" t="n">
-        <v>20.35506933314718</v>
+        <v>96.12039861987461</v>
       </c>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J28" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="K28" t="n">
-        <v>72.92854072706263</v>
+        <v>194.3850434528945</v>
       </c>
       <c r="L28" t="n">
-        <v>5.089837172869391</v>
+        <v>6.946510129971819</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.7589720809991094</v>
+        <v>0.6242903123091271</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.78125</v>
       </c>
       <c r="R28" t="n">
-        <v>0.3428001869024907</v>
+        <v>0.2838701849564193</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7602267565494103</v>
+        <v>0.8919776608325418</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1516</v>
+        <v>1216</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="B29" t="n">
+        <v>990</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.855603445058961</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.246068887569554</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.6095345574894073</v>
+      </c>
+      <c r="G29" t="n">
+        <v>63</v>
+      </c>
+      <c r="H29" t="n">
+        <v>20.92835634088647</v>
+      </c>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="n">
         <v>36</v>
       </c>
-      <c r="C29" t="n">
-        <v>86</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.924596733277398</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.382162908924386</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-0.5424338243530117</v>
-      </c>
-      <c r="G29" t="n">
-        <v>86</v>
-      </c>
-      <c r="H29" t="n">
-        <v>40.52808772068654</v>
-      </c>
-      <c r="I29" t="n">
-        <v>36</v>
-      </c>
-      <c r="J29" t="n">
-        <v>50</v>
-      </c>
       <c r="K29" t="n">
-        <v>248.382382726578</v>
+        <v>72.0097408770817</v>
       </c>
       <c r="L29" t="n">
-        <v>10.06748433269428</v>
+        <v>4.986397219050358</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6096506809712373</v>
+        <v>0.7592598637076401</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1130724689935669</v>
+        <v>0.3299368314587305</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9672708283437997</v>
+        <v>0.7908827571217566</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1517</v>
+        <v>1217</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>37</v>
+      </c>
+      <c r="C30" t="n">
         <v>86</v>
       </c>
-      <c r="B30" t="n">
-        <v>116</v>
-      </c>
-      <c r="C30" t="n">
-        <v>233</v>
-      </c>
       <c r="D30" t="n">
-        <v>2.847708763311673</v>
+        <v>3.919619830489301</v>
       </c>
       <c r="E30" t="n">
-        <v>2.305274938958661</v>
+        <v>3.394211368484633</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5424338243530117</v>
+        <v>-0.5254084620046686</v>
       </c>
       <c r="G30" t="n">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="H30" t="n">
-        <v>42.90638070671808</v>
+        <v>40.03864488155635</v>
       </c>
       <c r="I30" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="K30" t="n">
-        <v>278.9994278109431</v>
+        <v>246.9647586438977</v>
       </c>
       <c r="L30" t="n">
-        <v>7.305021460071139</v>
+        <v>10.09236858854498</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.9326080420160336</v>
+        <v>0.6079779394625691</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3131882704239637</v>
+        <v>0.09446387540452519</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9522643853393247</v>
+        <v>0.9711379864878137</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1518</v>
+        <v>1218</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,65 +3051,65 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1025</v>
+        <v>1436</v>
       </c>
       <c r="B31" t="n">
-        <v>1053</v>
+        <v>1482</v>
       </c>
       <c r="C31" t="n">
-        <v>1213</v>
+        <v>1598</v>
       </c>
       <c r="D31" t="n">
-        <v>1.651622758205306</v>
+        <v>2.73002514165634</v>
       </c>
       <c r="E31" t="n">
-        <v>1.077759232792336</v>
+        <v>2.155551614697742</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.57386352541297</v>
+        <v>-0.5744735269585979</v>
       </c>
       <c r="G31" t="n">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H31" t="n">
-        <v>21.73547046201406</v>
+        <v>46.97798311364068</v>
       </c>
       <c r="I31" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J31" t="n">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="K31" t="n">
-        <v>189.9732330665001</v>
+        <v>236.8731130192077</v>
       </c>
       <c r="L31" t="n">
-        <v>3.013460124611821</v>
+        <v>4.981882734897975</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1116), 'value': np.float64(0.9701485172690429), 'amplitude': np.float64(1.544012042682013), 'start_idx': np.int64(1083), 'end_idx': np.int64(1122), 'duration': np.float64(39.0), 'fwhm': np.float64(38.25373003522827), 'rise_time': np.float64(33.0), 'decay_time': np.float64(6.0), 'auc': np.float64(46.79554955320468)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7026248271280006</v>
+        <v>0.8022024131697572</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.175</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="R31" t="n">
-        <v>0.404396652928752</v>
+        <v>0.1541618390416236</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4515772950965458</v>
+        <v>0.8419007067043991</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1519</v>
+        <v>1219</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1436</v>
+        <v>1067</v>
       </c>
       <c r="B32" t="n">
-        <v>1482</v>
+        <v>1130</v>
       </c>
       <c r="C32" t="n">
-        <v>1598</v>
+        <v>1327</v>
       </c>
       <c r="D32" t="n">
-        <v>2.759842197184555</v>
+        <v>2.00758064395963</v>
       </c>
       <c r="E32" t="n">
-        <v>2.185978671771585</v>
+        <v>1.423822143972907</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.57386352541297</v>
+        <v>-0.5837584999867221</v>
       </c>
       <c r="G32" t="n">
-        <v>162</v>
+        <v>260</v>
       </c>
       <c r="H32" t="n">
-        <v>45.8435048823294</v>
+        <v>42.58802172666174</v>
       </c>
       <c r="I32" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="J32" t="n">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="K32" t="n">
-        <v>236.6700550320789</v>
+        <v>153.2652241863171</v>
       </c>
       <c r="L32" t="n">
-        <v>5.035456414074746</v>
+        <v>10.3598782934005</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.800126859440526</v>
+        <v>0.7062878157725989</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.396551724137931</v>
+        <v>0.3197969543147208</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1565539231027422</v>
+        <v>0.4542493793459021</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8387314218488554</v>
+        <v>0.7414208589217341</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1520</v>
+        <v>1220</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1068</v>
+        <v>1469</v>
       </c>
       <c r="B33" t="n">
-        <v>1129</v>
+        <v>1520</v>
       </c>
       <c r="C33" t="n">
-        <v>1326</v>
+        <v>1598</v>
       </c>
       <c r="D33" t="n">
-        <v>2.016134112299876</v>
+        <v>2.299834613764341</v>
       </c>
       <c r="E33" t="n">
-        <v>1.433926165252132</v>
+        <v>1.716076113777619</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.5822079470477438</v>
+        <v>-0.5837584999867221</v>
       </c>
       <c r="G33" t="n">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="H33" t="n">
-        <v>42.30442999753723</v>
+        <v>56.23465877001854</v>
       </c>
       <c r="I33" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J33" t="n">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="K33" t="n">
-        <v>152.7036529744315</v>
+        <v>206.3242607724734</v>
       </c>
       <c r="L33" t="n">
-        <v>10.36160127853704</v>
+        <v>11.86801973073189</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,16 +3272,16 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.6965481075671955</v>
+        <v>0.7762406064324565</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.3096446700507614</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="R33" t="n">
-        <v>0.436086778657939</v>
+        <v>0.1902234866474288</v>
       </c>
       <c r="S33" t="n">
-        <v>0.7394712846829157</v>
+        <v>0.8599426362950097</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1521</v>
+        <v>1221</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1470</v>
+        <v>102</v>
       </c>
       <c r="B34" t="n">
-        <v>1521</v>
+        <v>134</v>
       </c>
       <c r="C34" t="n">
-        <v>1598</v>
+        <v>227</v>
       </c>
       <c r="D34" t="n">
-        <v>2.303188191609495</v>
+        <v>4.631990396900974</v>
       </c>
       <c r="E34" t="n">
-        <v>1.720980244561751</v>
+        <v>4.105931091484679</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5822079470477438</v>
+        <v>-0.5260593054162945</v>
       </c>
       <c r="G34" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H34" t="n">
-        <v>56.32258222983</v>
+        <v>56.79368330904195</v>
       </c>
       <c r="I34" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J34" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K34" t="n">
-        <v>205.4168832536145</v>
+        <v>272.3824346203797</v>
       </c>
       <c r="L34" t="n">
-        <v>11.83687015923213</v>
+        <v>19.37296450420842</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7762093739030007</v>
+        <v>0.8818567801205637</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6623376623376623</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1965936204911219</v>
+        <v>0.1788273815004269</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8490056726237845</v>
+        <v>0.8931107045231745</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1522</v>
+        <v>1222</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>103</v>
+        <v>894</v>
       </c>
       <c r="B35" t="n">
-        <v>134</v>
+        <v>927</v>
       </c>
       <c r="C35" t="n">
-        <v>227</v>
+        <v>973</v>
       </c>
       <c r="D35" t="n">
-        <v>4.683424902643191</v>
+        <v>1.239620184209602</v>
       </c>
       <c r="E35" t="n">
-        <v>4.15761403121274</v>
+        <v>0.6740822967880729</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.525810871430451</v>
+        <v>-0.5655378874215296</v>
       </c>
       <c r="G35" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="H35" t="n">
-        <v>56.5948490339929</v>
+        <v>49.89590436617539</v>
       </c>
       <c r="I35" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J35" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="K35" t="n">
-        <v>271.5998462976407</v>
+        <v>57.81282770459769</v>
       </c>
       <c r="L35" t="n">
-        <v>19.638711256056</v>
+        <v>5.189944089218902</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.9051324910006717</v>
+        <v>0.7274156950231114</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1991146822541086</v>
+        <v>0.2199610884375461</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8931378194825904</v>
+        <v>0.7386869730961243</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1523</v>
+        <v>1223</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>893</v>
+        <v>973</v>
       </c>
       <c r="B36" t="n">
-        <v>927</v>
+        <v>1027</v>
       </c>
       <c r="C36" t="n">
-        <v>974</v>
+        <v>1127</v>
       </c>
       <c r="D36" t="n">
-        <v>1.256748801870638</v>
+        <v>3.156635419147488</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6885115759703336</v>
+        <v>2.591097531725959</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5682372259003042</v>
+        <v>-0.5655378874215296</v>
       </c>
       <c r="G36" t="n">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="H36" t="n">
-        <v>49.97700558866211</v>
+        <v>116.1603440046962</v>
       </c>
       <c r="I36" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="J36" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>58.19856883137409</v>
+        <v>277.2935159749249</v>
       </c>
       <c r="L36" t="n">
-        <v>5.228016301026548</v>
+        <v>13.21595238937594</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,16 +3530,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7234891864471545</v>
+        <v>0.6873870818204015</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.723404255319149</v>
+        <v>0.54</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2551826672075195</v>
+        <v>0.3806809245922774</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7203041040072675</v>
+        <v>0.8314389520311084</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1524</v>
+        <v>1224</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>974</v>
+        <v>164</v>
       </c>
       <c r="B37" t="n">
-        <v>1006</v>
+        <v>195</v>
       </c>
       <c r="C37" t="n">
-        <v>1127</v>
+        <v>271</v>
       </c>
       <c r="D37" t="n">
-        <v>3.219625103713069</v>
+        <v>1.750782179507381</v>
       </c>
       <c r="E37" t="n">
-        <v>2.651387877812765</v>
+        <v>1.002749537418222</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5682372259003042</v>
+        <v>-0.7480326420891589</v>
       </c>
       <c r="G37" t="n">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="H37" t="n">
-        <v>84.56035660102862</v>
+        <v>38.49861531760897</v>
       </c>
       <c r="I37" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J37" t="n">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="K37" t="n">
-        <v>277.4851969005734</v>
+        <v>106.7944572908856</v>
       </c>
       <c r="L37" t="n">
-        <v>13.39349001196727</v>
+        <v>10.22255687175549</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.9227754644588081</v>
+        <v>0.9001050057405104</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2644628099173554</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2784248199954153</v>
+        <v>0.290881155616345</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8808735233330777</v>
+        <v>0.8838554694792115</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1525</v>
+        <v>1225</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>165</v>
+        <v>325</v>
       </c>
       <c r="B38" t="n">
-        <v>195</v>
+        <v>351</v>
       </c>
       <c r="C38" t="n">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="D38" t="n">
-        <v>1.764042639877106</v>
+        <v>3.438614414210582</v>
       </c>
       <c r="E38" t="n">
-        <v>1.014039653341292</v>
+        <v>2.690581772121423</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.7500029865358144</v>
+        <v>-0.7480326420891589</v>
       </c>
       <c r="G38" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H38" t="n">
-        <v>38.27337491757825</v>
+        <v>123.1937776162723</v>
       </c>
       <c r="I38" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K38" t="n">
-        <v>107.5696165228102</v>
+        <v>229.9584169358583</v>
       </c>
       <c r="L38" t="n">
-        <v>10.31059727805979</v>
+        <v>20.07755837404996</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.9075116320365648</v>
+        <v>0.8471042914496141</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.40625</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2765546974612355</v>
+        <v>0.2096062026553186</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8852173660377004</v>
+        <v>0.9908322560533374</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1526</v>
+        <v>1226</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>325</v>
+        <v>1174</v>
       </c>
       <c r="B39" t="n">
-        <v>351</v>
+        <v>1210</v>
       </c>
       <c r="C39" t="n">
-        <v>416</v>
+        <v>1360</v>
       </c>
       <c r="D39" t="n">
-        <v>3.461983559518565</v>
+        <v>2.178293614490914</v>
       </c>
       <c r="E39" t="n">
-        <v>2.71198057298275</v>
+        <v>1.430260972401755</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.7500029865358144</v>
+        <v>-0.7480326420891589</v>
       </c>
       <c r="G39" t="n">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="H39" t="n">
-        <v>123.1598838664178</v>
+        <v>75.2417126770647</v>
       </c>
       <c r="I39" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J39" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="K39" t="n">
-        <v>231.6262062546373</v>
+        <v>194.1703036208633</v>
       </c>
       <c r="L39" t="n">
-        <v>20.23483869298454</v>
+        <v>12.71873258601518</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8530416919244302</v>
+        <v>0.9389103794521699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2129277324297011</v>
+        <v>0.2446474982864178</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9906910733783083</v>
+        <v>0.8567960810227193</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1527</v>
+        <v>1227</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1174</v>
+        <v>1132</v>
       </c>
       <c r="B40" t="n">
-        <v>1210</v>
+        <v>1164</v>
       </c>
       <c r="C40" t="n">
-        <v>1361</v>
+        <v>1268</v>
       </c>
       <c r="D40" t="n">
-        <v>2.166063017299931</v>
+        <v>4.49762614976617</v>
       </c>
       <c r="E40" t="n">
-        <v>1.416060030764116</v>
+        <v>4.026304678060811</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.7500029865358144</v>
+        <v>-0.4713214717053598</v>
       </c>
       <c r="G40" t="n">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H40" t="n">
-        <v>76.35652053899344</v>
+        <v>132.9565352894372</v>
       </c>
       <c r="I40" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J40" t="n">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K40" t="n">
-        <v>194.6406781935269</v>
+        <v>329.0732344316915</v>
       </c>
       <c r="L40" t="n">
-        <v>12.66035352287999</v>
+        <v>25.23154454062068</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.9372337409043522</v>
+        <v>0.8945515087518436</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2384105960264901</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2463014532974895</v>
+        <v>0.3210898878829836</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8592402489143035</v>
+        <v>0.9116018964765429</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1528</v>
+        <v>1228</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1132</v>
+        <v>1268</v>
       </c>
       <c r="B41" t="n">
-        <v>1163</v>
+        <v>1286</v>
       </c>
       <c r="C41" t="n">
-        <v>1268</v>
+        <v>1313</v>
       </c>
       <c r="D41" t="n">
-        <v>4.521193565206311</v>
+        <v>1.291989526277275</v>
       </c>
       <c r="E41" t="n">
-        <v>4.046460199087125</v>
+        <v>0.8206680545719148</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4747333661191859</v>
+        <v>-0.4713214717053598</v>
       </c>
       <c r="G41" t="n">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="H41" t="n">
-        <v>29.5297441602545</v>
+        <v>16.30448989418119</v>
       </c>
       <c r="I41" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J41" t="n">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="K41" t="n">
-        <v>329.298858677582</v>
+        <v>45.81402894833974</v>
       </c>
       <c r="L41" t="n">
-        <v>25.11054660667396</v>
+        <v>7.248021554653953</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.8895785327786565</v>
+        <v>0.8031364589246979</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2952380952380952</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R41" t="n">
-        <v>0.304926962486292</v>
+        <v>0.1849430594094683</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9104125934819997</v>
+        <v>0.9808527446873258</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1529</v>
+        <v>1229</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1268</v>
+        <v>1313</v>
       </c>
       <c r="B42" t="n">
-        <v>1286</v>
+        <v>1331</v>
       </c>
       <c r="C42" t="n">
-        <v>1311</v>
+        <v>1365</v>
       </c>
       <c r="D42" t="n">
-        <v>1.307469905225486</v>
+        <v>0.9233413524446734</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8327365391063</v>
+        <v>0.4520198807393137</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4747333661191859</v>
+        <v>-0.4713214717053598</v>
       </c>
       <c r="G42" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H42" t="n">
-        <v>16.40565174603694</v>
+        <v>18.3043927913061</v>
       </c>
       <c r="I42" t="n">
         <v>18</v>
       </c>
       <c r="J42" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K42" t="n">
-        <v>44.76061536045052</v>
+        <v>31.74615953088803</v>
       </c>
       <c r="L42" t="n">
-        <v>7.261640873915998</v>
+        <v>5.179916623709584</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,16 +4046,16 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.7807878494445396</v>
+        <v>0.8493764350414119</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.72</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1671866681449534</v>
+        <v>0.2762332312637658</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9728258974875525</v>
+        <v>0.8822598260076671</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1530</v>
+        <v>1230</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1311</v>
+        <v>979</v>
       </c>
       <c r="B43" t="n">
-        <v>1332</v>
+        <v>1007</v>
       </c>
       <c r="C43" t="n">
-        <v>1365</v>
+        <v>1049</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9318627547396372</v>
+        <v>2.468876777099338</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4571293886204513</v>
+        <v>1.876275945378051</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.4747333661191859</v>
+        <v>-0.5926008317212865</v>
       </c>
       <c r="G43" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H43" t="n">
-        <v>18.33248570069645</v>
+        <v>24.36049949582775</v>
       </c>
       <c r="I43" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J43" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K43" t="n">
-        <v>33.16383363785727</v>
+        <v>89.10313301184247</v>
       </c>
       <c r="L43" t="n">
-        <v>5.175532256346886</v>
+        <v>5.262578093149554</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8134926969301604</v>
+        <v>0.8268921538787946</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2833852273446132</v>
+        <v>0.2248233768159735</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8947135413355121</v>
+        <v>0.9740713296529193</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1531</v>
+        <v>1231</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>980</v>
+        <v>1049</v>
       </c>
       <c r="B44" t="n">
-        <v>1007</v>
+        <v>1190</v>
       </c>
       <c r="C44" t="n">
-        <v>1050</v>
+        <v>1530</v>
       </c>
       <c r="D44" t="n">
-        <v>2.511392174143454</v>
+        <v>3.376611668523062</v>
       </c>
       <c r="E44" t="n">
-        <v>1.920067261034049</v>
+        <v>2.784010836801776</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5913249131094047</v>
+        <v>-0.5926008317212865</v>
       </c>
       <c r="G44" t="n">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="H44" t="n">
-        <v>23.8415184596231</v>
+        <v>91.08479231694378</v>
       </c>
       <c r="I44" t="n">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="J44" t="n">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="K44" t="n">
-        <v>89.42110988616939</v>
+        <v>608.8864927131356</v>
       </c>
       <c r="L44" t="n">
-        <v>5.347951235095433</v>
+        <v>7.197476504566616</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.8325210064709901</v>
+        <v>0.5687529658064941</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.4147058823529412</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2508743744307455</v>
+        <v>0.3308391077824732</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9681857229308054</v>
+        <v>0.5493386679285109</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1532</v>
+        <v>1232</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="B45" t="n">
-        <v>1190</v>
+        <v>1074</v>
       </c>
       <c r="C45" t="n">
-        <v>1531</v>
+        <v>1180</v>
       </c>
       <c r="D45" t="n">
-        <v>3.407252131315849</v>
+        <v>2.47346344281488</v>
       </c>
       <c r="E45" t="n">
-        <v>2.815927218206444</v>
+        <v>1.687631003721482</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5913249131094047</v>
+        <v>-0.7858324390933973</v>
       </c>
       <c r="G45" t="n">
-        <v>481</v>
+        <v>139</v>
       </c>
       <c r="H45" t="n">
-        <v>91.39961000923699</v>
+        <v>75.91805022839935</v>
       </c>
       <c r="I45" t="n">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="J45" t="n">
-        <v>341</v>
+        <v>106</v>
       </c>
       <c r="K45" t="n">
-        <v>608.014690705241</v>
+        <v>200.57868537942</v>
       </c>
       <c r="L45" t="n">
-        <v>7.255664181627448</v>
+        <v>14.36844000054462</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.5700688577139702</v>
+        <v>0.9292902733268616</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.4105571847507332</v>
+        <v>0.3113207547169811</v>
       </c>
       <c r="R45" t="n">
-        <v>0.3361197694669784</v>
+        <v>0.2664515657311523</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5458071226325507</v>
+        <v>0.9445112734017262</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1533</v>
+        <v>1233</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1042</v>
+        <v>1359</v>
       </c>
       <c r="B46" t="n">
-        <v>1073</v>
+        <v>1385</v>
       </c>
       <c r="C46" t="n">
-        <v>1181</v>
+        <v>1431</v>
       </c>
       <c r="D46" t="n">
-        <v>2.468096932781229</v>
+        <v>3.250082522647783</v>
       </c>
       <c r="E46" t="n">
-        <v>1.683829658145469</v>
+        <v>2.464250083554386</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7842672746357603</v>
+        <v>-0.7858324390933973</v>
       </c>
       <c r="G46" t="n">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="H46" t="n">
-        <v>75.83790936944615</v>
+        <v>161.9569687490271</v>
       </c>
       <c r="I46" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J46" t="n">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="K46" t="n">
-        <v>199.63514249529</v>
+        <v>202.7158724483219</v>
       </c>
       <c r="L46" t="n">
-        <v>14.40569435010455</v>
+        <v>18.87984876394165</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,16 +4390,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.9425240067262337</v>
+        <v>0.6527377551665609</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.287037037037037</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2666315990300803</v>
+        <v>0.07113370589721624</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9447824319258682</v>
+        <v>0.9797464240594891</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1534</v>
+        <v>1234</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1359</v>
+        <v>1431</v>
       </c>
       <c r="B47" t="n">
-        <v>1385</v>
+        <v>1455</v>
       </c>
       <c r="C47" t="n">
-        <v>1432</v>
+        <v>1598</v>
       </c>
       <c r="D47" t="n">
-        <v>3.249693352656386</v>
+        <v>2.645545720197423</v>
       </c>
       <c r="E47" t="n">
-        <v>2.465426078020626</v>
+        <v>1.859713281104026</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7842672746357603</v>
+        <v>-0.7858324390933973</v>
       </c>
       <c r="G47" t="n">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="H47" t="n">
-        <v>162.797906956509</v>
+        <v>22.62806873394698</v>
       </c>
       <c r="I47" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J47" t="n">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="K47" t="n">
-        <v>204.7662268342683</v>
+        <v>271.674226890708</v>
       </c>
       <c r="L47" t="n">
-        <v>18.96768662046872</v>
+        <v>15.36807227120163</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.6606883678732476</v>
+        <v>0.7885348534412029</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07519296241784898</v>
+        <v>0.3576316293155266</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9812108577233688</v>
+        <v>0.8313233907789859</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1535</v>
+        <v>1235</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1432</v>
+        <v>1103</v>
       </c>
       <c r="B48" t="n">
-        <v>1455</v>
+        <v>1118</v>
       </c>
       <c r="C48" t="n">
-        <v>1598</v>
+        <v>1207</v>
       </c>
       <c r="D48" t="n">
-        <v>2.668063469775284</v>
+        <v>1.775245078302206</v>
       </c>
       <c r="E48" t="n">
-        <v>1.883796195139523</v>
+        <v>1.265387276369707</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.7842672746357603</v>
+        <v>-0.5098578019324992</v>
       </c>
       <c r="G48" t="n">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="H48" t="n">
-        <v>22.08007971785378</v>
+        <v>20.79645357246159</v>
       </c>
       <c r="I48" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J48" t="n">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="K48" t="n">
-        <v>269.2943468615638</v>
+        <v>105.3307191102824</v>
       </c>
       <c r="L48" t="n">
-        <v>15.5728514313052</v>
+        <v>7.368649636251956</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7842219215363426</v>
+        <v>0.8406030708507021</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.1608391608391608</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="R48" t="n">
-        <v>0.3599085807002335</v>
+        <v>0.4036618704520782</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8294499447954236</v>
+        <v>0.9427942438277908</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1536</v>
+        <v>1236</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1103</v>
+        <v>1207</v>
       </c>
       <c r="B49" t="n">
-        <v>1118</v>
+        <v>1237</v>
       </c>
       <c r="C49" t="n">
-        <v>1208</v>
+        <v>1316</v>
       </c>
       <c r="D49" t="n">
-        <v>1.778158190338549</v>
+        <v>1.424469505410046</v>
       </c>
       <c r="E49" t="n">
-        <v>1.269938005383939</v>
+        <v>0.9146117034775471</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5082201849546101</v>
+        <v>-0.5098578019324992</v>
       </c>
       <c r="G49" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H49" t="n">
-        <v>20.99622324651614</v>
+        <v>77.77779281793846</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J49" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K49" t="n">
-        <v>105.6205102564832</v>
+        <v>117.3570257089303</v>
       </c>
       <c r="L49" t="n">
-        <v>7.367806318337269</v>
+        <v>5.912657824648196</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,16 +4648,16 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.8375586016355562</v>
+        <v>0.8297321658541654</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="R49" t="n">
-        <v>0.4076776539208398</v>
+        <v>0.3765978890088639</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9327670332331151</v>
+        <v>0.7226135003536761</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1537</v>
+        <v>1237</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B50" t="n">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C50" t="n">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D50" t="n">
-        <v>1.46819858318839</v>
+        <v>1.442254067600985</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9264882213734444</v>
+        <v>0.9070908044441467</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5417103618149459</v>
+        <v>-0.5351632631568378</v>
       </c>
       <c r="G50" t="n">
         <v>128</v>
       </c>
       <c r="H50" t="n">
-        <v>36.17566351104847</v>
+        <v>36.88580605542222</v>
       </c>
       <c r="I50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J50" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K50" t="n">
-        <v>76.10933294082756</v>
+        <v>74.87620501138291</v>
       </c>
       <c r="L50" t="n">
-        <v>4.719698186237946</v>
+        <v>4.634259616151894</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,16 +4734,16 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8840769218523145</v>
+        <v>0.8942142981301514</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1962616822429906</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="R50" t="n">
-        <v>0.425366800184479</v>
+        <v>0.4259500065216164</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8906097965058365</v>
+        <v>0.8736903411232866</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1538</v>
+        <v>1238</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1246</v>
+        <v>435</v>
       </c>
       <c r="B51" t="n">
-        <v>1275</v>
+        <v>503</v>
       </c>
       <c r="C51" t="n">
-        <v>1324</v>
+        <v>588</v>
       </c>
       <c r="D51" t="n">
-        <v>1.170434910623024</v>
+        <v>2.309763078533606</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6287245488080779</v>
+        <v>1.525118246557946</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5417103618149459</v>
+        <v>-0.7846448319756592</v>
       </c>
       <c r="G51" t="n">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="H51" t="n">
-        <v>38.43052789658441</v>
+        <v>164.2908789571987</v>
       </c>
       <c r="I51" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="J51" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="K51" t="n">
-        <v>61.72778421248996</v>
+        <v>229.5260811324432</v>
       </c>
       <c r="L51" t="n">
-        <v>3.762501604367942</v>
+        <v>8.021481799644437</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.756855014624336</v>
+        <v>0.6312091511763965</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.5918367346938775</v>
+        <v>0.8</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1431851651722916</v>
+        <v>0.2425741166319089</v>
       </c>
       <c r="S51" t="n">
-        <v>0.9494111618495068</v>
+        <v>0.9809190310028609</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1539</v>
+        <v>1239</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>435</v>
+        <v>809</v>
       </c>
       <c r="B52" t="n">
-        <v>503</v>
+        <v>854</v>
       </c>
       <c r="C52" t="n">
-        <v>588</v>
+        <v>977</v>
       </c>
       <c r="D52" t="n">
-        <v>2.317223494692275</v>
+        <v>3.21209664855681</v>
       </c>
       <c r="E52" t="n">
-        <v>1.533059062556251</v>
+        <v>2.427451816581151</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.7841644321360243</v>
+        <v>-0.7846448319756592</v>
       </c>
       <c r="G52" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H52" t="n">
-        <v>164.3296951719537</v>
+        <v>112.5935496617557</v>
       </c>
       <c r="I52" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="J52" t="n">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="K52" t="n">
-        <v>229.4930059592833</v>
+        <v>312.7119775045641</v>
       </c>
       <c r="L52" t="n">
-        <v>8.027951181462795</v>
+        <v>11.15515917825443</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,16 +4906,16 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.6213111753574388</v>
+        <v>0.8970966251515048</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.8</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2429597441032071</v>
+        <v>0.2264025415986798</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9814109924644254</v>
+        <v>0.9843905751816541</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1540</v>
+        <v>1240</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>810</v>
+        <v>1521</v>
       </c>
       <c r="B53" t="n">
-        <v>853</v>
+        <v>1542</v>
       </c>
       <c r="C53" t="n">
-        <v>977</v>
+        <v>1598</v>
       </c>
       <c r="D53" t="n">
-        <v>3.208078810208137</v>
+        <v>2.657144576612414</v>
       </c>
       <c r="E53" t="n">
-        <v>2.423914378072113</v>
+        <v>1.872499744636754</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.7841644321360243</v>
+        <v>-0.7846448319756592</v>
       </c>
       <c r="G53" t="n">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="H53" t="n">
-        <v>112.8499990636593</v>
+        <v>21.85247532239714</v>
       </c>
       <c r="I53" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="J53" t="n">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="K53" t="n">
-        <v>312.773637347041</v>
+        <v>149.4637335959032</v>
       </c>
       <c r="L53" t="n">
-        <v>11.11429265827305</v>
+        <v>9.227888807475495</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,16 +4992,16 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.8962985611878089</v>
+        <v>0.8705463867372986</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.3467741935483871</v>
+        <v>0.375</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2101942757488974</v>
+        <v>0.1872355457036479</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9816625578605399</v>
+        <v>0.9857525846846931</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1541</v>
+        <v>1241</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1520</v>
+        <v>1471</v>
       </c>
       <c r="B54" t="n">
-        <v>1542</v>
+        <v>1508</v>
       </c>
       <c r="C54" t="n">
         <v>1598</v>
       </c>
       <c r="D54" t="n">
-        <v>2.671312017489842</v>
+        <v>6.113341439430227</v>
       </c>
       <c r="E54" t="n">
-        <v>1.887147585353818</v>
+        <v>5.812548134846709</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.7841644321360243</v>
+        <v>-0.3007933045835177</v>
       </c>
       <c r="G54" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="H54" t="n">
-        <v>21.55754011907902</v>
+        <v>47.73441204507799</v>
       </c>
       <c r="I54" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J54" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="K54" t="n">
-        <v>151.2735019874487</v>
+        <v>362.0412378078254</v>
       </c>
       <c r="L54" t="n">
-        <v>9.25468023088176</v>
+        <v>24.19777770112888</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.8535078491878432</v>
+        <v>0.9182461116333505</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.4111111111111111</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1820309978005916</v>
+        <v>0.2382408446661968</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9839383420790075</v>
+        <v>0.9395815778708755</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1542</v>
+        <v>1242</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1471</v>
+        <v>1281</v>
       </c>
       <c r="B55" t="n">
-        <v>1509</v>
+        <v>1364</v>
       </c>
       <c r="C55" t="n">
-        <v>1598</v>
+        <v>1482</v>
       </c>
       <c r="D55" t="n">
-        <v>6.127703849374183</v>
+        <v>2.968638542874388</v>
       </c>
       <c r="E55" t="n">
-        <v>5.825055022615161</v>
+        <v>2.261001689522194</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.3026488267590215</v>
+        <v>-0.7076368533521944</v>
       </c>
       <c r="G55" t="n">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="H55" t="n">
-        <v>46.34150268207827</v>
+        <v>116.0766290403467</v>
       </c>
       <c r="I55" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="J55" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K55" t="n">
-        <v>361.8569793798505</v>
+        <v>325.2932204391219</v>
       </c>
       <c r="L55" t="n">
-        <v>24.11499199215859</v>
+        <v>8.318248393629135</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.9091257408274765</v>
+        <v>0.6576093014976492</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.4269662921348314</v>
+        <v>0.7033898305084746</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2657036637402443</v>
+        <v>0.2524794184474074</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9511582309414097</v>
+        <v>0.9373922661842381</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1543</v>
+        <v>1243</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1281</v>
+        <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1364</v>
+        <v>20</v>
       </c>
       <c r="C56" t="n">
-        <v>1483</v>
+        <v>121</v>
       </c>
       <c r="D56" t="n">
-        <v>2.966467608805833</v>
+        <v>4.482418038171016</v>
       </c>
       <c r="E56" t="n">
-        <v>2.260559405377416</v>
+        <v>3.928592126957263</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.7059082034284166</v>
+        <v>-0.5538259112137525</v>
       </c>
       <c r="G56" t="n">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="H56" t="n">
-        <v>117.6761702520168</v>
+        <v>78.05632407550701</v>
       </c>
       <c r="I56" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="J56" t="n">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="K56" t="n">
-        <v>325.3612883093788</v>
+        <v>368.124974761352</v>
       </c>
       <c r="L56" t="n">
-        <v>8.308634834569471</v>
+        <v>25.02542974962305</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.6244022749899654</v>
+        <v>0.8060411910576858</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6974789915966386</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="R56" t="n">
-        <v>0.2574254867422666</v>
+        <v>0.1467605866355277</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9317885340291925</v>
+        <v>0.8548038419918076</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1544</v>
+        <v>1244</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C57" t="n">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="D57" t="n">
-        <v>4.480390509362597</v>
+        <v>1.920438056940274</v>
       </c>
       <c r="E57" t="n">
-        <v>3.922199535918797</v>
+        <v>1.366612145726522</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5581909734438002</v>
+        <v>-0.5538259112137525</v>
       </c>
       <c r="G57" t="n">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="H57" t="n">
-        <v>78.57886510716156</v>
+        <v>22.35585183915347</v>
       </c>
       <c r="I57" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J57" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="K57" t="n">
-        <v>368.6585463128778</v>
+        <v>82.76026373836625</v>
       </c>
       <c r="L57" t="n">
-        <v>24.90269793406686</v>
+        <v>10.72184416384142</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,16 +5336,16 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.8071613621573044</v>
+        <v>0.7580073854775992</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.198019801980198</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1487498474837558</v>
+        <v>0.1355113925246119</v>
       </c>
       <c r="S57" t="n">
-        <v>0.8534726350738303</v>
+        <v>0.9805163237625888</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1545</v>
+        <v>1245</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="B58" t="n">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="C58" t="n">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="D58" t="n">
-        <v>1.936445807356825</v>
+        <v>2.624604702108577</v>
       </c>
       <c r="E58" t="n">
-        <v>1.378254833913025</v>
+        <v>2.070778790894825</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5581909734438002</v>
+        <v>-0.5538259112137525</v>
       </c>
       <c r="G58" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="H58" t="n">
-        <v>22.30726070235553</v>
+        <v>110.0475915030123</v>
       </c>
       <c r="I58" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J58" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="K58" t="n">
-        <v>83.02069284345404</v>
+        <v>172.4571317125582</v>
       </c>
       <c r="L58" t="n">
-        <v>10.76306293068138</v>
+        <v>14.65322065764956</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7557166577659405</v>
+        <v>0.8041232885897758</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1319264755529845</v>
+        <v>0.3172772671430134</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9832799729744627</v>
+        <v>0.9327819973759441</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1546</v>
+        <v>1246</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="B59" t="n">
-        <v>264</v>
+        <v>347</v>
       </c>
       <c r="C59" t="n">
-        <v>326</v>
+        <v>433</v>
       </c>
       <c r="D59" t="n">
-        <v>2.646572259888439</v>
+        <v>2.065008836555141</v>
       </c>
       <c r="E59" t="n">
-        <v>2.088381286444638</v>
+        <v>1.511182925341389</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5581909734438002</v>
+        <v>-0.5538259112137525</v>
       </c>
       <c r="G59" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="H59" t="n">
-        <v>109.7704783507216</v>
+        <v>16.31390088838486</v>
       </c>
       <c r="I59" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J59" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="K59" t="n">
-        <v>172.2146772545137</v>
+        <v>118.4579394524289</v>
       </c>
       <c r="L59" t="n">
-        <v>14.71005471754263</v>
+        <v>11.52898572410882</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8099180715821354</v>
+        <v>0.8635832615438461</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.5</v>
+        <v>0.2441860465116279</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3113867702522031</v>
+        <v>0.4840589537293864</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9339591946380812</v>
+        <v>0.9771731081805969</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1547</v>
+        <v>1247</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>326</v>
+        <v>1031</v>
       </c>
       <c r="B60" t="n">
-        <v>347</v>
+        <v>1054</v>
       </c>
       <c r="C60" t="n">
-        <v>433</v>
+        <v>1100</v>
       </c>
       <c r="D60" t="n">
-        <v>2.084907572586283</v>
+        <v>0.4482744676113675</v>
       </c>
       <c r="E60" t="n">
-        <v>1.526716599142482</v>
+        <v>-0.02566941327068522</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5581909734438002</v>
+        <v>-0.4739438808820527</v>
       </c>
       <c r="G60" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H60" t="n">
-        <v>16.08514980213516</v>
+        <v>36.75569985719835</v>
       </c>
       <c r="I60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J60" t="n">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="K60" t="n">
-        <v>118.9464502927366</v>
+        <v>23.07571695596914</v>
       </c>
       <c r="L60" t="n">
-        <v>11.58823620219461</v>
+        <v>4.877894563116222</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.8625964239196177</v>
+        <v>0.821813858643321</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.2441860465116279</v>
+        <v>0.5</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4834539578996256</v>
+        <v>0.5267626447908647</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9764072794891249</v>
+        <v>0.8223177987670998</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1548</v>
+        <v>1248</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5634,37 +5634,37 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C61" t="n">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="D61" t="n">
-        <v>4.078184542191226</v>
+        <v>0.6870882463752741</v>
       </c>
       <c r="E61" t="n">
-        <v>3.607262780305855</v>
+        <v>0.2950870172887664</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4709217618853715</v>
+        <v>-0.3920012290865077</v>
       </c>
       <c r="G61" t="n">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="H61" t="n">
-        <v>83.44711571587069</v>
+        <v>55.7912071801624</v>
       </c>
       <c r="I61" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J61" t="n">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="K61" t="n">
-        <v>528.3585472409504</v>
+        <v>52.78236851332107</v>
       </c>
       <c r="L61" t="n">
-        <v>44.1460251165999</v>
+        <v>5.638601635481223</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.8932105326130142</v>
+        <v>0.7015751016320479</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="R61" t="n">
-        <v>0.3411933933080964</v>
+        <v>0.2738967782960553</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8691636898967664</v>
+        <v>0.8520200817362558</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1549</v>
+        <v>1249</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1032</v>
+        <v>660</v>
       </c>
       <c r="B62" t="n">
-        <v>1054</v>
+        <v>710</v>
       </c>
       <c r="C62" t="n">
-        <v>1100</v>
+        <v>777</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4611814812680337</v>
+        <v>3.67235798783769</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.009740280617337834</v>
+        <v>3.016902208742948</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.4709217618853715</v>
+        <v>-0.6554557790947414</v>
       </c>
       <c r="G62" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="H62" t="n">
-        <v>37.57071211599828</v>
+        <v>81.19467772554094</v>
       </c>
       <c r="I62" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J62" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K62" t="n">
-        <v>22.68614695543679</v>
+        <v>253.4328779528396</v>
       </c>
       <c r="L62" t="n">
-        <v>4.992253058864817</v>
+        <v>13.61701633865962</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.8222918634932672</v>
+        <v>0.679603039998101</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="R62" t="n">
-        <v>0.511595766907804</v>
+        <v>0.1851403566854445</v>
       </c>
       <c r="S62" t="n">
-        <v>0.801697086164266</v>
+        <v>0.7194365302482867</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,73 +5803,73 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1239</v>
+        <v>1099</v>
       </c>
       <c r="B63" t="n">
-        <v>1271</v>
+        <v>1114</v>
       </c>
       <c r="C63" t="n">
-        <v>1347</v>
+        <v>1238</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4521277726890403</v>
+        <v>1.157350316411894</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.01879398919633125</v>
+        <v>0.5777043505410528</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4709217618853715</v>
+        <v>-0.5796459658708414</v>
       </c>
       <c r="G63" t="n">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="H63" t="n">
-        <v>68.03861230531811</v>
+        <v>25.87250635486612</v>
       </c>
       <c r="I63" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="J63" t="n">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="K63" t="n">
-        <v>31.8850656774759</v>
+        <v>83.05679541472628</v>
       </c>
       <c r="L63" t="n">
-        <v>4.894247379575016</v>
+        <v>5.547646961425398</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1207), 'value': np.float64(0.03457203738752131), 'amplitude': np.float64(0.6142180032583627), 'start_idx': np.int64(1187), 'end_idx': np.int64(1221), 'duration': np.float64(34.0), 'fwhm': np.float64(22.194262101170125), 'rise_time': np.float64(20.0), 'decay_time': np.float64(14.0), 'auc': np.float64(15.93196360157773)}]</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.8451568214344484</v>
+        <v>0.7329677638748097</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4872794753943705</v>
+        <v>0.395416084388188</v>
       </c>
       <c r="S63" t="n">
-        <v>0.8437782197002951</v>
+        <v>0.5761393606747093</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1551</v>
+        <v>1251</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>681</v>
       </c>
       <c r="B64" t="n">
-        <v>47</v>
+        <v>763</v>
       </c>
       <c r="C64" t="n">
-        <v>141</v>
+        <v>874</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6852536949740367</v>
+        <v>4.099769583353841</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2948974158906419</v>
+        <v>3.582520433934004</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3903562790833948</v>
+        <v>-0.517249149419837</v>
       </c>
       <c r="G64" t="n">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="H64" t="n">
-        <v>56.9316016280974</v>
+        <v>129.8142673534685</v>
       </c>
       <c r="I64" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="J64" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K64" t="n">
-        <v>52.48043251969953</v>
+        <v>461.6262843902898</v>
       </c>
       <c r="L64" t="n">
-        <v>5.548849035169057</v>
+        <v>14.4147549842323</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.7279016824633665</v>
+        <v>0.7225491071755897</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2663422436643071</v>
+        <v>0.2210917181202855</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8434517467518758</v>
+        <v>0.8307249131398976</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1552</v>
+        <v>1252</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>610</v>
+        <v>806</v>
       </c>
       <c r="B65" t="n">
-        <v>646</v>
+        <v>837</v>
       </c>
       <c r="C65" t="n">
-        <v>728</v>
+        <v>983</v>
       </c>
       <c r="D65" t="n">
-        <v>5.725574752773602</v>
+        <v>4.291537802615865</v>
       </c>
       <c r="E65" t="n">
-        <v>5.335218473690206</v>
+        <v>3.743252851595613</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3903562790833948</v>
+        <v>-0.5482849510202527</v>
       </c>
       <c r="G65" t="n">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="H65" t="n">
-        <v>70.86171657517411</v>
+        <v>56.76692673384002</v>
       </c>
       <c r="I65" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J65" t="n">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="K65" t="n">
-        <v>383.2957602517966</v>
+        <v>358.3650453058656</v>
       </c>
       <c r="L65" t="n">
-        <v>46.36290205471982</v>
+        <v>11.04328406118195</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.8494402993694959</v>
+        <v>0.8760316612727018</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.2123287671232877</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2072373557341723</v>
+        <v>0.3432783370192791</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9357337497819183</v>
+        <v>0.732448264112563</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1553</v>
+        <v>1253</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>660</v>
+        <v>1302</v>
       </c>
       <c r="B66" t="n">
-        <v>709</v>
+        <v>1331</v>
       </c>
       <c r="C66" t="n">
-        <v>777</v>
+        <v>1415</v>
       </c>
       <c r="D66" t="n">
-        <v>3.690993615680579</v>
+        <v>1.513744457876174</v>
       </c>
       <c r="E66" t="n">
-        <v>3.038125318414746</v>
+        <v>0.8771679943595969</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.6528682972658337</v>
+        <v>-0.6365764635165768</v>
       </c>
       <c r="G66" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H66" t="n">
-        <v>80.7634297913346</v>
+        <v>28.63152051110069</v>
       </c>
       <c r="I66" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J66" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="K66" t="n">
-        <v>253.1556815425322</v>
+        <v>128.27153984401</v>
       </c>
       <c r="L66" t="n">
-        <v>13.62788589660293</v>
+        <v>4.658230484039611</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.6780345534300132</v>
+        <v>0.754617521267395</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7205882352941176</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1816254720751846</v>
+        <v>0.1466854147978049</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6991573785122344</v>
+        <v>0.6328082303835632</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1554</v>
+        <v>1254</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>832</v>
+        <v>1088</v>
       </c>
       <c r="B67" t="n">
-        <v>842</v>
+        <v>1122</v>
       </c>
       <c r="C67" t="n">
-        <v>871</v>
+        <v>1278</v>
       </c>
       <c r="D67" t="n">
-        <v>1.621803293562913</v>
+        <v>5.021211644936884</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9689349962970798</v>
+        <v>4.393600446763401</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6528682972658337</v>
+        <v>-0.6276111981734841</v>
       </c>
       <c r="G67" t="n">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="H67" t="n">
-        <v>11.42717501767413</v>
+        <v>62.29807766779277</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J67" t="n">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="K67" t="n">
-        <v>43.69065755989659</v>
+        <v>443.0999834479123</v>
       </c>
       <c r="L67" t="n">
-        <v>5.98802179920186</v>
+        <v>20.61965053247471</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8896760039903651</v>
+        <v>0.9222494301303803</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3310777082723793</v>
+        <v>0.2721296364101876</v>
       </c>
       <c r="S67" t="n">
-        <v>0.8506539640449889</v>
+        <v>0.91415327789675</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1555</v>
+        <v>1255</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="B68" t="n">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="C68" t="n">
         <v>1598</v>
       </c>
       <c r="D68" t="n">
-        <v>1.716196187448335</v>
+        <v>2.267919519398001</v>
       </c>
       <c r="E68" t="n">
-        <v>1.063327890182501</v>
+        <v>1.640308321224517</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6528682972658337</v>
+        <v>-0.6276111981734841</v>
       </c>
       <c r="G68" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H68" t="n">
-        <v>41.72297132001017</v>
+        <v>33.65558677997956</v>
       </c>
       <c r="I68" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J68" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K68" t="n">
-        <v>80.99860361004977</v>
+        <v>110.4538126736098</v>
       </c>
       <c r="L68" t="n">
-        <v>6.33653922330569</v>
+        <v>9.313231791955783</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.6804481371151403</v>
+        <v>0.7891192295532574</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.75</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1286709707166415</v>
+        <v>0.4459460661705915</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9157369709697968</v>
+        <v>0.9523278219960523</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1556</v>
+        <v>1256</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,73 +6319,73 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1099</v>
+        <v>102</v>
       </c>
       <c r="B69" t="n">
-        <v>1114</v>
+        <v>127</v>
       </c>
       <c r="C69" t="n">
-        <v>1239</v>
+        <v>257</v>
       </c>
       <c r="D69" t="n">
-        <v>1.187702653849241</v>
+        <v>4.49333588040092</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6106660910181654</v>
+        <v>3.970315839981732</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5770365628310755</v>
+        <v>-0.5230200404191888</v>
       </c>
       <c r="G69" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H69" t="n">
-        <v>26.48264554080788</v>
+        <v>106.0609670549402</v>
       </c>
       <c r="I69" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J69" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K69" t="n">
-        <v>82.97015121473912</v>
+        <v>334.9552506741463</v>
       </c>
       <c r="L69" t="n">
-        <v>5.631509308752158</v>
+        <v>21.39639734120729</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1207), 'value': np.float64(0.03837239070264471), 'amplitude': np.float64(0.6154089535337203), 'start_idx': np.int64(1186), 'end_idx': np.int64(1221), 'duration': np.float64(35.0), 'fwhm': np.float64(22.797693056484604), 'rise_time': np.float64(21.0), 'decay_time': np.float64(14.0), 'auc': np.float64(16.143174120149016)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.7310464563140795</v>
+        <v>0.8914042286213547</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.12</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4019402881478808</v>
+        <v>0.497690305921399</v>
       </c>
       <c r="S69" t="n">
-        <v>0.5627041605137518</v>
+        <v>0.9676181481713553</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1557</v>
+        <v>1257</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>682</v>
+        <v>257</v>
       </c>
       <c r="B70" t="n">
-        <v>762</v>
+        <v>289</v>
       </c>
       <c r="C70" t="n">
-        <v>874</v>
+        <v>334</v>
       </c>
       <c r="D70" t="n">
-        <v>4.104183827472189</v>
+        <v>2.436798132579634</v>
       </c>
       <c r="E70" t="n">
-        <v>3.586919757692399</v>
+        <v>1.913778092160445</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5172640697797904</v>
+        <v>-0.5230200404191888</v>
       </c>
       <c r="G70" t="n">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="H70" t="n">
-        <v>130.1669461189024</v>
+        <v>35.20232655436507</v>
       </c>
       <c r="I70" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="J70" t="n">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="K70" t="n">
-        <v>461.7338077007423</v>
+        <v>102.832476411637</v>
       </c>
       <c r="L70" t="n">
-        <v>14.37751499657211</v>
+        <v>11.60356191318902</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.7026801846470089</v>
+        <v>0.6958123275108228</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="R70" t="n">
-        <v>0.2133607948913801</v>
+        <v>0.09561378925426675</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8234948000903912</v>
+        <v>0.9768369017229741</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1558</v>
+        <v>1258</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>807</v>
+        <v>1031</v>
       </c>
       <c r="B71" t="n">
-        <v>837</v>
+        <v>1068</v>
       </c>
       <c r="C71" t="n">
-        <v>944</v>
+        <v>1121</v>
       </c>
       <c r="D71" t="n">
-        <v>4.299463260337626</v>
+        <v>1.755345041439516</v>
       </c>
       <c r="E71" t="n">
-        <v>3.744042544923877</v>
+        <v>1.232325001020327</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.555420715413749</v>
+        <v>-0.5230200404191888</v>
       </c>
       <c r="G71" t="n">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="H71" t="n">
-        <v>56.22681928829138</v>
+        <v>36.23380064986441</v>
       </c>
       <c r="I71" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J71" t="n">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="K71" t="n">
-        <v>309.6410470584085</v>
+        <v>76.83919088891001</v>
       </c>
       <c r="L71" t="n">
-        <v>11.03421071306349</v>
+        <v>8.358613951247001</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.9296144751630695</v>
+        <v>0.8087220077927808</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2803738317757009</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2731577778129547</v>
+        <v>0.3201876859340735</v>
       </c>
       <c r="S71" t="n">
-        <v>0.7273857687508157</v>
+        <v>0.8850891740408326</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1559</v>
+        <v>1259</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1310</v>
+        <v>1422</v>
       </c>
       <c r="B72" t="n">
-        <v>1339</v>
+        <v>1449</v>
       </c>
       <c r="C72" t="n">
-        <v>1452</v>
+        <v>1598</v>
       </c>
       <c r="D72" t="n">
-        <v>2.650698404962671</v>
+        <v>3.522225205710345</v>
       </c>
       <c r="E72" t="n">
-        <v>2.095277689548922</v>
+        <v>2.922383977487174</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.555420715413749</v>
+        <v>-0.5998412282231714</v>
       </c>
       <c r="G72" t="n">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="H72" t="n">
-        <v>75.01398919211397</v>
+        <v>30.43619266948076</v>
       </c>
       <c r="I72" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J72" t="n">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="K72" t="n">
-        <v>198.3069658831515</v>
+        <v>300.0124647644349</v>
       </c>
       <c r="L72" t="n">
-        <v>6.802794434122602</v>
+        <v>14.0723880429168</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.9403857022776835</v>
+        <v>0.7538771179382233</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.2566371681415929</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="R72" t="n">
-        <v>0.2321912547091935</v>
+        <v>0.5209201699064566</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9630884360358865</v>
+        <v>0.5800087581445114</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1560</v>
+        <v>1260</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1302</v>
+        <v>331</v>
       </c>
       <c r="B73" t="n">
-        <v>1331</v>
+        <v>346</v>
       </c>
       <c r="C73" t="n">
-        <v>1416</v>
+        <v>377</v>
       </c>
       <c r="D73" t="n">
-        <v>1.526209860270327</v>
+        <v>3.029521962348387</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8892217256954565</v>
+        <v>2.414308809846326</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6369881345748707</v>
+        <v>-0.6152131525020611</v>
       </c>
       <c r="G73" t="n">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="H73" t="n">
-        <v>28.38753363305932</v>
+        <v>16.07063723684621</v>
       </c>
       <c r="I73" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J73" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="K73" t="n">
-        <v>129.1741704600981</v>
+        <v>89.31181732762444</v>
       </c>
       <c r="L73" t="n">
-        <v>4.690604964027704</v>
+        <v>8.18786082124233</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.7615486895612504</v>
+        <v>0.8601839526493386</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.3411764705882353</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1557502998398457</v>
+        <v>0.3588327624337797</v>
       </c>
       <c r="S73" t="n">
-        <v>0.6279855981040143</v>
+        <v>0.8632918403300402</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1561</v>
+        <v>1261</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1455</v>
+        <v>377</v>
       </c>
       <c r="B74" t="n">
-        <v>1511</v>
+        <v>408</v>
       </c>
       <c r="C74" t="n">
-        <v>1598</v>
+        <v>470</v>
       </c>
       <c r="D74" t="n">
-        <v>2.619047746536402</v>
+        <v>1.915166047420507</v>
       </c>
       <c r="E74" t="n">
-        <v>1.982059611961531</v>
+        <v>1.299952894918446</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6369881345748707</v>
+        <v>-0.6152131525020611</v>
       </c>
       <c r="G74" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="H74" t="n">
-        <v>74.35613113132126</v>
+        <v>53.30320375957876</v>
       </c>
       <c r="I74" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J74" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="K74" t="n">
-        <v>254.903806066782</v>
+        <v>113.8906639433298</v>
       </c>
       <c r="L74" t="n">
-        <v>8.049298252308025</v>
+        <v>5.176101457832777</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.6406198990374157</v>
+        <v>0.8279610980390359</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6436781609195402</v>
+        <v>0.5</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2683671448776141</v>
+        <v>0.3352790896125437</v>
       </c>
       <c r="S74" t="n">
-        <v>0.6354263701207615</v>
+        <v>0.8766556478964517</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1562</v>
+        <v>1262</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1089</v>
+        <v>1217</v>
       </c>
       <c r="B75" t="n">
-        <v>1121</v>
+        <v>1251</v>
       </c>
       <c r="C75" t="n">
-        <v>1277</v>
+        <v>1311</v>
       </c>
       <c r="D75" t="n">
-        <v>5.046031366490308</v>
+        <v>2.055966564981067</v>
       </c>
       <c r="E75" t="n">
-        <v>4.423377524374121</v>
+        <v>1.362322312264404</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.622653842116187</v>
+        <v>-0.6936442527166629</v>
       </c>
       <c r="G75" t="n">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="H75" t="n">
-        <v>60.31048506404818</v>
+        <v>32.0707174233778</v>
       </c>
       <c r="I75" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J75" t="n">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="K75" t="n">
-        <v>440.1623938127001</v>
+        <v>87.03312167706858</v>
       </c>
       <c r="L75" t="n">
-        <v>20.62825405310895</v>
+        <v>6.05814760976928</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.9119516419413332</v>
+        <v>0.8501421986805607</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2646586102125313</v>
+        <v>0.2847796471017064</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9114300007422824</v>
+        <v>0.9643281261266292</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1563</v>
+        <v>1263</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1528</v>
+        <v>1311</v>
       </c>
       <c r="B76" t="n">
-        <v>1557</v>
+        <v>1344</v>
       </c>
       <c r="C76" t="n">
-        <v>1598</v>
+        <v>1459</v>
       </c>
       <c r="D76" t="n">
-        <v>2.259181324580887</v>
+        <v>2.810785299964908</v>
       </c>
       <c r="E76" t="n">
-        <v>1.6365274824647</v>
+        <v>2.117141047248245</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.622653842116187</v>
+        <v>-0.6936442527166629</v>
       </c>
       <c r="G76" t="n">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="H76" t="n">
-        <v>33.47427330442383</v>
+        <v>32.89855933408558</v>
       </c>
       <c r="I76" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J76" t="n">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="K76" t="n">
-        <v>110.0840687548639</v>
+        <v>255.0044448509587</v>
       </c>
       <c r="L76" t="n">
-        <v>9.235568099115431</v>
+        <v>8.282309905518257</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.7974887436847169</v>
+        <v>0.8277248216514114</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.2869565217391304</v>
       </c>
       <c r="R76" t="n">
-        <v>0.4908959453402401</v>
+        <v>0.4459218853352316</v>
       </c>
       <c r="S76" t="n">
-        <v>0.9434926300822791</v>
+        <v>0.5967450136062773</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1564</v>
+        <v>1264</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>102</v>
+        <v>1459</v>
       </c>
       <c r="B77" t="n">
-        <v>127</v>
+        <v>1508</v>
       </c>
       <c r="C77" t="n">
-        <v>257</v>
+        <v>1598</v>
       </c>
       <c r="D77" t="n">
-        <v>4.508518901318153</v>
+        <v>3.387131521128833</v>
       </c>
       <c r="E77" t="n">
-        <v>3.985726293577978</v>
+        <v>2.69348726841217</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5227926077401758</v>
+        <v>-0.6936442527166629</v>
       </c>
       <c r="G77" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H77" t="n">
-        <v>106.1161863550746</v>
+        <v>59.35488749819865</v>
       </c>
       <c r="I77" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J77" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K77" t="n">
-        <v>334.9877800979865</v>
+        <v>255.229811690603</v>
       </c>
       <c r="L77" t="n">
-        <v>21.41504212469103</v>
+        <v>9.980581921034201</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.8909903389700319</v>
+        <v>0.8643566382025076</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="R77" t="n">
-        <v>0.4975164780684314</v>
+        <v>0.2404998803940792</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9658639635413127</v>
+        <v>0.9777555076924267</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1565</v>
+        <v>1265</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>257</v>
+        <v>1028</v>
       </c>
       <c r="B78" t="n">
-        <v>288</v>
+        <v>1048</v>
       </c>
       <c r="C78" t="n">
-        <v>334</v>
+        <v>1081</v>
       </c>
       <c r="D78" t="n">
-        <v>2.468714346705339</v>
+        <v>2.189331679232047</v>
       </c>
       <c r="E78" t="n">
-        <v>1.945921738965163</v>
+        <v>1.566043906463189</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5227926077401758</v>
+        <v>-0.6232877727688575</v>
       </c>
       <c r="G78" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H78" t="n">
-        <v>34.99045945589688</v>
+        <v>20.64742421181472</v>
       </c>
       <c r="I78" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J78" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K78" t="n">
-        <v>102.7144307498465</v>
+        <v>88.4935702180022</v>
       </c>
       <c r="L78" t="n">
-        <v>11.72616171423104</v>
+        <v>5.079566876621658</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.6710026948311957</v>
+        <v>0.7881242669642711</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6739130434782609</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="R78" t="n">
-        <v>0.05872046274777613</v>
+        <v>0.1492951879024462</v>
       </c>
       <c r="S78" t="n">
-        <v>0.9718201544578229</v>
+        <v>0.9485076720858907</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n51</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1566</v>
+        <v>1266</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1031</v>
+        <v>1373</v>
       </c>
       <c r="B79" t="n">
-        <v>1068</v>
+        <v>1405</v>
       </c>
       <c r="C79" t="n">
-        <v>1122</v>
+        <v>1461</v>
       </c>
       <c r="D79" t="n">
-        <v>1.763774660745817</v>
+        <v>2.822344485840389</v>
       </c>
       <c r="E79" t="n">
-        <v>1.240982053005641</v>
+        <v>2.199056713071531</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5227926077401758</v>
+        <v>-0.6232877727688575</v>
       </c>
       <c r="G79" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H79" t="n">
-        <v>35.58047646054933</v>
+        <v>109.8333230352869</v>
       </c>
       <c r="I79" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J79" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K79" t="n">
-        <v>77.31753151271326</v>
+        <v>170.6749812561592</v>
       </c>
       <c r="L79" t="n">
-        <v>8.37776429134879</v>
+        <v>6.548248353908335</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.8144557045232879</v>
+        <v>0.788776153072771</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R79" t="n">
-        <v>0.3272224796702627</v>
+        <v>0.2957603355487675</v>
       </c>
       <c r="S79" t="n">
-        <v>0.8757712877119344</v>
+        <v>0.9525715499661014</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n51</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1567</v>
+        <v>1267</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7258,1210 +7258,6 @@
         </is>
       </c>
       <c r="X79" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>9</v>
-      </c>
-      <c r="C80" t="n">
-        <v>35</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2.899808473081926</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2.298832334826835</v>
-      </c>
-      <c r="F80" t="n">
-        <v>-0.6009761382550909</v>
-      </c>
-      <c r="G80" t="n">
-        <v>35</v>
-      </c>
-      <c r="H80" t="n">
-        <v>14.13955369731665</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>26</v>
-      </c>
-      <c r="K80" t="n">
-        <v>70.69325149238973</v>
-      </c>
-      <c r="L80" t="n">
-        <v>11.49814525074569</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>0.9479670128879442</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.2986752154645417</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.9569247181450783</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>n46</t>
-        </is>
-      </c>
-      <c r="U80" t="n">
-        <v>1568</v>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1166</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1182</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1205</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9621097936192702</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.3611336553641794</v>
-      </c>
-      <c r="F81" t="n">
-        <v>-0.6009761382550909</v>
-      </c>
-      <c r="G81" t="n">
-        <v>39</v>
-      </c>
-      <c r="H81" t="n">
-        <v>18.66780493404531</v>
-      </c>
-      <c r="I81" t="n">
-        <v>16</v>
-      </c>
-      <c r="J81" t="n">
-        <v>23</v>
-      </c>
-      <c r="K81" t="n">
-        <v>30.35182822858033</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.814899589710519</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>0.632517142040798</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.02577844937492135</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.9838671738741916</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>n46</t>
-        </is>
-      </c>
-      <c r="U81" t="n">
-        <v>1569</v>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1423</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1447</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1598</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.54373018457758</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2.942754046322489</v>
-      </c>
-      <c r="F82" t="n">
-        <v>-0.6009761382550909</v>
-      </c>
-      <c r="G82" t="n">
-        <v>175</v>
-      </c>
-      <c r="H82" t="n">
-        <v>29.35367929643121</v>
-      </c>
-      <c r="I82" t="n">
-        <v>24</v>
-      </c>
-      <c r="J82" t="n">
-        <v>151</v>
-      </c>
-      <c r="K82" t="n">
-        <v>297.3316247127148</v>
-      </c>
-      <c r="L82" t="n">
-        <v>14.0513846931482</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>0.7448074568753399</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.1589403973509934</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.508457981976744</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.5945945105899002</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>n46</t>
-        </is>
-      </c>
-      <c r="U82" t="n">
-        <v>1570</v>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1083</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1118</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.182126975621385</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.605081051251866</v>
-      </c>
-      <c r="F83" t="n">
-        <v>-0.5770459243695195</v>
-      </c>
-      <c r="G83" t="n">
-        <v>56</v>
-      </c>
-      <c r="H83" t="n">
-        <v>17.39801034154038</v>
-      </c>
-      <c r="I83" t="n">
-        <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>35</v>
-      </c>
-      <c r="K83" t="n">
-        <v>45.96994633061952</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.300253758595125</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>0.7154597980918704</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.1350031227344432</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.8167296141842362</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>n47</t>
-        </is>
-      </c>
-      <c r="U83" t="n">
-        <v>1571</v>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>331</v>
-      </c>
-      <c r="B84" t="n">
-        <v>346</v>
-      </c>
-      <c r="C84" t="n">
-        <v>378</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3.064018833581998</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2.454134613750589</v>
-      </c>
-      <c r="F84" t="n">
-        <v>-0.6098842198314084</v>
-      </c>
-      <c r="G84" t="n">
-        <v>47</v>
-      </c>
-      <c r="H84" t="n">
-        <v>16.69930520703429</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>32</v>
-      </c>
-      <c r="K84" t="n">
-        <v>89.4817040237038</v>
-      </c>
-      <c r="L84" t="n">
-        <v>8.27974070300438</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>0.8682220395149717</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.3781130522716674</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.8612805632836918</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>n48</t>
-        </is>
-      </c>
-      <c r="U84" t="n">
-        <v>1572</v>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>378</v>
-      </c>
-      <c r="B85" t="n">
-        <v>408</v>
-      </c>
-      <c r="C85" t="n">
-        <v>470</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.916908580613667</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1.307024360782258</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-0.6098842198314084</v>
-      </c>
-      <c r="G85" t="n">
-        <v>92</v>
-      </c>
-      <c r="H85" t="n">
-        <v>54.10102427333982</v>
-      </c>
-      <c r="I85" t="n">
-        <v>30</v>
-      </c>
-      <c r="J85" t="n">
-        <v>62</v>
-      </c>
-      <c r="K85" t="n">
-        <v>113.1340987423259</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.179963590592788</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P85" t="n">
-        <v>0.8265829132959265</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.3067070985507353</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.8519429994873202</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>n48</t>
-        </is>
-      </c>
-      <c r="U85" t="n">
-        <v>1573</v>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>962</v>
-      </c>
-      <c r="B86" t="n">
-        <v>978</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1062</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.994278031276611</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.301520945923877</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-0.6927570853527345</v>
-      </c>
-      <c r="G86" t="n">
-        <v>100</v>
-      </c>
-      <c r="H86" t="n">
-        <v>30.48200809085654</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>84</v>
-      </c>
-      <c r="K86" t="n">
-        <v>162.0960560623817</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.859904192144706</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>0.7445916902011663</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0.1476056282514872</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.5172952875363843</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>n50</t>
-        </is>
-      </c>
-      <c r="U86" t="n">
-        <v>1574</v>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1216</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1251</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1312</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.091806392408428</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.399049307055694</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-0.6927570853527345</v>
-      </c>
-      <c r="G87" t="n">
-        <v>96</v>
-      </c>
-      <c r="H87" t="n">
-        <v>30.86974406909735</v>
-      </c>
-      <c r="I87" t="n">
-        <v>35</v>
-      </c>
-      <c r="J87" t="n">
-        <v>61</v>
-      </c>
-      <c r="K87" t="n">
-        <v>87.2188800860165</v>
-      </c>
-      <c r="L87" t="n">
-        <v>6.146477500021691</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>0.8395178083836077</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.5737704918032787</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.3140761175660523</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.9689858369867864</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>n50</t>
-        </is>
-      </c>
-      <c r="U87" t="n">
-        <v>1575</v>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1312</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1344</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1395</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2.817329452741518</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.124572367388783</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.6927570853527345</v>
-      </c>
-      <c r="G88" t="n">
-        <v>83</v>
-      </c>
-      <c r="H88" t="n">
-        <v>34.61213506724175</v>
-      </c>
-      <c r="I88" t="n">
-        <v>32</v>
-      </c>
-      <c r="J88" t="n">
-        <v>51</v>
-      </c>
-      <c r="K88" t="n">
-        <v>150.2208554095139</v>
-      </c>
-      <c r="L88" t="n">
-        <v>8.278324492299886</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>0.8399492788345135</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.6274509803921569</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.3730455542249378</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.9667421292264653</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>n50</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
-        <v>1576</v>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1395</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1410</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1458</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.868239800846195</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.17548271549346</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.6927570853527345</v>
-      </c>
-      <c r="G89" t="n">
-        <v>63</v>
-      </c>
-      <c r="H89" t="n">
-        <v>17.43936029653833</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>48</v>
-      </c>
-      <c r="K89" t="n">
-        <v>102.8615857983383</v>
-      </c>
-      <c r="L89" t="n">
-        <v>5.489558661939516</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>0.7230008897836012</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.04916245859542046</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.7616901725677427</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>n50</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
-        <v>1577</v>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1458</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1510</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1598</v>
-      </c>
-      <c r="D90" t="n">
-        <v>3.375935536668222</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2.683178451315488</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-0.6927570853527345</v>
-      </c>
-      <c r="G90" t="n">
-        <v>140</v>
-      </c>
-      <c r="H90" t="n">
-        <v>57.75706149394546</v>
-      </c>
-      <c r="I90" t="n">
-        <v>52</v>
-      </c>
-      <c r="J90" t="n">
-        <v>88</v>
-      </c>
-      <c r="K90" t="n">
-        <v>256.4317488345363</v>
-      </c>
-      <c r="L90" t="n">
-        <v>9.919709535720449</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>0.8546817353428192</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.2679801082029721</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.9785691138704454</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>n50</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
-        <v>1578</v>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>984</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1003</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1027</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2.514304333203641</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.894102245436217</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-0.6202020877674238</v>
-      </c>
-      <c r="G91" t="n">
-        <v>43</v>
-      </c>
-      <c r="H91" t="n">
-        <v>17.01142607477937</v>
-      </c>
-      <c r="I91" t="n">
-        <v>19</v>
-      </c>
-      <c r="J91" t="n">
-        <v>24</v>
-      </c>
-      <c r="K91" t="n">
-        <v>89.70407963792476</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.803313945319003</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>0.661775504876505</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.05346030848441027</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.987088193369356</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>n51</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
-        <v>1579</v>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1049</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1080</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2.188019891997503</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.567817804230079</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-0.6202020877674238</v>
-      </c>
-      <c r="G92" t="n">
-        <v>53</v>
-      </c>
-      <c r="H92" t="n">
-        <v>20.61736946665383</v>
-      </c>
-      <c r="I92" t="n">
-        <v>22</v>
-      </c>
-      <c r="J92" t="n">
-        <v>31</v>
-      </c>
-      <c r="K92" t="n">
-        <v>89.07294914248037</v>
-      </c>
-      <c r="L92" t="n">
-        <v>5.050210582775962</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>0.763378437413763</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.7096774193548387</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.1506759779189989</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.9533289668068365</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>n51</t>
-        </is>
-      </c>
-      <c r="U92" t="n">
-        <v>1580</v>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1374</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1405</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1461</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2.815819442235092</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2.195617354467668</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.6202020877674238</v>
-      </c>
-      <c r="G93" t="n">
-        <v>87</v>
-      </c>
-      <c r="H93" t="n">
-        <v>110.7585141441466</v>
-      </c>
-      <c r="I93" t="n">
-        <v>31</v>
-      </c>
-      <c r="J93" t="n">
-        <v>56</v>
-      </c>
-      <c r="K93" t="n">
-        <v>170.5518323741935</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.499246738282487</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>0.7933024538609322</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.5535714285714286</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.2666264924599299</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.9491919548730532</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>n51</t>
-        </is>
-      </c>
-      <c r="U93" t="n">
-        <v>1581</v>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>758</v>
+        <v>37</v>
       </c>
       <c r="B2" t="n">
-        <v>820</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
-        <v>899</v>
+        <v>137</v>
       </c>
       <c r="D2" t="n">
-        <v>3.226429619252697</v>
+        <v>2.398118077156067</v>
       </c>
       <c r="E2" t="n">
-        <v>2.567164221774103</v>
+        <v>1.732040211934786</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6592653974785934</v>
+        <v>-0.6660778652212813</v>
       </c>
       <c r="G2" t="n">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>107.6444519087825</v>
+        <v>30.91734291840189</v>
       </c>
       <c r="I2" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K2" t="n">
-        <v>277.8256957406331</v>
+        <v>145.4450027594204</v>
       </c>
       <c r="L2" t="n">
-        <v>12.0271025069066</v>
+        <v>9.051712532458607</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7485610076775936</v>
+        <v>0.8347090764126035</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7848101265822784</v>
+        <v>0.5625</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2656942473619581</v>
+        <v>0.5210690107284665</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9469969873143214</v>
+        <v>0.9586619100009013</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>614</v>
+        <v>1190</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1390</v>
+        <v>763</v>
       </c>
       <c r="B3" t="n">
-        <v>1428</v>
+        <v>819</v>
       </c>
       <c r="C3" t="n">
-        <v>1598</v>
+        <v>906</v>
       </c>
       <c r="D3" t="n">
-        <v>1.735032583287299</v>
+        <v>3.384256941555313</v>
       </c>
       <c r="E3" t="n">
-        <v>1.075767185808705</v>
+        <v>2.718179076334031</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6592653974785934</v>
+        <v>-0.6660778652212813</v>
       </c>
       <c r="G3" t="n">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="H3" t="n">
-        <v>62.77320989359941</v>
+        <v>109.7678820341008</v>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J3" t="n">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="K3" t="n">
-        <v>165.1345098790832</v>
+        <v>289.0390992146608</v>
       </c>
       <c r="L3" t="n">
-        <v>6.467649133735825</v>
+        <v>12.77390019396558</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.9098040627956903</v>
+        <v>0.7619023882428173</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2235294117647059</v>
+        <v>0.6436781609195402</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3278130517021361</v>
+        <v>0.2022930135580982</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9032486317184645</v>
+        <v>0.9306756305551002</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>615</v>
+        <v>1191</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>293</v>
+        <v>1396</v>
       </c>
       <c r="B4" t="n">
-        <v>336</v>
+        <v>1420</v>
       </c>
       <c r="C4" t="n">
-        <v>438</v>
+        <v>1598</v>
       </c>
       <c r="D4" t="n">
-        <v>2.513323939286283</v>
+        <v>1.919543013220398</v>
       </c>
       <c r="E4" t="n">
-        <v>1.852363710404535</v>
+        <v>1.253465147999116</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6609602288817481</v>
+        <v>-0.6660778652212813</v>
       </c>
       <c r="G4" t="n">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="H4" t="n">
-        <v>78.87966700728407</v>
+        <v>58.33484480448988</v>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3934669740144</v>
+        <v>166.2694024302217</v>
       </c>
       <c r="L4" t="n">
-        <v>6.628377432213304</v>
+        <v>7.245327790517162</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8672951441728386</v>
+        <v>0.8563744815037979</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4215686274509804</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2671460134220937</v>
+        <v>0.3216106606890638</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8977938221498256</v>
+        <v>0.8749183869022381</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>616</v>
+        <v>1192</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B5" t="n">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C5" t="n">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="D5" t="n">
-        <v>2.404452883828899</v>
+        <v>2.642049624114334</v>
       </c>
       <c r="E5" t="n">
-        <v>1.536082083622319</v>
+        <v>1.990709084182239</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.8683708002065801</v>
+        <v>-0.6513405399320954</v>
       </c>
       <c r="G5" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H5" t="n">
-        <v>36.48254602564003</v>
+        <v>59.80594003568456</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="K5" t="n">
-        <v>163.1975398976094</v>
+        <v>201.9245010765607</v>
       </c>
       <c r="L5" t="n">
-        <v>6.969176919217487</v>
+        <v>6.93830296814326</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7962113500646069</v>
+        <v>0.9028730226206526</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.34375</v>
       </c>
       <c r="R5" t="n">
-        <v>0.159432375257518</v>
+        <v>0.3065257287475557</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8445330961895291</v>
+        <v>0.8282773936196702</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>617</v>
+        <v>1193</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1440</v>
+        <v>296</v>
       </c>
       <c r="B6" t="n">
-        <v>1488</v>
+        <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>1598</v>
+        <v>402</v>
       </c>
       <c r="D6" t="n">
-        <v>2.488775926270955</v>
+        <v>2.65259594159518</v>
       </c>
       <c r="E6" t="n">
-        <v>1.749136596957126</v>
+        <v>1.789774107250684</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7396393293138299</v>
+        <v>-0.8628218343444962</v>
       </c>
       <c r="G6" t="n">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="H6" t="n">
-        <v>63.13355841753196</v>
+        <v>33.17937271239714</v>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="K6" t="n">
-        <v>202.8462279315726</v>
+        <v>161.0905584458481</v>
       </c>
       <c r="L6" t="n">
-        <v>6.038696726696767</v>
+        <v>7.727790856735711</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8419600994722696</v>
+        <v>0.8072902027007586</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4363636363636363</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3511326426542545</v>
+        <v>0.2412672920606675</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6515075869617351</v>
+        <v>0.6466029077028188</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>618</v>
+        <v>1194</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1132</v>
+        <v>1439</v>
       </c>
       <c r="B7" t="n">
-        <v>1173</v>
+        <v>1484</v>
       </c>
       <c r="C7" t="n">
-        <v>1469</v>
+        <v>1598</v>
       </c>
       <c r="D7" t="n">
-        <v>2.148888832446807</v>
+        <v>2.793719524251004</v>
       </c>
       <c r="E7" t="n">
-        <v>1.465876033093095</v>
+        <v>2.025909957798306</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6830127993537118</v>
+        <v>-0.7678095664526983</v>
       </c>
       <c r="G7" t="n">
-        <v>337</v>
+        <v>159</v>
       </c>
       <c r="H7" t="n">
-        <v>93.22982035225414</v>
+        <v>43.408993593079</v>
       </c>
       <c r="I7" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="K7" t="n">
-        <v>268.6175599524894</v>
+        <v>207.7892835364242</v>
       </c>
       <c r="L7" t="n">
-        <v>9.653265528767342</v>
+        <v>6.917842194679459</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8614685320969653</v>
+        <v>0.8187231561075772</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1385135135135135</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3827311468188894</v>
+        <v>0.2582113079279598</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9191210409893797</v>
+        <v>0.6805744835932284</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>619</v>
+        <v>1195</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>2.04398722507077</v>
+        <v>2.90777438936399</v>
       </c>
       <c r="E8" t="n">
-        <v>1.273786245772252</v>
+        <v>2.238474268487677</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7702009792985178</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G8" t="n">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="H8" t="n">
-        <v>124.4731188870079</v>
+        <v>19.68712572458495</v>
       </c>
       <c r="I8" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="K8" t="n">
-        <v>260.9991621829917</v>
+        <v>167.3810359261264</v>
       </c>
       <c r="L8" t="n">
-        <v>5.915797707914854</v>
+        <v>12.97212739094499</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7576744382231437</v>
+        <v>0.8430730124948028</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4962962962962963</v>
+        <v>0.1875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1724660822446996</v>
+        <v>0.1982785914270075</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7702797163119133</v>
+        <v>0.8676688329088011</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>620</v>
+        <v>1196</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1156</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>1199</v>
+        <v>106</v>
       </c>
       <c r="C9" t="n">
-        <v>1283</v>
+        <v>167</v>
       </c>
       <c r="D9" t="n">
-        <v>2.302349078101927</v>
+        <v>3.688956040173929</v>
       </c>
       <c r="E9" t="n">
-        <v>1.662153690909906</v>
+        <v>3.019655919297616</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6401953871920212</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G9" t="n">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="H9" t="n">
-        <v>71.45107705441478</v>
+        <v>29.13901504997104</v>
       </c>
       <c r="I9" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="K9" t="n">
-        <v>169.6501183055857</v>
+        <v>212.9161383285679</v>
       </c>
       <c r="L9" t="n">
-        <v>17.99326352982917</v>
+        <v>16.45712537663526</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8433681002414466</v>
+        <v>0.7804497545782679</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2170309821996101</v>
+        <v>0.1395859886926069</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9718895659844177</v>
+        <v>0.9097917166615486</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>621</v>
+        <v>1197</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1283</v>
+        <v>1126</v>
       </c>
       <c r="B10" t="n">
-        <v>1320</v>
+        <v>1173</v>
       </c>
       <c r="C10" t="n">
-        <v>1598</v>
+        <v>1461</v>
       </c>
       <c r="D10" t="n">
-        <v>1.489893673797966</v>
+        <v>2.30994039586624</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8496982866059445</v>
+        <v>1.640640274989926</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6401953871920212</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G10" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H10" t="n">
-        <v>34.65573710941703</v>
+        <v>85.94252162036332</v>
       </c>
       <c r="I10" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J10" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K10" t="n">
-        <v>143.6075827085153</v>
+        <v>262.0512898309435</v>
       </c>
       <c r="L10" t="n">
-        <v>11.64378145740301</v>
+        <v>10.30507772207902</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.7472358669706566</v>
+        <v>0.8509752392325673</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1330935251798561</v>
+        <v>0.1631944444444444</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6267338804065183</v>
+        <v>0.4165748724466901</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7429635892032682</v>
+        <v>0.8698742352598683</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>622</v>
+        <v>1198</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>362</v>
+        <v>1461</v>
       </c>
       <c r="B11" t="n">
-        <v>408</v>
+        <v>1516</v>
       </c>
       <c r="C11" t="n">
-        <v>620</v>
+        <v>1598</v>
       </c>
       <c r="D11" t="n">
-        <v>2.71741436914319</v>
+        <v>1.136893877151842</v>
       </c>
       <c r="E11" t="n">
-        <v>1.843930109005412</v>
+        <v>0.4675937562755278</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8734842601377772</v>
+        <v>-0.6693001208763137</v>
       </c>
       <c r="G11" t="n">
-        <v>258</v>
+        <v>137</v>
       </c>
       <c r="H11" t="n">
-        <v>427.3898260660019</v>
+        <v>44.46372023902495</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J11" t="n">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="K11" t="n">
-        <v>510.7120866540758</v>
+        <v>84.34862154921773</v>
       </c>
       <c r="L11" t="n">
-        <v>6.777952944346476</v>
+        <v>5.071897000793391</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7616936715353697</v>
+        <v>0.7419176095281543</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2169811320754717</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5660003345340642</v>
+        <v>0.236848272140519</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4406309059754401</v>
+        <v>0.6434067474778755</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>623</v>
+        <v>1199</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>620</v>
+        <v>90</v>
       </c>
       <c r="B12" t="n">
-        <v>714</v>
+        <v>163</v>
       </c>
       <c r="C12" t="n">
-        <v>833</v>
+        <v>297</v>
       </c>
       <c r="D12" t="n">
-        <v>2.406816778490581</v>
+        <v>2.010595640324825</v>
       </c>
       <c r="E12" t="n">
-        <v>1.533332518352803</v>
+        <v>1.225829859682456</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8734842601377772</v>
+        <v>-0.7847657806423688</v>
       </c>
       <c r="G12" t="n">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H12" t="n">
-        <v>108.2560508011571</v>
+        <v>120.9280962169725</v>
       </c>
       <c r="I12" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="J12" t="n">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="K12" t="n">
-        <v>383.5520647180223</v>
+        <v>268.0645463876294</v>
       </c>
       <c r="L12" t="n">
-        <v>6.003240085690858</v>
+        <v>5.715768466168476</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6840295432294522</v>
+        <v>0.6590509057384801</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7899159663865546</v>
+        <v>0.5447761194029851</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1313101272585353</v>
+        <v>0.1970519565591094</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9041653963440621</v>
+        <v>0.7883174615100935</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>624</v>
+        <v>1200</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>610</v>
+        <v>795</v>
       </c>
       <c r="B13" t="n">
-        <v>655</v>
+        <v>876</v>
       </c>
       <c r="C13" t="n">
-        <v>748</v>
+        <v>985</v>
       </c>
       <c r="D13" t="n">
-        <v>3.652322699236989</v>
+        <v>2.380720701571057</v>
       </c>
       <c r="E13" t="n">
-        <v>3.028250428673958</v>
+        <v>1.595954920928689</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6240722705630309</v>
+        <v>-0.7847657806423688</v>
       </c>
       <c r="G13" t="n">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="H13" t="n">
-        <v>110.4655606421118</v>
+        <v>266.5344154754284</v>
       </c>
       <c r="I13" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="J13" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="K13" t="n">
-        <v>347.8731824272317</v>
+        <v>283.072786462523</v>
       </c>
       <c r="L13" t="n">
-        <v>33.83141863608574</v>
+        <v>6.767968675489587</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8324981555288222</v>
+        <v>0.691507251814752</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.7431192660550459</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3561775751436865</v>
+        <v>0.4661903900411769</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9549555734831471</v>
+        <v>0.9562989300372955</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>625</v>
+        <v>1201</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>1366</v>
       </c>
       <c r="C14" t="n">
-        <v>199</v>
+        <v>1408</v>
       </c>
       <c r="D14" t="n">
-        <v>2.299815493619894</v>
+        <v>2.179431465874091</v>
       </c>
       <c r="E14" t="n">
-        <v>1.637581604068221</v>
+        <v>1.574938522081042</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6622338895516728</v>
+        <v>-0.6044929437930493</v>
       </c>
       <c r="G14" t="n">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="H14" t="n">
-        <v>34.02511753418099</v>
+        <v>28.19105162574442</v>
       </c>
       <c r="I14" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="K14" t="n">
-        <v>209.4367872660624</v>
+        <v>81.50931046578151</v>
       </c>
       <c r="L14" t="n">
-        <v>5.832786048956664</v>
+        <v>4.100129216038567</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.551374815660941</v>
+        <v>0.7832994744896234</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.5426356589147286</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4472328626251645</v>
+        <v>0.1497349335124035</v>
       </c>
       <c r="S14" t="n">
-        <v>0.728036668138174</v>
+        <v>0.9850461622627436</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>626</v>
+        <v>1202</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1112</v>
+        <v>1408</v>
       </c>
       <c r="B15" t="n">
-        <v>1155</v>
+        <v>1440</v>
       </c>
       <c r="C15" t="n">
-        <v>1237</v>
+        <v>1598</v>
       </c>
       <c r="D15" t="n">
-        <v>2.422883623951234</v>
+        <v>2.365659044986664</v>
       </c>
       <c r="E15" t="n">
-        <v>1.760649734399561</v>
+        <v>1.761166101193615</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6622338895516728</v>
+        <v>-0.6044929437930493</v>
       </c>
       <c r="G15" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="H15" t="n">
-        <v>85.91506507873623</v>
+        <v>53.72028741643135</v>
       </c>
       <c r="I15" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J15" t="n">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="K15" t="n">
-        <v>204.9946579156218</v>
+        <v>237.7779401859991</v>
       </c>
       <c r="L15" t="n">
-        <v>6.144911119710911</v>
+        <v>4.450476152800516</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.820907871013857</v>
+        <v>0.8487559080632352</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.524390243902439</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3205262800625185</v>
+        <v>0.3222493571955649</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9355961931944966</v>
+        <v>0.7162075574168072</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>627</v>
+        <v>1203</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,73 +1761,73 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1237</v>
+        <v>686</v>
       </c>
       <c r="B16" t="n">
-        <v>1317</v>
+        <v>739</v>
       </c>
       <c r="C16" t="n">
-        <v>1504</v>
+        <v>840</v>
       </c>
       <c r="D16" t="n">
-        <v>2.176924987183386</v>
+        <v>1.81984368889417</v>
       </c>
       <c r="E16" t="n">
-        <v>1.514691097631713</v>
+        <v>1.005995382306202</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6622338895516728</v>
+        <v>-0.8138483065879675</v>
       </c>
       <c r="G16" t="n">
-        <v>267</v>
+        <v>154</v>
       </c>
       <c r="H16" t="n">
-        <v>66.59723507192871</v>
+        <v>86.08030563915725</v>
       </c>
       <c r="I16" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="J16" t="n">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="K16" t="n">
-        <v>349.205465641012</v>
+        <v>198.8438139224367</v>
       </c>
       <c r="L16" t="n">
-        <v>5.521111467460628</v>
+        <v>5.58189545724214</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1414), 'value': np.float64(1.0528521732244709), 'amplitude': np.float64(1.7150860627761437), 'start_idx': np.int64(1375), 'end_idx': np.int64(1438), 'duration': np.float64(63.0), 'fwhm': np.float64(33.05306624363675), 'rise_time': np.float64(39.0), 'decay_time': np.float64(24.0), 'auc': np.float64(80.22992779193395)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.6546576683828589</v>
+        <v>0.7954081575467948</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.427807486631016</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2853157033363228</v>
+        <v>0.3881515251250147</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4411653866657379</v>
+        <v>0.7596500471240127</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>628</v>
+        <v>1204</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1504</v>
+        <v>1395</v>
       </c>
       <c r="B17" t="n">
-        <v>1543</v>
+        <v>1437</v>
       </c>
       <c r="C17" t="n">
-        <v>1598</v>
+        <v>1532</v>
       </c>
       <c r="D17" t="n">
-        <v>2.221389807434386</v>
+        <v>1.491895336838262</v>
       </c>
       <c r="E17" t="n">
-        <v>1.559155917882713</v>
+        <v>0.6780470302502942</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6622338895516728</v>
+        <v>-0.8138483065879675</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="H17" t="n">
-        <v>31.66244731625784</v>
+        <v>47.96510326545013</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J17" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="K17" t="n">
-        <v>125.3247764720927</v>
+        <v>120.5143038694308</v>
       </c>
       <c r="L17" t="n">
-        <v>5.633883028461452</v>
+        <v>4.575999496109748</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7839706646057238</v>
+        <v>0.8460452984595164</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2209307195256996</v>
+        <v>0.2204338657786635</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8507370628131501</v>
+        <v>0.9444648041666407</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>629</v>
+        <v>1205</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>472</v>
+        <v>1140</v>
       </c>
       <c r="B18" t="n">
-        <v>518</v>
+        <v>1193</v>
       </c>
       <c r="C18" t="n">
-        <v>595</v>
+        <v>1289</v>
       </c>
       <c r="D18" t="n">
-        <v>2.688157437773226</v>
+        <v>2.428758138109878</v>
       </c>
       <c r="E18" t="n">
-        <v>2.069749554178692</v>
+        <v>1.795305345561335</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6184078835945341</v>
+        <v>-0.633452792548542</v>
       </c>
       <c r="G18" t="n">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="H18" t="n">
-        <v>65.91383696159852</v>
+        <v>64.77794753086346</v>
       </c>
       <c r="I18" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J18" t="n">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="K18" t="n">
-        <v>175.0846540752681</v>
+        <v>172.6338534716703</v>
       </c>
       <c r="L18" t="n">
-        <v>7.169421556716921</v>
+        <v>18.91424786669881</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7225714924082021</v>
+        <v>0.7643021925866885</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1684822981775942</v>
+        <v>0.7186855102613289</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7314836449380238</v>
+        <v>0.9532780221733372</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>630</v>
+        <v>1206</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1067</v>
+        <v>1289</v>
       </c>
       <c r="B19" t="n">
-        <v>1135</v>
+        <v>1318</v>
       </c>
       <c r="C19" t="n">
-        <v>1353</v>
+        <v>1598</v>
       </c>
       <c r="D19" t="n">
-        <v>1.929489370987574</v>
+        <v>1.725359941870841</v>
       </c>
       <c r="E19" t="n">
-        <v>1.332931425989557</v>
+        <v>1.091907149322298</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5965579449980167</v>
+        <v>-0.633452792548542</v>
       </c>
       <c r="G19" t="n">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="H19" t="n">
-        <v>45.27548997420331</v>
+        <v>28.0192727595886</v>
       </c>
       <c r="I19" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="K19" t="n">
-        <v>161.5182988049569</v>
+        <v>137.6608387480464</v>
       </c>
       <c r="L19" t="n">
-        <v>10.2551416701407</v>
+        <v>13.43644930623461</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.739500028587244</v>
+        <v>0.7275113614764785</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3119266055045872</v>
+        <v>0.1035714285714286</v>
       </c>
       <c r="R19" t="n">
-        <v>0.46993691682074</v>
+        <v>0.6400464075471162</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8025048749533513</v>
+        <v>0.7219974442299313</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>631</v>
+        <v>1207</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1353</v>
+        <v>421</v>
       </c>
       <c r="B20" t="n">
-        <v>1399</v>
+        <v>470</v>
       </c>
       <c r="C20" t="n">
-        <v>1463</v>
+        <v>556</v>
       </c>
       <c r="D20" t="n">
-        <v>2.145943399023595</v>
+        <v>1.27576660557515</v>
       </c>
       <c r="E20" t="n">
-        <v>1.549385454025579</v>
+        <v>0.6151698206766932</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5965579449980167</v>
+        <v>-0.6605967848984566</v>
       </c>
       <c r="G20" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="H20" t="n">
-        <v>38.34920622521463</v>
+        <v>41.59085244157131</v>
       </c>
       <c r="I20" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J20" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="K20" t="n">
-        <v>138.008639157542</v>
+        <v>84.3842695276347</v>
       </c>
       <c r="L20" t="n">
-        <v>11.40558424627465</v>
+        <v>3.959273890701968</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8150865050649631</v>
+        <v>0.6781973314571903</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.71875</v>
+        <v>0.5697674418604651</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2853302654443884</v>
+        <v>0.4474811084757517</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9771878542475076</v>
+        <v>0.6386233599007245</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>632</v>
+        <v>1208</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1463</v>
+        <v>358</v>
       </c>
       <c r="B21" t="n">
-        <v>1512</v>
+        <v>405</v>
       </c>
       <c r="C21" t="n">
-        <v>1598</v>
+        <v>477</v>
       </c>
       <c r="D21" t="n">
-        <v>2.294015397367297</v>
+        <v>2.31301530745393</v>
       </c>
       <c r="E21" t="n">
-        <v>1.697457452369281</v>
+        <v>1.584972847331976</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5965579449980167</v>
+        <v>-0.7280424601219537</v>
       </c>
       <c r="G21" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H21" t="n">
-        <v>55.45474386348224</v>
+        <v>69.86497739591482</v>
       </c>
       <c r="I21" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J21" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K21" t="n">
-        <v>213.243672728571</v>
+        <v>210.6882676775222</v>
       </c>
       <c r="L21" t="n">
-        <v>12.19257967793038</v>
+        <v>8.953169181958794</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7665603331091198</v>
+        <v>0.7424277949247078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5697674418604651</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1277923357264153</v>
+        <v>0.5758291518507883</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9266835314216524</v>
+        <v>0.7115821720617008</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>633</v>
+        <v>1209</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>161</v>
+        <v>437</v>
       </c>
       <c r="B22" t="n">
-        <v>195</v>
+        <v>505</v>
       </c>
       <c r="C22" t="n">
-        <v>265</v>
+        <v>626</v>
       </c>
       <c r="D22" t="n">
-        <v>1.648941161170998</v>
+        <v>2.704365046701127</v>
       </c>
       <c r="E22" t="n">
-        <v>0.900676280971544</v>
+        <v>1.837933592682728</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.7482648801994544</v>
+        <v>-0.8664314540183988</v>
       </c>
       <c r="G22" t="n">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="H22" t="n">
-        <v>41.37127866254576</v>
+        <v>26.93120044886672</v>
       </c>
       <c r="I22" t="n">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="K22" t="n">
-        <v>102.640069968753</v>
+        <v>382.5118643696392</v>
       </c>
       <c r="L22" t="n">
-        <v>9.47016059442101</v>
+        <v>6.805651072696071</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8840905512341484</v>
+        <v>0.4946388972446076</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.5619834710743802</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2510412404621638</v>
+        <v>0.1583960812588235</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9273472702658461</v>
+        <v>0.7139133667602706</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>634</v>
+        <v>1210</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,73 +2363,73 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1305</v>
+        <v>1250</v>
       </c>
       <c r="B23" t="n">
-        <v>1389</v>
+        <v>1314</v>
       </c>
       <c r="C23" t="n">
-        <v>1598</v>
+        <v>1483</v>
       </c>
       <c r="D23" t="n">
-        <v>3.173020873752399</v>
+        <v>2.130019852329744</v>
       </c>
       <c r="E23" t="n">
-        <v>2.385195323648715</v>
+        <v>1.263588398311345</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.7878255501036847</v>
+        <v>-0.8664314540183988</v>
       </c>
       <c r="G23" t="n">
-        <v>293</v>
+        <v>233</v>
       </c>
       <c r="H23" t="n">
-        <v>163.1605931901875</v>
+        <v>67.12713072252109</v>
       </c>
       <c r="I23" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J23" t="n">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="K23" t="n">
-        <v>599.6729075286097</v>
+        <v>240.8077163035311</v>
       </c>
       <c r="L23" t="n">
-        <v>17.59015599050418</v>
+        <v>5.360286663427614</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1436), 'value': np.float64(0.22380873108500743), 'amplitude': np.float64(1.0902401851034063), 'start_idx': np.int64(1407), 'end_idx': np.int64(1450), 'duration': np.float64(43.0), 'fwhm': np.float64(48.30548779623655), 'rise_time': np.float64(29.0), 'decay_time': np.float64(14.0), 'auc': np.float64(36.93725182862887)}]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7572592253382748</v>
+        <v>0.7823467774965416</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.4019138755980861</v>
+        <v>0.378698224852071</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2737664364376009</v>
+        <v>0.4029623216371491</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8828201849112531</v>
+        <v>0.4472876243703643</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>635</v>
+        <v>1211</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>996</v>
+        <v>614</v>
       </c>
       <c r="B24" t="n">
-        <v>1040</v>
+        <v>668</v>
       </c>
       <c r="C24" t="n">
-        <v>1198</v>
+        <v>753</v>
       </c>
       <c r="D24" t="n">
-        <v>3.919186742329021</v>
+        <v>3.693344361550043</v>
       </c>
       <c r="E24" t="n">
-        <v>3.392646221631491</v>
+        <v>3.064386725384928</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5265405206975303</v>
+        <v>-0.6289576361651155</v>
       </c>
       <c r="G24" t="n">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="H24" t="n">
-        <v>136.2513346374661</v>
+        <v>112.7817221522068</v>
       </c>
       <c r="I24" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J24" t="n">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6829013624707</v>
+        <v>356.6631984867957</v>
       </c>
       <c r="L24" t="n">
-        <v>16.36686633345466</v>
+        <v>31.30662946742573</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9309184882544016</v>
+        <v>0.7343493276597295</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2784810126582278</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4941620186167232</v>
+        <v>0.2247543765234882</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9427988840409103</v>
+        <v>0.9614890455063009</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>636</v>
+        <v>1212</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1198</v>
+        <v>792</v>
       </c>
       <c r="B25" t="n">
-        <v>1247</v>
+        <v>820</v>
       </c>
       <c r="C25" t="n">
-        <v>1311</v>
+        <v>880</v>
       </c>
       <c r="D25" t="n">
-        <v>1.487728770813131</v>
+        <v>3.283141666024374</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9611882501156011</v>
+        <v>2.654184029859259</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5265405206975303</v>
+        <v>-0.6289576361651155</v>
       </c>
       <c r="G25" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="H25" t="n">
-        <v>57.50358746272718</v>
+        <v>47.83035074365193</v>
       </c>
       <c r="I25" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J25" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>119.4156809656329</v>
+        <v>200.293159438877</v>
       </c>
       <c r="L25" t="n">
-        <v>6.212885359441529</v>
+        <v>27.82954676453589</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.7645736953950791</v>
+        <v>0.8524611083186047</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.765625</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3153193709171155</v>
+        <v>0.230568944565174</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8814676688251979</v>
+        <v>0.9127473427516271</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>637</v>
+        <v>1213</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>803</v>
+        <v>1381</v>
       </c>
       <c r="B26" t="n">
-        <v>859</v>
+        <v>1411</v>
       </c>
       <c r="C26" t="n">
-        <v>969</v>
+        <v>1506</v>
       </c>
       <c r="D26" t="n">
-        <v>3.114938274845983</v>
+        <v>1.8629101791119</v>
       </c>
       <c r="E26" t="n">
-        <v>2.335421714501317</v>
+        <v>1.208482639672251</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7795165603446663</v>
+        <v>-0.6544275394396492</v>
       </c>
       <c r="G26" t="n">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="H26" t="n">
-        <v>116.1920120212451</v>
+        <v>31.89889987334641</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K26" t="n">
-        <v>304.3110372859281</v>
+        <v>130.9369250475232</v>
       </c>
       <c r="L26" t="n">
-        <v>11.14835578549614</v>
+        <v>4.717521726996422</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8111784172256306</v>
+        <v>0.8431722632776</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.509090909090909</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2910606585243797</v>
+        <v>0.2464906307863154</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9818519747358232</v>
+        <v>0.6603508388052648</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>638</v>
+        <v>1214</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1419</v>
+        <v>1506</v>
       </c>
       <c r="B27" t="n">
-        <v>1491</v>
+        <v>1539</v>
       </c>
       <c r="C27" t="n">
         <v>1598</v>
       </c>
       <c r="D27" t="n">
-        <v>2.847864595172699</v>
+        <v>2.366485684706665</v>
       </c>
       <c r="E27" t="n">
-        <v>2.068348034828032</v>
+        <v>1.712058145267016</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.7795165603446663</v>
+        <v>-0.6544275394396492</v>
       </c>
       <c r="G27" t="n">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="H27" t="n">
-        <v>42.10373488130244</v>
+        <v>30.09114524941128</v>
       </c>
       <c r="I27" t="n">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="J27" t="n">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="K27" t="n">
-        <v>312.6445703280698</v>
+        <v>122.8263465308163</v>
       </c>
       <c r="L27" t="n">
-        <v>10.19249979759968</v>
+        <v>5.992746059046095</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.6998417764340887</v>
+        <v>0.8198902577152025</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.6728971962616822</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6248527892850463</v>
+        <v>0.2757003453599794</v>
       </c>
       <c r="S27" t="n">
-        <v>0.746309101515005</v>
+        <v>0.8468628546466704</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>639</v>
+        <v>1215</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1466</v>
+        <v>173</v>
       </c>
       <c r="B28" t="n">
-        <v>1509</v>
+        <v>223</v>
       </c>
       <c r="C28" t="n">
-        <v>1598</v>
+        <v>287</v>
       </c>
       <c r="D28" t="n">
-        <v>5.834261822989766</v>
+        <v>2.58502633505951</v>
       </c>
       <c r="E28" t="n">
-        <v>5.532287731027119</v>
+        <v>1.975491777570102</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.3019740919626464</v>
+        <v>-0.6095345574894073</v>
       </c>
       <c r="G28" t="n">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="H28" t="n">
-        <v>46.27098747802597</v>
+        <v>96.12039861987461</v>
       </c>
       <c r="I28" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J28" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="K28" t="n">
-        <v>361.6846458916577</v>
+        <v>194.3850434528945</v>
       </c>
       <c r="L28" t="n">
-        <v>24.54639733661725</v>
+        <v>6.946510129971819</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8889005765227282</v>
+        <v>0.6242903123091271</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4831460674157304</v>
+        <v>0.78125</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2234187984092943</v>
+        <v>0.2838701849564193</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9900991374789108</v>
+        <v>0.8919776608325418</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>640</v>
+        <v>1216</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1279</v>
+        <v>963</v>
       </c>
       <c r="B29" t="n">
-        <v>1366</v>
+        <v>990</v>
       </c>
       <c r="C29" t="n">
-        <v>1476</v>
+        <v>1026</v>
       </c>
       <c r="D29" t="n">
-        <v>2.882238136147994</v>
+        <v>1.855603445058961</v>
       </c>
       <c r="E29" t="n">
-        <v>2.162484970834372</v>
+        <v>1.246068887569554</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7197531653136221</v>
+        <v>-0.6095345574894073</v>
       </c>
       <c r="G29" t="n">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="H29" t="n">
-        <v>113.1426442849322</v>
+        <v>20.92835634088647</v>
       </c>
       <c r="I29" t="n">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="J29" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>324.808908975778</v>
+        <v>72.0097408770817</v>
       </c>
       <c r="L29" t="n">
-        <v>8.10064262516547</v>
+        <v>4.986397219050358</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7314145150073407</v>
+        <v>0.7592598637076401</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7909090909090909</v>
+        <v>0.75</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2302183278844649</v>
+        <v>0.3299368314587305</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9421829841168519</v>
+        <v>0.7908827571217566</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>641</v>
+        <v>1217</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2968,37 +2968,37 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C30" t="n">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D30" t="n">
-        <v>4.463408312883657</v>
+        <v>3.919619830489301</v>
       </c>
       <c r="E30" t="n">
-        <v>3.906142463015688</v>
+        <v>3.394211368484633</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5572658498679697</v>
+        <v>-0.5254084620046686</v>
       </c>
       <c r="G30" t="n">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H30" t="n">
-        <v>76.68537336693976</v>
+        <v>40.03864488155635</v>
       </c>
       <c r="I30" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="K30" t="n">
-        <v>363.2890440974791</v>
+        <v>246.9647586438977</v>
       </c>
       <c r="L30" t="n">
-        <v>25.25527067914634</v>
+        <v>10.09236858854498</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7951061719769008</v>
+        <v>0.6079779394625691</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="R30" t="n">
-        <v>0.123653871853532</v>
+        <v>0.09446387540452519</v>
       </c>
       <c r="S30" t="n">
-        <v>0.8561462539732432</v>
+        <v>0.9711379864878137</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>642</v>
+        <v>1218</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>680</v>
+        <v>1436</v>
       </c>
       <c r="B31" t="n">
-        <v>765</v>
+        <v>1482</v>
       </c>
       <c r="C31" t="n">
-        <v>872</v>
+        <v>1598</v>
       </c>
       <c r="D31" t="n">
-        <v>3.995328087210252</v>
+        <v>2.73002514165634</v>
       </c>
       <c r="E31" t="n">
-        <v>3.478573631284834</v>
+        <v>2.155551614697742</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5167544559254187</v>
+        <v>-0.5744735269585979</v>
       </c>
       <c r="G31" t="n">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="H31" t="n">
-        <v>127.8379912599128</v>
+        <v>46.97798311364068</v>
       </c>
       <c r="I31" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="J31" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K31" t="n">
-        <v>458.8477360875697</v>
+        <v>236.8731130192077</v>
       </c>
       <c r="L31" t="n">
-        <v>14.73204278110387</v>
+        <v>4.981882734897975</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.7457843452455154</v>
+        <v>0.8022024131697572</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.794392523364486</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2274145220488928</v>
+        <v>0.1541618390416236</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9119367062127545</v>
+        <v>0.8419007067043991</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>643</v>
+        <v>1219</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>767</v>
+        <v>1067</v>
       </c>
       <c r="B32" t="n">
-        <v>839</v>
+        <v>1130</v>
       </c>
       <c r="C32" t="n">
-        <v>1065</v>
+        <v>1327</v>
       </c>
       <c r="D32" t="n">
-        <v>4.327955199235413</v>
+        <v>2.00758064395963</v>
       </c>
       <c r="E32" t="n">
-        <v>3.697935745292364</v>
+        <v>1.423822143972907</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6300194539430494</v>
+        <v>-0.5837584999867221</v>
       </c>
       <c r="G32" t="n">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="H32" t="n">
-        <v>60.04345625704707</v>
+        <v>42.58802172666174</v>
       </c>
       <c r="I32" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="J32" t="n">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="K32" t="n">
-        <v>426.7988642663406</v>
+        <v>153.2652241863171</v>
       </c>
       <c r="L32" t="n">
-        <v>13.58387521050899</v>
+        <v>10.3598782934005</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.828085745561052</v>
+        <v>0.7062878157725989</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3185840707964602</v>
+        <v>0.3197969543147208</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4018432076728766</v>
+        <v>0.4542493793459021</v>
       </c>
       <c r="S32" t="n">
-        <v>0.722705676849773</v>
+        <v>0.7414208589217341</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>644</v>
+        <v>1220</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1383</v>
+        <v>1469</v>
       </c>
       <c r="B33" t="n">
-        <v>1446</v>
+        <v>1520</v>
       </c>
       <c r="C33" t="n">
         <v>1598</v>
       </c>
       <c r="D33" t="n">
-        <v>3.307524192755549</v>
+        <v>2.299834613764341</v>
       </c>
       <c r="E33" t="n">
-        <v>2.702213071567386</v>
+        <v>1.716076113777619</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6053111211881634</v>
+        <v>-0.5837584999867221</v>
       </c>
       <c r="G33" t="n">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="H33" t="n">
-        <v>39.53258853206603</v>
+        <v>56.23465877001854</v>
       </c>
       <c r="I33" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J33" t="n">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="K33" t="n">
-        <v>402.7506575243796</v>
+        <v>206.3242607724734</v>
       </c>
       <c r="L33" t="n">
-        <v>13.76630647138094</v>
+        <v>11.86801973073189</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.657421207230943</v>
+        <v>0.7762406064324565</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4144736842105263</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4626887893624692</v>
+        <v>0.1902234866474288</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6324867981693256</v>
+        <v>0.8599426362950097</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>645</v>
+        <v>1221</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1217</v>
+        <v>102</v>
       </c>
       <c r="B34" t="n">
-        <v>1252</v>
+        <v>134</v>
       </c>
       <c r="C34" t="n">
-        <v>1305</v>
+        <v>227</v>
       </c>
       <c r="D34" t="n">
-        <v>1.821741063993339</v>
+        <v>4.631990396900974</v>
       </c>
       <c r="E34" t="n">
-        <v>1.101872297272306</v>
+        <v>4.105931091484679</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7198687667210325</v>
+        <v>-0.5260593054162945</v>
       </c>
       <c r="G34" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="H34" t="n">
-        <v>40.78716988341603</v>
+        <v>56.79368330904195</v>
       </c>
       <c r="I34" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J34" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="K34" t="n">
-        <v>87.70872950029765</v>
+        <v>272.3824346203797</v>
       </c>
       <c r="L34" t="n">
-        <v>5.491595716576019</v>
+        <v>19.37296450420842</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.7398985359714186</v>
+        <v>0.8818567801205637</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.660377358490566</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1400621196727775</v>
+        <v>0.1788273815004269</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9432830180137678</v>
+        <v>0.8931107045231745</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>646</v>
+        <v>1222</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1305</v>
+        <v>894</v>
       </c>
       <c r="B35" t="n">
-        <v>1350</v>
+        <v>927</v>
       </c>
       <c r="C35" t="n">
-        <v>1466</v>
+        <v>973</v>
       </c>
       <c r="D35" t="n">
-        <v>2.624048863948274</v>
+        <v>1.239620184209602</v>
       </c>
       <c r="E35" t="n">
-        <v>1.904180097227242</v>
+        <v>0.6740822967880729</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7198687667210325</v>
+        <v>-0.5655378874215296</v>
       </c>
       <c r="G35" t="n">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="H35" t="n">
-        <v>32.5347877562026</v>
+        <v>49.89590436617539</v>
       </c>
       <c r="I35" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="J35" t="n">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="K35" t="n">
-        <v>271.63401920043</v>
+        <v>57.81282770459769</v>
       </c>
       <c r="L35" t="n">
-        <v>7.910133764980116</v>
+        <v>5.189944089218902</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7719221741745053</v>
+        <v>0.7274156950231114</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.3879310344827586</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="R35" t="n">
-        <v>0.414723174253951</v>
+        <v>0.2199610884375461</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6186798661862605</v>
+        <v>0.7386869730961243</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>647</v>
+        <v>1223</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,85 +3481,3783 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1466</v>
+        <v>973</v>
       </c>
       <c r="B36" t="n">
-        <v>1509</v>
+        <v>1027</v>
       </c>
       <c r="C36" t="n">
+        <v>1127</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.156635419147488</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.591097531725959</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.5655378874215296</v>
+      </c>
+      <c r="G36" t="n">
+        <v>154</v>
+      </c>
+      <c r="H36" t="n">
+        <v>116.1603440046962</v>
+      </c>
+      <c r="I36" t="n">
+        <v>54</v>
+      </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
+      <c r="K36" t="n">
+        <v>277.2935159749249</v>
+      </c>
+      <c r="L36" t="n">
+        <v>13.21595238937594</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.6873870818204015</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.3806809245922774</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.8314389520311084</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1224</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>164</v>
+      </c>
+      <c r="B37" t="n">
+        <v>195</v>
+      </c>
+      <c r="C37" t="n">
+        <v>271</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.750782179507381</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.002749537418222</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.7480326420891589</v>
+      </c>
+      <c r="G37" t="n">
+        <v>107</v>
+      </c>
+      <c r="H37" t="n">
+        <v>38.49861531760897</v>
+      </c>
+      <c r="I37" t="n">
+        <v>31</v>
+      </c>
+      <c r="J37" t="n">
+        <v>76</v>
+      </c>
+      <c r="K37" t="n">
+        <v>106.7944572908856</v>
+      </c>
+      <c r="L37" t="n">
+        <v>10.22255687175549</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.9001050057405104</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.4078947368421053</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.290881155616345</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.8838554694792115</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1225</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>325</v>
+      </c>
+      <c r="B38" t="n">
+        <v>351</v>
+      </c>
+      <c r="C38" t="n">
+        <v>415</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.438614414210582</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.690581772121423</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.7480326420891589</v>
+      </c>
+      <c r="G38" t="n">
+        <v>90</v>
+      </c>
+      <c r="H38" t="n">
+        <v>123.1937776162723</v>
+      </c>
+      <c r="I38" t="n">
+        <v>26</v>
+      </c>
+      <c r="J38" t="n">
+        <v>64</v>
+      </c>
+      <c r="K38" t="n">
+        <v>229.9584169358583</v>
+      </c>
+      <c r="L38" t="n">
+        <v>20.07755837404996</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8471042914496141</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.2096062026553186</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9908322560533374</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1226</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.178293614490914</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.430260972401755</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.7480326420891589</v>
+      </c>
+      <c r="G39" t="n">
+        <v>186</v>
+      </c>
+      <c r="H39" t="n">
+        <v>75.2417126770647</v>
+      </c>
+      <c r="I39" t="n">
+        <v>36</v>
+      </c>
+      <c r="J39" t="n">
+        <v>150</v>
+      </c>
+      <c r="K39" t="n">
+        <v>194.1703036208633</v>
+      </c>
+      <c r="L39" t="n">
+        <v>12.71873258601518</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.9389103794521699</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.2446474982864178</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8567960810227193</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1227</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1164</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1268</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.49762614976617</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.026304678060811</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.4713214717053598</v>
+      </c>
+      <c r="G40" t="n">
+        <v>136</v>
+      </c>
+      <c r="H40" t="n">
+        <v>132.9565352894372</v>
+      </c>
+      <c r="I40" t="n">
+        <v>32</v>
+      </c>
+      <c r="J40" t="n">
+        <v>104</v>
+      </c>
+      <c r="K40" t="n">
+        <v>329.0732344316915</v>
+      </c>
+      <c r="L40" t="n">
+        <v>25.23154454062068</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8945515087518436</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.3210898878829836</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.9116018964765429</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1228</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1313</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.291989526277275</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8206680545719148</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.4713214717053598</v>
+      </c>
+      <c r="G41" t="n">
+        <v>45</v>
+      </c>
+      <c r="H41" t="n">
+        <v>16.30448989418119</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>27</v>
+      </c>
+      <c r="K41" t="n">
+        <v>45.81402894833974</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.248021554653953</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8031364589246979</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.1849430594094683</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9808527446873258</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1229</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1365</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9233413524446734</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4520198807393137</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.4713214717053598</v>
+      </c>
+      <c r="G42" t="n">
+        <v>52</v>
+      </c>
+      <c r="H42" t="n">
+        <v>18.3043927913061</v>
+      </c>
+      <c r="I42" t="n">
+        <v>18</v>
+      </c>
+      <c r="J42" t="n">
+        <v>34</v>
+      </c>
+      <c r="K42" t="n">
+        <v>31.74615953088803</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.179916623709584</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8493764350414119</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.2762332312637658</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.8822598260076671</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1230</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>979</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1049</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.468876777099338</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.876275945378051</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5926008317212865</v>
+      </c>
+      <c r="G43" t="n">
+        <v>70</v>
+      </c>
+      <c r="H43" t="n">
+        <v>24.36049949582775</v>
+      </c>
+      <c r="I43" t="n">
+        <v>28</v>
+      </c>
+      <c r="J43" t="n">
+        <v>42</v>
+      </c>
+      <c r="K43" t="n">
+        <v>89.10313301184247</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.262578093149554</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8268921538787946</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2248233768159735</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9740713296529193</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1231</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.376611668523062</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.784010836801776</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5926008317212865</v>
+      </c>
+      <c r="G44" t="n">
+        <v>481</v>
+      </c>
+      <c r="H44" t="n">
+        <v>91.08479231694378</v>
+      </c>
+      <c r="I44" t="n">
+        <v>141</v>
+      </c>
+      <c r="J44" t="n">
+        <v>340</v>
+      </c>
+      <c r="K44" t="n">
+        <v>608.8864927131356</v>
+      </c>
+      <c r="L44" t="n">
+        <v>7.197476504566616</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.5687529658064941</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.4147058823529412</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.3308391077824732</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.5493386679285109</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1232</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1074</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.47346344281488</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.687631003721482</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.7858324390933973</v>
+      </c>
+      <c r="G45" t="n">
+        <v>139</v>
+      </c>
+      <c r="H45" t="n">
+        <v>75.91805022839935</v>
+      </c>
+      <c r="I45" t="n">
+        <v>33</v>
+      </c>
+      <c r="J45" t="n">
+        <v>106</v>
+      </c>
+      <c r="K45" t="n">
+        <v>200.57868537942</v>
+      </c>
+      <c r="L45" t="n">
+        <v>14.36844000054462</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.9292902733268616</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.3113207547169811</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.2664515657311523</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.9445112734017262</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1233</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1385</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1431</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.250082522647783</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.464250083554386</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.7858324390933973</v>
+      </c>
+      <c r="G46" t="n">
+        <v>72</v>
+      </c>
+      <c r="H46" t="n">
+        <v>161.9569687490271</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26</v>
+      </c>
+      <c r="J46" t="n">
+        <v>46</v>
+      </c>
+      <c r="K46" t="n">
+        <v>202.7158724483219</v>
+      </c>
+      <c r="L46" t="n">
+        <v>18.87984876394165</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6527377551665609</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.07113370589721624</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.9797464240594891</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1234</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1431</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C47" t="n">
         <v>1598</v>
       </c>
-      <c r="D36" t="n">
-        <v>3.369360309407876</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2.649491542686843</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-0.7198687667210325</v>
-      </c>
-      <c r="G36" t="n">
-        <v>132</v>
-      </c>
-      <c r="H36" t="n">
-        <v>57.82182039444251</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="D47" t="n">
+        <v>2.645545720197423</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.859713281104026</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.7858324390933973</v>
+      </c>
+      <c r="G47" t="n">
+        <v>167</v>
+      </c>
+      <c r="H47" t="n">
+        <v>22.62806873394698</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>143</v>
+      </c>
+      <c r="K47" t="n">
+        <v>271.674226890708</v>
+      </c>
+      <c r="L47" t="n">
+        <v>15.36807227120163</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.7885348534412029</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.1678321678321678</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3576316293155266</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.8313233907789859</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1235</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1118</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.775245078302206</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.265387276369707</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5098578019324992</v>
+      </c>
+      <c r="G48" t="n">
+        <v>104</v>
+      </c>
+      <c r="H48" t="n">
+        <v>20.79645357246159</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
         <v>89</v>
       </c>
-      <c r="K36" t="n">
-        <v>248.2104124888722</v>
-      </c>
-      <c r="L36" t="n">
-        <v>10.15685763935395</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>0.8847641944423448</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.4831460674157304</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.2971919532854788</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.9877899070059035</v>
-      </c>
-      <c r="T36" t="inlineStr">
+      <c r="K48" t="n">
+        <v>105.3307191102824</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.368649636251956</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8406030708507021</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.1685393258426966</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.4036618704520782</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9427942438277908</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1236</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1316</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.424469505410046</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9146117034775471</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5098578019324992</v>
+      </c>
+      <c r="G49" t="n">
+        <v>109</v>
+      </c>
+      <c r="H49" t="n">
+        <v>77.77779281793846</v>
+      </c>
+      <c r="I49" t="n">
+        <v>30</v>
+      </c>
+      <c r="J49" t="n">
+        <v>79</v>
+      </c>
+      <c r="K49" t="n">
+        <v>117.3570257089303</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5.912657824648196</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8297321658541654</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.379746835443038</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.3765978890088639</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.7226135003536761</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1237</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>855</v>
+      </c>
+      <c r="B50" t="n">
+        <v>878</v>
+      </c>
+      <c r="C50" t="n">
+        <v>983</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.442254067600985</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9070908044441467</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5351632631568378</v>
+      </c>
+      <c r="G50" t="n">
+        <v>128</v>
+      </c>
+      <c r="H50" t="n">
+        <v>36.88580605542222</v>
+      </c>
+      <c r="I50" t="n">
+        <v>23</v>
+      </c>
+      <c r="J50" t="n">
+        <v>105</v>
+      </c>
+      <c r="K50" t="n">
+        <v>74.87620501138291</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.634259616151894</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8942142981301514</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.219047619047619</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.4259500065216164</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.8736903411232866</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1238</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>435</v>
+      </c>
+      <c r="B51" t="n">
+        <v>503</v>
+      </c>
+      <c r="C51" t="n">
+        <v>588</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.309763078533606</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.525118246557946</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.7846448319756592</v>
+      </c>
+      <c r="G51" t="n">
+        <v>153</v>
+      </c>
+      <c r="H51" t="n">
+        <v>164.2908789571987</v>
+      </c>
+      <c r="I51" t="n">
+        <v>68</v>
+      </c>
+      <c r="J51" t="n">
+        <v>85</v>
+      </c>
+      <c r="K51" t="n">
+        <v>229.5260811324432</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.021481799644437</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.6312091511763965</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2425741166319089</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.9809190310028609</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1239</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>809</v>
+      </c>
+      <c r="B52" t="n">
+        <v>854</v>
+      </c>
+      <c r="C52" t="n">
+        <v>977</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.21209664855681</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.427451816581151</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.7846448319756592</v>
+      </c>
+      <c r="G52" t="n">
+        <v>168</v>
+      </c>
+      <c r="H52" t="n">
+        <v>112.5935496617557</v>
+      </c>
+      <c r="I52" t="n">
+        <v>45</v>
+      </c>
+      <c r="J52" t="n">
+        <v>123</v>
+      </c>
+      <c r="K52" t="n">
+        <v>312.7119775045641</v>
+      </c>
+      <c r="L52" t="n">
+        <v>11.15515917825443</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8970966251515048</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.2264025415986798</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.9843905751816541</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1240</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1521</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.657144576612414</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.872499744636754</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.7846448319756592</v>
+      </c>
+      <c r="G53" t="n">
+        <v>77</v>
+      </c>
+      <c r="H53" t="n">
+        <v>21.85247532239714</v>
+      </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>56</v>
+      </c>
+      <c r="K53" t="n">
+        <v>149.4637335959032</v>
+      </c>
+      <c r="L53" t="n">
+        <v>9.227888807475495</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8705463867372986</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.1872355457036479</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.9857525846846931</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1241</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1508</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.113341439430227</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.812548134846709</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.3007933045835177</v>
+      </c>
+      <c r="G54" t="n">
+        <v>127</v>
+      </c>
+      <c r="H54" t="n">
+        <v>47.73441204507799</v>
+      </c>
+      <c r="I54" t="n">
+        <v>37</v>
+      </c>
+      <c r="J54" t="n">
+        <v>90</v>
+      </c>
+      <c r="K54" t="n">
+        <v>362.0412378078254</v>
+      </c>
+      <c r="L54" t="n">
+        <v>24.19777770112888</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.9182461116333505</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.4111111111111111</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2382408446661968</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9395815778708755</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1242</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1482</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.968638542874388</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.261001689522194</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.7076368533521944</v>
+      </c>
+      <c r="G55" t="n">
+        <v>201</v>
+      </c>
+      <c r="H55" t="n">
+        <v>116.0766290403467</v>
+      </c>
+      <c r="I55" t="n">
+        <v>83</v>
+      </c>
+      <c r="J55" t="n">
+        <v>118</v>
+      </c>
+      <c r="K55" t="n">
+        <v>325.2932204391219</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8.318248393629135</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.6576093014976492</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.7033898305084746</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2524794184474074</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.9373922661842381</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1243</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" t="n">
+        <v>121</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.482418038171016</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.928592126957263</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5538259112137525</v>
+      </c>
+      <c r="G56" t="n">
+        <v>121</v>
+      </c>
+      <c r="H56" t="n">
+        <v>78.05632407550701</v>
+      </c>
+      <c r="I56" t="n">
+        <v>20</v>
+      </c>
+      <c r="J56" t="n">
+        <v>101</v>
+      </c>
+      <c r="K56" t="n">
+        <v>368.124974761352</v>
+      </c>
+      <c r="L56" t="n">
+        <v>25.02542974962305</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8060411910576858</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.198019801980198</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.1467605866355277</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.8548038419918076</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1244</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>121</v>
+      </c>
+      <c r="B57" t="n">
+        <v>145</v>
+      </c>
+      <c r="C57" t="n">
+        <v>179</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.920438056940274</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.366612145726522</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.5538259112137525</v>
+      </c>
+      <c r="G57" t="n">
+        <v>58</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22.35585183915347</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>34</v>
+      </c>
+      <c r="K57" t="n">
+        <v>82.76026373836625</v>
+      </c>
+      <c r="L57" t="n">
+        <v>10.72184416384142</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7580073854775992</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.1355113925246119</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9805163237625888</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1245</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>232</v>
+      </c>
+      <c r="B58" t="n">
+        <v>264</v>
+      </c>
+      <c r="C58" t="n">
+        <v>326</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.624604702108577</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.070778790894825</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.5538259112137525</v>
+      </c>
+      <c r="G58" t="n">
+        <v>94</v>
+      </c>
+      <c r="H58" t="n">
+        <v>110.0475915030123</v>
+      </c>
+      <c r="I58" t="n">
+        <v>32</v>
+      </c>
+      <c r="J58" t="n">
+        <v>62</v>
+      </c>
+      <c r="K58" t="n">
+        <v>172.4571317125582</v>
+      </c>
+      <c r="L58" t="n">
+        <v>14.65322065764956</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8041232885897758</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.3172772671430134</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9327819973759441</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1246</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>326</v>
+      </c>
+      <c r="B59" t="n">
+        <v>347</v>
+      </c>
+      <c r="C59" t="n">
+        <v>433</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.065008836555141</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.511182925341389</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.5538259112137525</v>
+      </c>
+      <c r="G59" t="n">
+        <v>107</v>
+      </c>
+      <c r="H59" t="n">
+        <v>16.31390088838486</v>
+      </c>
+      <c r="I59" t="n">
+        <v>21</v>
+      </c>
+      <c r="J59" t="n">
+        <v>86</v>
+      </c>
+      <c r="K59" t="n">
+        <v>118.4579394524289</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.52898572410882</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8635832615438461</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.2441860465116279</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.4840589537293864</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9771731081805969</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1247</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.4482744676113675</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.02566941327068522</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.4739438808820527</v>
+      </c>
+      <c r="G60" t="n">
+        <v>69</v>
+      </c>
+      <c r="H60" t="n">
+        <v>36.75569985719835</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23</v>
+      </c>
+      <c r="J60" t="n">
+        <v>46</v>
+      </c>
+      <c r="K60" t="n">
+        <v>23.07571695596914</v>
+      </c>
+      <c r="L60" t="n">
+        <v>4.877894563116222</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.821813858643321</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.5267626447908647</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.8223177987670998</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1248</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>48</v>
+      </c>
+      <c r="C61" t="n">
+        <v>141</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6870882463752741</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2950870172887664</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.3920012290865077</v>
+      </c>
+      <c r="G61" t="n">
+        <v>141</v>
+      </c>
+      <c r="H61" t="n">
+        <v>55.7912071801624</v>
+      </c>
+      <c r="I61" t="n">
+        <v>48</v>
+      </c>
+      <c r="J61" t="n">
+        <v>93</v>
+      </c>
+      <c r="K61" t="n">
+        <v>52.78236851332107</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.638601635481223</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.7015751016320479</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2738967782960553</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8520200817362558</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1249</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>660</v>
+      </c>
+      <c r="B62" t="n">
+        <v>710</v>
+      </c>
+      <c r="C62" t="n">
+        <v>777</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.67235798783769</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.016902208742948</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.6554557790947414</v>
+      </c>
+      <c r="G62" t="n">
+        <v>117</v>
+      </c>
+      <c r="H62" t="n">
+        <v>81.19467772554094</v>
+      </c>
+      <c r="I62" t="n">
+        <v>50</v>
+      </c>
+      <c r="J62" t="n">
+        <v>67</v>
+      </c>
+      <c r="K62" t="n">
+        <v>253.4328779528396</v>
+      </c>
+      <c r="L62" t="n">
+        <v>13.61701633865962</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.679603039998101</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.746268656716418</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.1851403566854445</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.7194365302482867</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1250</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1114</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1238</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.157350316411894</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.5777043505410528</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5796459658708414</v>
+      </c>
+      <c r="G63" t="n">
+        <v>139</v>
+      </c>
+      <c r="H63" t="n">
+        <v>25.87250635486612</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>124</v>
+      </c>
+      <c r="K63" t="n">
+        <v>83.05679541472628</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.547646961425398</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1207), 'value': np.float64(0.03457203738752131), 'amplitude': np.float64(0.6142180032583627), 'start_idx': np.int64(1187), 'end_idx': np.int64(1221), 'duration': np.float64(34.0), 'fwhm': np.float64(22.194262101170125), 'rise_time': np.float64(20.0), 'decay_time': np.float64(14.0), 'auc': np.float64(15.93196360157773)}]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7329677638748097</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.1209677419354839</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.395416084388188</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.5761393606747093</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1251</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>681</v>
+      </c>
+      <c r="B64" t="n">
+        <v>763</v>
+      </c>
+      <c r="C64" t="n">
+        <v>874</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.099769583353841</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.582520433934004</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.517249149419837</v>
+      </c>
+      <c r="G64" t="n">
+        <v>193</v>
+      </c>
+      <c r="H64" t="n">
+        <v>129.8142673534685</v>
+      </c>
+      <c r="I64" t="n">
+        <v>82</v>
+      </c>
+      <c r="J64" t="n">
+        <v>111</v>
+      </c>
+      <c r="K64" t="n">
+        <v>461.6262843902898</v>
+      </c>
+      <c r="L64" t="n">
+        <v>14.4147549842323</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.7225491071755897</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.7387387387387387</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.2210917181202855</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.8307249131398976</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n40</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1252</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>806</v>
+      </c>
+      <c r="B65" t="n">
+        <v>837</v>
+      </c>
+      <c r="C65" t="n">
+        <v>983</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.291537802615865</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.743252851595613</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5482849510202527</v>
+      </c>
+      <c r="G65" t="n">
+        <v>177</v>
+      </c>
+      <c r="H65" t="n">
+        <v>56.76692673384002</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>146</v>
+      </c>
+      <c r="K65" t="n">
+        <v>358.3650453058656</v>
+      </c>
+      <c r="L65" t="n">
+        <v>11.04328406118195</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8760316612727018</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.2123287671232877</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.3432783370192791</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.732448264112563</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1253</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1415</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.513744457876174</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.8771679943595969</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.6365764635165768</v>
+      </c>
+      <c r="G66" t="n">
+        <v>113</v>
+      </c>
+      <c r="H66" t="n">
+        <v>28.63152051110069</v>
+      </c>
+      <c r="I66" t="n">
+        <v>29</v>
+      </c>
+      <c r="J66" t="n">
+        <v>84</v>
+      </c>
+      <c r="K66" t="n">
+        <v>128.27153984401</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.658230484039611</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.754617521267395</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.3452380952380952</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.1466854147978049</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.6328082303835632</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1254</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1122</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.021211644936884</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.393600446763401</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6276111981734841</v>
+      </c>
+      <c r="G67" t="n">
+        <v>190</v>
+      </c>
+      <c r="H67" t="n">
+        <v>62.29807766779277</v>
+      </c>
+      <c r="I67" t="n">
+        <v>34</v>
+      </c>
+      <c r="J67" t="n">
+        <v>156</v>
+      </c>
+      <c r="K67" t="n">
+        <v>443.0999834479123</v>
+      </c>
+      <c r="L67" t="n">
+        <v>20.61965053247471</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.9222494301303803</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.217948717948718</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.2721296364101876</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.91415327789675</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1255</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1528</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.267919519398001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.640308321224517</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.6276111981734841</v>
+      </c>
+      <c r="G68" t="n">
+        <v>70</v>
+      </c>
+      <c r="H68" t="n">
+        <v>33.65558677997956</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30</v>
+      </c>
+      <c r="J68" t="n">
+        <v>40</v>
+      </c>
+      <c r="K68" t="n">
+        <v>110.4538126736098</v>
+      </c>
+      <c r="L68" t="n">
+        <v>9.313231791955783</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7891192295532574</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.4459460661705915</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9523278219960523</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n43</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1256</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>102</v>
+      </c>
+      <c r="B69" t="n">
+        <v>127</v>
+      </c>
+      <c r="C69" t="n">
+        <v>257</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.49333588040092</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.970315839981732</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.5230200404191888</v>
+      </c>
+      <c r="G69" t="n">
+        <v>155</v>
+      </c>
+      <c r="H69" t="n">
+        <v>106.0609670549402</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+      <c r="J69" t="n">
+        <v>130</v>
+      </c>
+      <c r="K69" t="n">
+        <v>334.9552506741463</v>
+      </c>
+      <c r="L69" t="n">
+        <v>21.39639734120729</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8914042286213547</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.497690305921399</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.9676181481713553</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1257</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>257</v>
+      </c>
+      <c r="B70" t="n">
+        <v>289</v>
+      </c>
+      <c r="C70" t="n">
+        <v>334</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.436798132579634</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.913778092160445</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5230200404191888</v>
+      </c>
+      <c r="G70" t="n">
+        <v>77</v>
+      </c>
+      <c r="H70" t="n">
+        <v>35.20232655436507</v>
+      </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>45</v>
+      </c>
+      <c r="K70" t="n">
+        <v>102.832476411637</v>
+      </c>
+      <c r="L70" t="n">
+        <v>11.60356191318902</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.6958123275108228</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.09561378925426675</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.9768369017229741</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1258</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1068</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1121</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.755345041439516</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.232325001020327</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5230200404191888</v>
+      </c>
+      <c r="G71" t="n">
+        <v>90</v>
+      </c>
+      <c r="H71" t="n">
+        <v>36.23380064986441</v>
+      </c>
+      <c r="I71" t="n">
+        <v>37</v>
+      </c>
+      <c r="J71" t="n">
+        <v>53</v>
+      </c>
+      <c r="K71" t="n">
+        <v>76.83919088891001</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.358613951247001</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.8087220077927808</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.3201876859340735</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.8850891740408326</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n45</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1259</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1422</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1449</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.522225205710345</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.922383977487174</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5998412282231714</v>
+      </c>
+      <c r="G72" t="n">
+        <v>176</v>
+      </c>
+      <c r="H72" t="n">
+        <v>30.43619266948076</v>
+      </c>
+      <c r="I72" t="n">
+        <v>27</v>
+      </c>
+      <c r="J72" t="n">
+        <v>149</v>
+      </c>
+      <c r="K72" t="n">
+        <v>300.0124647644349</v>
+      </c>
+      <c r="L72" t="n">
+        <v>14.0723880429168</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7538771179382233</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.1812080536912752</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.5209201699064566</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.5800087581445114</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1260</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>331</v>
+      </c>
+      <c r="B73" t="n">
+        <v>346</v>
+      </c>
+      <c r="C73" t="n">
+        <v>377</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.029521962348387</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.414308809846326</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.6152131525020611</v>
+      </c>
+      <c r="G73" t="n">
+        <v>46</v>
+      </c>
+      <c r="H73" t="n">
+        <v>16.07063723684621</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>31</v>
+      </c>
+      <c r="K73" t="n">
+        <v>89.31181732762444</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8.18786082124233</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.8601839526493386</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.3588327624337797</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.8632918403300402</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1261</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>377</v>
+      </c>
+      <c r="B74" t="n">
+        <v>408</v>
+      </c>
+      <c r="C74" t="n">
+        <v>470</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.915166047420507</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.299952894918446</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.6152131525020611</v>
+      </c>
+      <c r="G74" t="n">
+        <v>93</v>
+      </c>
+      <c r="H74" t="n">
+        <v>53.30320375957876</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>62</v>
+      </c>
+      <c r="K74" t="n">
+        <v>113.8906639433298</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.176101457832777</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8279610980390359</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.3352790896125437</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.8766556478964517</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n48</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1262</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1311</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.055966564981067</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.362322312264404</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.6936442527166629</v>
+      </c>
+      <c r="G75" t="n">
+        <v>94</v>
+      </c>
+      <c r="H75" t="n">
+        <v>32.0707174233778</v>
+      </c>
+      <c r="I75" t="n">
+        <v>34</v>
+      </c>
+      <c r="J75" t="n">
+        <v>60</v>
+      </c>
+      <c r="K75" t="n">
+        <v>87.03312167706858</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.05814760976928</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8501421986805607</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2847796471017064</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9643281261266292</v>
+      </c>
+      <c r="T75" t="inlineStr">
         <is>
           <t>n50</t>
         </is>
       </c>
-      <c r="U36" t="n">
-        <v>648</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
+      <c r="U75" t="n">
+        <v>1263</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1459</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.810785299964908</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.117141047248245</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.6936442527166629</v>
+      </c>
+      <c r="G76" t="n">
+        <v>148</v>
+      </c>
+      <c r="H76" t="n">
+        <v>32.89855933408558</v>
+      </c>
+      <c r="I76" t="n">
+        <v>33</v>
+      </c>
+      <c r="J76" t="n">
+        <v>115</v>
+      </c>
+      <c r="K76" t="n">
+        <v>255.0044448509587</v>
+      </c>
+      <c r="L76" t="n">
+        <v>8.282309905518257</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.8277248216514114</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.2869565217391304</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.4459218853352316</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.5967450136062773</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1264</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1459</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1508</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.387131521128833</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.69348726841217</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.6936442527166629</v>
+      </c>
+      <c r="G77" t="n">
+        <v>139</v>
+      </c>
+      <c r="H77" t="n">
+        <v>59.35488749819865</v>
+      </c>
+      <c r="I77" t="n">
+        <v>49</v>
+      </c>
+      <c r="J77" t="n">
+        <v>90</v>
+      </c>
+      <c r="K77" t="n">
+        <v>255.229811690603</v>
+      </c>
+      <c r="L77" t="n">
+        <v>9.980581921034201</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8643566382025076</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.2404998803940792</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9777555076924267</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n50</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1265</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.189331679232047</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.566043906463189</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.6232877727688575</v>
+      </c>
+      <c r="G78" t="n">
+        <v>53</v>
+      </c>
+      <c r="H78" t="n">
+        <v>20.64742421181472</v>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>33</v>
+      </c>
+      <c r="K78" t="n">
+        <v>88.4935702180022</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.079566876621658</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.7881242669642711</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.1492951879024462</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.9485076720858907</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1266</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1461</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.822344485840389</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.199056713071531</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.6232877727688575</v>
+      </c>
+      <c r="G79" t="n">
+        <v>88</v>
+      </c>
+      <c r="H79" t="n">
+        <v>109.8333230352869</v>
+      </c>
+      <c r="I79" t="n">
+        <v>32</v>
+      </c>
+      <c r="J79" t="n">
+        <v>56</v>
+      </c>
+      <c r="K79" t="n">
+        <v>170.6749812561592</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.548248353908335</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.788776153072771</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.2957603355487675</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9525715499661014</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1267</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace/processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1190</v>
+        <v>1249</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1191</v>
+        <v>1250</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1192</v>
+        <v>1251</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1193</v>
+        <v>1252</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1194</v>
+        <v>1253</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1195</v>
+        <v>1254</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1196</v>
+        <v>1255</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1197</v>
+        <v>1256</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1126</v>
+        <v>1202</v>
       </c>
       <c r="B10" t="n">
-        <v>1173</v>
+        <v>1219</v>
       </c>
       <c r="C10" t="n">
         <v>1461</v>
       </c>
       <c r="D10" t="n">
-        <v>2.30994039586624</v>
+        <v>1.593829056265456</v>
       </c>
       <c r="E10" t="n">
-        <v>1.640640274989926</v>
+        <v>0.9245289353891425</v>
       </c>
       <c r="F10" t="n">
         <v>-0.6693001208763137</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="H10" t="n">
-        <v>85.94252162036332</v>
+        <v>13.95527635834173</v>
       </c>
       <c r="I10" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="K10" t="n">
-        <v>262.0512898309435</v>
+        <v>167.2765020349</v>
       </c>
       <c r="L10" t="n">
-        <v>10.30507772207902</v>
+        <v>7.110370609525659</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8509752392325673</v>
+        <v>0.7288775185596731</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1631944444444444</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4165748724466901</v>
+        <v>0.5770315711640405</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8698742352598683</v>
+        <v>0.7944029686308843</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1198</v>
+        <v>1257</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1199</v>
+        <v>1258</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="B12" t="n">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="C12" t="n">
         <v>297</v>
       </c>
       <c r="D12" t="n">
-        <v>2.010595640324825</v>
+        <v>1.867377873914579</v>
       </c>
       <c r="E12" t="n">
-        <v>1.225829859682456</v>
+        <v>1.08261209327221</v>
       </c>
       <c r="F12" t="n">
         <v>-0.7847657806423688</v>
       </c>
       <c r="G12" t="n">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="H12" t="n">
-        <v>120.9280962169725</v>
+        <v>23.52375852096444</v>
       </c>
       <c r="I12" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="K12" t="n">
-        <v>268.0645463876294</v>
+        <v>116.9249721635055</v>
       </c>
       <c r="L12" t="n">
-        <v>5.715768466168476</v>
+        <v>5.308625639125186</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.6590509057384801</v>
+        <v>0.9076986660732296</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5447761194029851</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1970519565591094</v>
+        <v>0.3811579546112254</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7883174615100935</v>
+        <v>0.9750194554656904</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1200</v>
+        <v>1259</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1201</v>
+        <v>1260</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1202</v>
+        <v>1261</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1203</v>
+        <v>1262</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1204</v>
+        <v>1263</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1205</v>
+        <v>1264</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1206</v>
+        <v>1265</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1207</v>
+        <v>1266</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1208</v>
+        <v>1267</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1209</v>
+        <v>1268</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1210</v>
+        <v>1269</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1211</v>
+        <v>1270</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1212</v>
+        <v>1271</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1213</v>
+        <v>1272</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1214</v>
+        <v>1273</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1215</v>
+        <v>1274</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1216</v>
+        <v>1275</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1217</v>
+        <v>1276</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1218</v>
+        <v>1277</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1219</v>
+        <v>1278</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1220</v>
+        <v>1279</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1221</v>
+        <v>1280</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1222</v>
+        <v>1281</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1223</v>
+        <v>1282</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1224</v>
+        <v>1283</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1225</v>
+        <v>1284</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1226</v>
+        <v>1285</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1227</v>
+        <v>1286</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1228</v>
+        <v>1287</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1229</v>
+        <v>1288</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1230</v>
+        <v>1289</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1231</v>
+        <v>1290</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1232</v>
+        <v>1291</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1233</v>
+        <v>1292</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1234</v>
+        <v>1293</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1235</v>
+        <v>1294</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1236</v>
+        <v>1295</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1237</v>
+        <v>1296</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1238</v>
+        <v>1297</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1239</v>
+        <v>1298</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1240</v>
+        <v>1299</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1241</v>
+        <v>1300</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1242</v>
+        <v>1301</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1243</v>
+        <v>1302</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1244</v>
+        <v>1303</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1245</v>
+        <v>1304</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1246</v>
+        <v>1305</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1247</v>
+        <v>1306</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1248</v>
+        <v>1307</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1249</v>
+        <v>1308</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>660</v>
+        <v>611</v>
       </c>
       <c r="B62" t="n">
-        <v>710</v>
+        <v>646</v>
       </c>
       <c r="C62" t="n">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="D62" t="n">
-        <v>3.67235798783769</v>
+        <v>5.72981084340063</v>
       </c>
       <c r="E62" t="n">
-        <v>3.016902208742948</v>
+        <v>5.337809614314122</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6554557790947414</v>
+        <v>-0.3920012290865077</v>
       </c>
       <c r="G62" t="n">
         <v>117</v>
       </c>
       <c r="H62" t="n">
-        <v>81.19467772554094</v>
+        <v>70.75696431553411</v>
       </c>
       <c r="I62" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J62" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="K62" t="n">
-        <v>253.4328779528396</v>
+        <v>383.8679838709377</v>
       </c>
       <c r="L62" t="n">
-        <v>13.61701633865962</v>
+        <v>47.02179227055323</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.679603039998101</v>
+        <v>0.8208761953355951</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.746268656716418</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1851403566854445</v>
+        <v>0.1701744057282771</v>
       </c>
       <c r="S62" t="n">
-        <v>0.7194365302482867</v>
+        <v>0.9383405544138568</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n37</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1250</v>
+        <v>1309</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,73 +5803,73 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1099</v>
+        <v>660</v>
       </c>
       <c r="B63" t="n">
-        <v>1114</v>
+        <v>710</v>
       </c>
       <c r="C63" t="n">
-        <v>1238</v>
+        <v>777</v>
       </c>
       <c r="D63" t="n">
-        <v>1.157350316411894</v>
+        <v>3.67235798783769</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5777043505410528</v>
+        <v>3.016902208742948</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5796459658708414</v>
+        <v>-0.6554557790947414</v>
       </c>
       <c r="G63" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H63" t="n">
-        <v>25.87250635486612</v>
+        <v>81.19467772554094</v>
       </c>
       <c r="I63" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J63" t="n">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="K63" t="n">
-        <v>83.05679541472628</v>
+        <v>253.4328779528396</v>
       </c>
       <c r="L63" t="n">
-        <v>5.547646961425398</v>
+        <v>13.61701633865962</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1207), 'value': np.float64(0.03457203738752131), 'amplitude': np.float64(0.6142180032583627), 'start_idx': np.int64(1187), 'end_idx': np.int64(1221), 'duration': np.float64(34.0), 'fwhm': np.float64(22.194262101170125), 'rise_time': np.float64(20.0), 'decay_time': np.float64(14.0), 'auc': np.float64(15.93196360157773)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7329677638748097</v>
+        <v>0.679603039998101</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.1209677419354839</v>
+        <v>0.746268656716418</v>
       </c>
       <c r="R63" t="n">
-        <v>0.395416084388188</v>
+        <v>0.1851403566854445</v>
       </c>
       <c r="S63" t="n">
-        <v>0.5761393606747093</v>
+        <v>0.7194365302482867</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n38</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1251</v>
+        <v>1310</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,73 +5889,73 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>681</v>
+        <v>1099</v>
       </c>
       <c r="B64" t="n">
-        <v>763</v>
+        <v>1114</v>
       </c>
       <c r="C64" t="n">
-        <v>874</v>
+        <v>1238</v>
       </c>
       <c r="D64" t="n">
-        <v>4.099769583353841</v>
+        <v>1.157350316411894</v>
       </c>
       <c r="E64" t="n">
-        <v>3.582520433934004</v>
+        <v>0.5777043505410528</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.517249149419837</v>
+        <v>-0.5796459658708414</v>
       </c>
       <c r="G64" t="n">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="H64" t="n">
-        <v>129.8142673534685</v>
+        <v>25.87250635486612</v>
       </c>
       <c r="I64" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="J64" t="n">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="K64" t="n">
-        <v>461.6262843902898</v>
+        <v>83.05679541472628</v>
       </c>
       <c r="L64" t="n">
-        <v>14.4147549842323</v>
+        <v>5.547646961425398</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1207), 'value': np.float64(0.03457203738752131), 'amplitude': np.float64(0.6142180032583627), 'start_idx': np.int64(1187), 'end_idx': np.int64(1221), 'duration': np.float64(34.0), 'fwhm': np.float64(22.194262101170125), 'rise_time': np.float64(20.0), 'decay_time': np.float64(14.0), 'auc': np.float64(15.93196360157773)}]</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.7225491071755897</v>
+        <v>0.7329677638748097</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7387387387387387</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2210917181202855</v>
+        <v>0.395416084388188</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8307249131398976</v>
+        <v>0.5761393606747093</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n40</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1252</v>
+        <v>1311</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>806</v>
+        <v>681</v>
       </c>
       <c r="B65" t="n">
-        <v>837</v>
+        <v>763</v>
       </c>
       <c r="C65" t="n">
-        <v>983</v>
+        <v>874</v>
       </c>
       <c r="D65" t="n">
-        <v>4.291537802615865</v>
+        <v>4.099769583353841</v>
       </c>
       <c r="E65" t="n">
-        <v>3.743252851595613</v>
+        <v>3.582520433934004</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5482849510202527</v>
+        <v>-0.517249149419837</v>
       </c>
       <c r="G65" t="n">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="H65" t="n">
-        <v>56.76692673384002</v>
+        <v>129.8142673534685</v>
       </c>
       <c r="I65" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="J65" t="n">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="K65" t="n">
-        <v>358.3650453058656</v>
+        <v>461.6262843902898</v>
       </c>
       <c r="L65" t="n">
-        <v>11.04328406118195</v>
+        <v>14.4147549842323</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.8760316612727018</v>
+        <v>0.7225491071755897</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.2123287671232877</v>
+        <v>0.7387387387387387</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3432783370192791</v>
+        <v>0.2210917181202855</v>
       </c>
       <c r="S65" t="n">
-        <v>0.732448264112563</v>
+        <v>0.8307249131398976</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n40</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1253</v>
+        <v>1312</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1302</v>
+        <v>806</v>
       </c>
       <c r="B66" t="n">
-        <v>1331</v>
+        <v>837</v>
       </c>
       <c r="C66" t="n">
-        <v>1415</v>
+        <v>983</v>
       </c>
       <c r="D66" t="n">
-        <v>1.513744457876174</v>
+        <v>4.291537802615865</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8771679943595969</v>
+        <v>3.743252851595613</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.6365764635165768</v>
+        <v>-0.5482849510202527</v>
       </c>
       <c r="G66" t="n">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="H66" t="n">
-        <v>28.63152051110069</v>
+        <v>56.76692673384002</v>
       </c>
       <c r="I66" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J66" t="n">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K66" t="n">
-        <v>128.27153984401</v>
+        <v>358.3650453058656</v>
       </c>
       <c r="L66" t="n">
-        <v>4.658230484039611</v>
+        <v>11.04328406118195</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.754617521267395</v>
+        <v>0.8760316612727018</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.3452380952380952</v>
+        <v>0.2123287671232877</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1466854147978049</v>
+        <v>0.3432783370192791</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6328082303835632</v>
+        <v>0.732448264112563</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n42</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1254</v>
+        <v>1313</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1088</v>
+        <v>1302</v>
       </c>
       <c r="B67" t="n">
-        <v>1122</v>
+        <v>1331</v>
       </c>
       <c r="C67" t="n">
-        <v>1278</v>
+        <v>1415</v>
       </c>
       <c r="D67" t="n">
-        <v>5.021211644936884</v>
+        <v>1.513744457876174</v>
       </c>
       <c r="E67" t="n">
-        <v>4.393600446763401</v>
+        <v>0.8771679943595969</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.6276111981734841</v>
+        <v>-0.6365764635165768</v>
       </c>
       <c r="G67" t="n">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="H67" t="n">
-        <v>62.29807766779277</v>
+        <v>28.63152051110069</v>
       </c>
       <c r="I67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J67" t="n">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="K67" t="n">
-        <v>443.0999834479123</v>
+        <v>128.27153984401</v>
       </c>
       <c r="L67" t="n">
-        <v>20.61965053247471</v>
+        <v>4.658230484039611</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.9222494301303803</v>
+        <v>0.754617521267395</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.217948717948718</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2721296364101876</v>
+        <v>0.1466854147978049</v>
       </c>
       <c r="S67" t="n">
-        <v>0.91415327789675</v>
+        <v>0.6328082303835632</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n42</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1255</v>
+        <v>1314</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1528</v>
+        <v>1088</v>
       </c>
       <c r="B68" t="n">
-        <v>1558</v>
+        <v>1122</v>
       </c>
       <c r="C68" t="n">
-        <v>1598</v>
+        <v>1278</v>
       </c>
       <c r="D68" t="n">
-        <v>2.267919519398001</v>
+        <v>5.021211644936884</v>
       </c>
       <c r="E68" t="n">
-        <v>1.640308321224517</v>
+        <v>4.393600446763401</v>
       </c>
       <c r="F68" t="n">
         <v>-0.6276111981734841</v>
       </c>
       <c r="G68" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="H68" t="n">
-        <v>33.65558677997956</v>
+        <v>62.29807766779277</v>
       </c>
       <c r="I68" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J68" t="n">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="K68" t="n">
-        <v>110.4538126736098</v>
+        <v>443.0999834479123</v>
       </c>
       <c r="L68" t="n">
-        <v>9.313231791955783</v>
+        <v>20.61965053247471</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,16 +6282,16 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7891192295532574</v>
+        <v>0.9222494301303803</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.75</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="R68" t="n">
-        <v>0.4459460661705915</v>
+        <v>0.2721296364101876</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9523278219960523</v>
+        <v>0.91415327789675</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1256</v>
+        <v>1315</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>102</v>
+        <v>1528</v>
       </c>
       <c r="B69" t="n">
-        <v>127</v>
+        <v>1558</v>
       </c>
       <c r="C69" t="n">
-        <v>257</v>
+        <v>1598</v>
       </c>
       <c r="D69" t="n">
-        <v>4.49333588040092</v>
+        <v>2.267919519398001</v>
       </c>
       <c r="E69" t="n">
-        <v>3.970315839981732</v>
+        <v>1.640308321224517</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5230200404191888</v>
+        <v>-0.6276111981734841</v>
       </c>
       <c r="G69" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="H69" t="n">
-        <v>106.0609670549402</v>
+        <v>33.65558677997956</v>
       </c>
       <c r="I69" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J69" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K69" t="n">
-        <v>334.9552506741463</v>
+        <v>110.4538126736098</v>
       </c>
       <c r="L69" t="n">
-        <v>21.39639734120729</v>
+        <v>9.313231791955783</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.8914042286213547</v>
+        <v>0.7891192295532574</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="R69" t="n">
-        <v>0.497690305921399</v>
+        <v>0.4459460661705915</v>
       </c>
       <c r="S69" t="n">
-        <v>0.9676181481713553</v>
+        <v>0.9523278219960523</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n45</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1257</v>
+        <v>1316</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>102</v>
+      </c>
+      <c r="B70" t="n">
+        <v>127</v>
+      </c>
+      <c r="C70" t="n">
         <v>257</v>
       </c>
-      <c r="B70" t="n">
-        <v>289</v>
-      </c>
-      <c r="C70" t="n">
-        <v>334</v>
-      </c>
       <c r="D70" t="n">
-        <v>2.436798132579634</v>
+        <v>4.49333588040092</v>
       </c>
       <c r="E70" t="n">
-        <v>1.913778092160445</v>
+        <v>3.970315839981732</v>
       </c>
       <c r="F70" t="n">
         <v>-0.5230200404191888</v>
       </c>
       <c r="G70" t="n">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="H70" t="n">
-        <v>35.20232655436507</v>
+        <v>106.0609670549402</v>
       </c>
       <c r="I70" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="J70" t="n">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K70" t="n">
-        <v>102.832476411637</v>
+        <v>334.9552506741463</v>
       </c>
       <c r="L70" t="n">
-        <v>11.60356191318902</v>
+        <v>21.39639734120729</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,16 +6454,16 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.6958123275108228</v>
+        <v>0.8914042286213547</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="R70" t="n">
-        <v>0.09561378925426675</v>
+        <v>0.497690305921399</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9768369017229741</v>
+        <v>0.9676181481713553</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1258</v>
+        <v>1317</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1031</v>
+        <v>257</v>
       </c>
       <c r="B71" t="n">
-        <v>1068</v>
+        <v>289</v>
       </c>
       <c r="C71" t="n">
-        <v>1121</v>
+        <v>334</v>
       </c>
       <c r="D71" t="n">
-        <v>1.755345041439516</v>
+        <v>2.436798132579634</v>
       </c>
       <c r="E71" t="n">
-        <v>1.232325001020327</v>
+        <v>1.913778092160445</v>
       </c>
       <c r="F71" t="n">
         <v>-0.5230200404191888</v>
       </c>
       <c r="G71" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H71" t="n">
-        <v>36.23380064986441</v>
+        <v>35.20232655436507</v>
       </c>
       <c r="I71" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J71" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K71" t="n">
-        <v>76.83919088891001</v>
+        <v>102.832476411637</v>
       </c>
       <c r="L71" t="n">
-        <v>8.358613951247001</v>
+        <v>11.60356191318902</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.8087220077927808</v>
+        <v>0.6958123275108228</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="R71" t="n">
-        <v>0.3201876859340735</v>
+        <v>0.09561378925426675</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8850891740408326</v>
+        <v>0.9768369017229741</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1259</v>
+        <v>1318</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1422</v>
+        <v>1031</v>
       </c>
       <c r="B72" t="n">
-        <v>1449</v>
+        <v>1068</v>
       </c>
       <c r="C72" t="n">
-        <v>1598</v>
+        <v>1121</v>
       </c>
       <c r="D72" t="n">
-        <v>3.522225205710345</v>
+        <v>1.755345041439516</v>
       </c>
       <c r="E72" t="n">
-        <v>2.922383977487174</v>
+        <v>1.232325001020327</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.5998412282231714</v>
+        <v>-0.5230200404191888</v>
       </c>
       <c r="G72" t="n">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="H72" t="n">
-        <v>30.43619266948076</v>
+        <v>36.23380064986441</v>
       </c>
       <c r="I72" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J72" t="n">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="K72" t="n">
-        <v>300.0124647644349</v>
+        <v>76.83919088891001</v>
       </c>
       <c r="L72" t="n">
-        <v>14.0723880429168</v>
+        <v>8.358613951247001</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.7538771179382233</v>
+        <v>0.8087220077927808</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.1812080536912752</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="R72" t="n">
-        <v>0.5209201699064566</v>
+        <v>0.3201876859340735</v>
       </c>
       <c r="S72" t="n">
-        <v>0.5800087581445114</v>
+        <v>0.8850891740408326</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n46</t>
+          <t>n45</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1260</v>
+        <v>1319</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>331</v>
+        <v>1422</v>
       </c>
       <c r="B73" t="n">
-        <v>346</v>
+        <v>1449</v>
       </c>
       <c r="C73" t="n">
-        <v>377</v>
+        <v>1598</v>
       </c>
       <c r="D73" t="n">
-        <v>3.029521962348387</v>
+        <v>3.522225205710345</v>
       </c>
       <c r="E73" t="n">
-        <v>2.414308809846326</v>
+        <v>2.922383977487174</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6152131525020611</v>
+        <v>-0.5998412282231714</v>
       </c>
       <c r="G73" t="n">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="H73" t="n">
-        <v>16.07063723684621</v>
+        <v>30.43619266948076</v>
       </c>
       <c r="I73" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J73" t="n">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="K73" t="n">
-        <v>89.31181732762444</v>
+        <v>300.0124647644349</v>
       </c>
       <c r="L73" t="n">
-        <v>8.18786082124233</v>
+        <v>14.0723880429168</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.8601839526493386</v>
+        <v>0.7538771179382233</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="R73" t="n">
-        <v>0.3588327624337797</v>
+        <v>0.5209201699064566</v>
       </c>
       <c r="S73" t="n">
-        <v>0.8632918403300402</v>
+        <v>0.5800087581445114</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n48</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1261</v>
+        <v>1320</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>331</v>
+      </c>
+      <c r="B74" t="n">
+        <v>346</v>
+      </c>
+      <c r="C74" t="n">
         <v>377</v>
       </c>
-      <c r="B74" t="n">
-        <v>408</v>
-      </c>
-      <c r="C74" t="n">
-        <v>470</v>
-      </c>
       <c r="D74" t="n">
-        <v>1.915166047420507</v>
+        <v>3.029521962348387</v>
       </c>
       <c r="E74" t="n">
-        <v>1.299952894918446</v>
+        <v>2.414308809846326</v>
       </c>
       <c r="F74" t="n">
         <v>-0.6152131525020611</v>
       </c>
       <c r="G74" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H74" t="n">
-        <v>53.30320375957876</v>
+        <v>16.07063723684621</v>
       </c>
       <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="n">
         <v>31</v>
       </c>
-      <c r="J74" t="n">
-        <v>62</v>
-      </c>
       <c r="K74" t="n">
-        <v>113.8906639433298</v>
+        <v>89.31181732762444</v>
       </c>
       <c r="L74" t="n">
-        <v>5.176101457832777</v>
+        <v>8.18786082124233</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,16 +6798,16 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.8279610980390359</v>
+        <v>0.8601839526493386</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="R74" t="n">
-        <v>0.3352790896125437</v>
+        <v>0.3588327624337797</v>
       </c>
       <c r="S74" t="n">
-        <v>0.8766556478964517</v>
+        <v>0.8632918403300402</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1262</v>
+        <v>1321</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1217</v>
+        <v>377</v>
       </c>
       <c r="B75" t="n">
-        <v>1251</v>
+        <v>408</v>
       </c>
       <c r="C75" t="n">
-        <v>1311</v>
+        <v>470</v>
       </c>
       <c r="D75" t="n">
-        <v>2.055966564981067</v>
+        <v>1.915166047420507</v>
       </c>
       <c r="E75" t="n">
-        <v>1.362322312264404</v>
+        <v>1.299952894918446</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.6936442527166629</v>
+        <v>-0.6152131525020611</v>
       </c>
       <c r="G75" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H75" t="n">
-        <v>32.0707174233778</v>
+        <v>53.30320375957876</v>
       </c>
       <c r="I75" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J75" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K75" t="n">
-        <v>87.03312167706858</v>
+        <v>113.8906639433298</v>
       </c>
       <c r="L75" t="n">
-        <v>6.05814760976928</v>
+        <v>5.176101457832777</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8501421986805607</v>
+        <v>0.8279610980390359</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2847796471017064</v>
+        <v>0.3352790896125437</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9643281261266292</v>
+        <v>0.8766556478964517</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n50</t>
+          <t>n48</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1263</v>
+        <v>1322</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1251</v>
+      </c>
+      <c r="C76" t="n">
         <v>1311</v>
       </c>
-      <c r="B76" t="n">
-        <v>1344</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1459</v>
-      </c>
       <c r="D76" t="n">
-        <v>2.810785299964908</v>
+        <v>2.055966564981067</v>
       </c>
       <c r="E76" t="n">
-        <v>2.117141047248245</v>
+        <v>1.362322312264404</v>
       </c>
       <c r="F76" t="n">
         <v>-0.6936442527166629</v>
       </c>
       <c r="G76" t="n">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="H76" t="n">
-        <v>32.89855933408558</v>
+        <v>32.0707174233778</v>
       </c>
       <c r="I76" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J76" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K76" t="n">
-        <v>255.0044448509587</v>
+        <v>87.03312167706858</v>
       </c>
       <c r="L76" t="n">
-        <v>8.282309905518257</v>
+        <v>6.05814760976928</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,16 +6970,16 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.8277248216514114</v>
+        <v>0.8501421986805607</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.2869565217391304</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="R76" t="n">
-        <v>0.4459218853352316</v>
+        <v>0.2847796471017064</v>
       </c>
       <c r="S76" t="n">
-        <v>0.5967450136062773</v>
+        <v>0.9643281261266292</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1264</v>
+        <v>1323</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C77" t="n">
         <v>1459</v>
       </c>
-      <c r="B77" t="n">
-        <v>1508</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1598</v>
-      </c>
       <c r="D77" t="n">
-        <v>3.387131521128833</v>
+        <v>2.810785299964908</v>
       </c>
       <c r="E77" t="n">
-        <v>2.69348726841217</v>
+        <v>2.117141047248245</v>
       </c>
       <c r="F77" t="n">
         <v>-0.6936442527166629</v>
       </c>
       <c r="G77" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H77" t="n">
-        <v>59.35488749819865</v>
+        <v>32.89855933408558</v>
       </c>
       <c r="I77" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J77" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="K77" t="n">
-        <v>255.229811690603</v>
+        <v>255.0044448509587</v>
       </c>
       <c r="L77" t="n">
-        <v>9.980581921034201</v>
+        <v>8.282309905518257</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,16 +7056,16 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.8643566382025076</v>
+        <v>0.8277248216514114</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.5444444444444444</v>
+        <v>0.2869565217391304</v>
       </c>
       <c r="R77" t="n">
-        <v>0.2404998803940792</v>
+        <v>0.4459218853352316</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9777555076924267</v>
+        <v>0.5967450136062773</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1265</v>
+        <v>1324</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1028</v>
+        <v>1459</v>
       </c>
       <c r="B78" t="n">
-        <v>1048</v>
+        <v>1508</v>
       </c>
       <c r="C78" t="n">
-        <v>1081</v>
+        <v>1598</v>
       </c>
       <c r="D78" t="n">
-        <v>2.189331679232047</v>
+        <v>3.387131521128833</v>
       </c>
       <c r="E78" t="n">
-        <v>1.566043906463189</v>
+        <v>2.69348726841217</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6232877727688575</v>
+        <v>-0.6936442527166629</v>
       </c>
       <c r="G78" t="n">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="H78" t="n">
-        <v>20.64742421181472</v>
+        <v>59.35488749819865</v>
       </c>
       <c r="I78" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="J78" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="K78" t="n">
-        <v>88.4935702180022</v>
+        <v>255.229811690603</v>
       </c>
       <c r="L78" t="n">
-        <v>5.079566876621658</v>
+        <v>9.980581921034201</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.7881242669642711</v>
+        <v>0.8643566382025076</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="R78" t="n">
-        <v>0.1492951879024462</v>
+        <v>0.2404998803940792</v>
       </c>
       <c r="S78" t="n">
-        <v>0.9485076720858907</v>
+        <v>0.9777555076924267</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n51</t>
+          <t>n50</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1266</v>
+        <v>1325</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,85 +7179,257 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1373</v>
+        <v>984</v>
       </c>
       <c r="B79" t="n">
-        <v>1405</v>
+        <v>1003</v>
       </c>
       <c r="C79" t="n">
-        <v>1461</v>
+        <v>1028</v>
       </c>
       <c r="D79" t="n">
-        <v>2.822344485840389</v>
+        <v>2.46845187439014</v>
       </c>
       <c r="E79" t="n">
-        <v>2.199056713071531</v>
+        <v>1.845164101621283</v>
       </c>
       <c r="F79" t="n">
         <v>-0.6232877727688575</v>
       </c>
       <c r="G79" t="n">
+        <v>44</v>
+      </c>
+      <c r="H79" t="n">
+        <v>17.79215973343958</v>
+      </c>
+      <c r="I79" t="n">
+        <v>19</v>
+      </c>
+      <c r="J79" t="n">
+        <v>25</v>
+      </c>
+      <c r="K79" t="n">
+        <v>91.54639688674877</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5.727166192600381</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.673811211547487</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.06423120837257003</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9827618097226458</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1326</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1048</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1081</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.189331679232047</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.566043906463189</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.6232877727688575</v>
+      </c>
+      <c r="G80" t="n">
+        <v>53</v>
+      </c>
+      <c r="H80" t="n">
+        <v>20.64742421181472</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>33</v>
+      </c>
+      <c r="K80" t="n">
+        <v>88.4935702180022</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.079566876621658</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7881242669642711</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.1492951879024462</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.9485076720858907</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n51</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1327</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1461</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.822344485840389</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.199056713071531</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.6232877727688575</v>
+      </c>
+      <c r="G81" t="n">
         <v>88</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H81" t="n">
         <v>109.8333230352869</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I81" t="n">
         <v>32</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J81" t="n">
         <v>56</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K81" t="n">
         <v>170.6749812561592</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L81" t="n">
         <v>6.548248353908335</v>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P79" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
         <v>0.788776153072771</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q81" t="n">
         <v>0.5714285714285714</v>
       </c>
-      <c r="R79" t="n">
+      <c r="R81" t="n">
         <v>0.2957603355487675</v>
       </c>
-      <c r="S79" t="n">
+      <c r="S81" t="n">
         <v>0.9525715499661014</v>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>n51</t>
         </is>
       </c>
-      <c r="U79" t="n">
-        <v>1267</v>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
+      <c r="U81" t="n">
+        <v>1328</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.29790930NORtestCellVedio2CellVedio22024-12-04200410trace.xlsx</t>
         </is>
